--- a/T20 Lab Cleanup/_MRSD Team I Lab Cleanup Worksheet.xlsx
+++ b/T20 Lab Cleanup/_MRSD Team I Lab Cleanup Worksheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/williamfu/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/williamfu/Desktop/MRSD Project 1/Tasks/T20 Lab Cleanup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDBBEAA6-E2D9-0448-B175-CCB4A808674A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B8577A-FDCA-9C42-88C5-20E81DB49B4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="369">
   <si>
     <t>Standard Lab Bench Items: Category</t>
   </si>
@@ -1102,12 +1102,6 @@
     <t>Left table red bin, inside black pouch</t>
   </si>
   <si>
-    <t>Consumed one, on left table</t>
-  </si>
-  <si>
-    <t>Only around 20 wires remaining, right table black bins</t>
-  </si>
-  <si>
     <t>Currently in use by 2024 Team I</t>
   </si>
   <si>
@@ -1118,6 +1112,39 @@
   </si>
   <si>
     <t>Screwdrivers are all mixed and unidentifiable, aggregated to Screwdrivers section</t>
+  </si>
+  <si>
+    <t>Quanity @ 04/29/2025</t>
+  </si>
+  <si>
+    <t>Spring Check @ XX/XX/2025 TA remarks</t>
+  </si>
+  <si>
+    <t>TA bought new one, on left table</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Spring Lab Cleanup Notes @ 04/27/2025</t>
+  </si>
+  <si>
+    <t>Approx. 20 cables, left table black and yellow bins</t>
+  </si>
+  <si>
+    <t>Replenished to approx. 100 cables, left table black and yellow bins</t>
+  </si>
+  <si>
+    <t>Missing, most likely another team took it</t>
+  </si>
+  <si>
+    <t>Right benchtop blue bin</t>
+  </si>
+  <si>
+    <t>One additional found, probably other team misplaced it</t>
+  </si>
+  <si>
+    <t>Benchtop, 4 empty</t>
+  </si>
+  <si>
+    <t>2024 Team I probably took it</t>
   </si>
 </sst>
 </file>
@@ -1297,27 +1324,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1332,29 +1344,27 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1568,11 +1578,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AC864"/>
+  <dimension ref="A1:AF864"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="161" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="161" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H123" sqref="H123"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1582,53 +1592,59 @@
     <col min="3" max="3" width="19.83203125" customWidth="1"/>
     <col min="4" max="4" width="11.83203125" customWidth="1"/>
     <col min="5" max="5" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" customWidth="1"/>
-    <col min="7" max="7" width="9.83203125" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" customWidth="1"/>
-    <col min="9" max="9" width="36.1640625" customWidth="1"/>
-    <col min="10" max="10" width="8.33203125" customWidth="1"/>
-    <col min="11" max="11" width="77.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="20" width="15" customWidth="1"/>
-    <col min="21" max="29" width="7" customWidth="1"/>
+    <col min="6" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="9.83203125" customWidth="1"/>
+    <col min="9" max="10" width="12.83203125" customWidth="1"/>
+    <col min="11" max="12" width="36.1640625" customWidth="1"/>
+    <col min="13" max="13" width="8.33203125" customWidth="1"/>
+    <col min="14" max="14" width="77.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="23" width="15" customWidth="1"/>
+    <col min="24" max="32" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="43" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="13" t="s">
+    <row r="1" spans="1:32" ht="57" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="J1" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="K1" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="L1" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="M1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="N1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
@@ -1644,9 +1660,12 @@
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
-    </row>
-    <row r="2" spans="1:29" ht="14" x14ac:dyDescent="0.15">
-      <c r="A2" s="10" t="s">
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+    </row>
+    <row r="2" spans="1:32" ht="14" x14ac:dyDescent="0.15">
+      <c r="A2" s="17" t="s">
         <v>197</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -1661,21 +1680,23 @@
       <c r="E2" s="5">
         <v>1</v>
       </c>
-      <c r="F2" s="16">
-        <v>0</v>
-      </c>
-      <c r="G2" s="16">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5" t="s">
+      <c r="F2" s="11">
+        <v>0</v>
+      </c>
+      <c r="G2" s="11">
+        <v>0</v>
+      </c>
+      <c r="H2" s="11">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="9"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
@@ -1691,9 +1712,12 @@
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
-    </row>
-    <row r="3" spans="1:29" ht="14" x14ac:dyDescent="0.15">
-      <c r="A3" s="8"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+    </row>
+    <row r="3" spans="1:32" ht="14" x14ac:dyDescent="0.15">
+      <c r="A3" s="15"/>
       <c r="B3" s="3" t="s">
         <v>104</v>
       </c>
@@ -1712,17 +1736,19 @@
       <c r="G3" s="3">
         <v>1</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3" t="s">
+      <c r="H3" s="3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -1738,9 +1764,12 @@
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
-    </row>
-    <row r="4" spans="1:29" ht="28" x14ac:dyDescent="0.15">
-      <c r="A4" s="8"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+    </row>
+    <row r="4" spans="1:32" ht="28" x14ac:dyDescent="0.15">
+      <c r="A4" s="15"/>
       <c r="B4" s="3" t="s">
         <v>222</v>
       </c>
@@ -1759,17 +1788,19 @@
       <c r="G4" s="3">
         <v>2</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3" t="s">
+      <c r="H4" s="3">
+        <v>2</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="4" t="s">
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
@@ -1785,9 +1816,12 @@
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
       <c r="AC4" s="1"/>
-    </row>
-    <row r="5" spans="1:29" ht="28" x14ac:dyDescent="0.15">
-      <c r="A5" s="8"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+    </row>
+    <row r="5" spans="1:32" ht="28" x14ac:dyDescent="0.15">
+      <c r="A5" s="15"/>
       <c r="B5" s="3" t="s">
         <v>223</v>
       </c>
@@ -1806,19 +1840,21 @@
       <c r="G5" s="3">
         <v>1</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="3">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="J5" s="3"/>
+      <c r="K5" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="4" t="s">
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
@@ -1834,9 +1870,12 @@
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
       <c r="AC5" s="1"/>
-    </row>
-    <row r="6" spans="1:29" ht="28" x14ac:dyDescent="0.15">
-      <c r="A6" s="8"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+    </row>
+    <row r="6" spans="1:32" ht="28" x14ac:dyDescent="0.15">
+      <c r="A6" s="15"/>
       <c r="B6" s="3" t="s">
         <v>225</v>
       </c>
@@ -1849,21 +1888,23 @@
       <c r="E6" s="3">
         <v>1</v>
       </c>
-      <c r="F6" s="17">
-        <v>0</v>
-      </c>
-      <c r="G6" s="17">
-        <v>0</v>
-      </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3" t="s">
+      <c r="F6" s="12">
+        <v>0</v>
+      </c>
+      <c r="G6" s="12">
+        <v>0</v>
+      </c>
+      <c r="H6" s="12">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="8"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
@@ -1879,9 +1920,12 @@
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
       <c r="AC6" s="1"/>
-    </row>
-    <row r="7" spans="1:29" ht="28" x14ac:dyDescent="0.15">
-      <c r="A7" s="8"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
+    </row>
+    <row r="7" spans="1:32" ht="28" x14ac:dyDescent="0.15">
+      <c r="A7" s="15"/>
       <c r="B7" s="3" t="s">
         <v>227</v>
       </c>
@@ -1894,21 +1938,23 @@
       <c r="E7" s="3">
         <v>1</v>
       </c>
-      <c r="F7" s="17">
-        <v>0</v>
-      </c>
-      <c r="G7" s="17">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3" t="s">
+      <c r="F7" s="12">
+        <v>0</v>
+      </c>
+      <c r="G7" s="12">
+        <v>0</v>
+      </c>
+      <c r="H7" s="12">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="8"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -1924,9 +1970,12 @@
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
       <c r="AC7" s="1"/>
-    </row>
-    <row r="8" spans="1:29" ht="28" x14ac:dyDescent="0.15">
-      <c r="A8" s="8"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
+    </row>
+    <row r="8" spans="1:32" ht="28" x14ac:dyDescent="0.15">
+      <c r="A8" s="15"/>
       <c r="B8" s="3" t="s">
         <v>229</v>
       </c>
@@ -1939,21 +1988,23 @@
       <c r="E8" s="3">
         <v>1</v>
       </c>
-      <c r="F8" s="17">
-        <v>0</v>
-      </c>
-      <c r="G8" s="17">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3" t="s">
+      <c r="F8" s="12">
+        <v>0</v>
+      </c>
+      <c r="G8" s="12">
+        <v>0</v>
+      </c>
+      <c r="H8" s="12">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="8"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
@@ -1969,9 +2020,12 @@
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
-    </row>
-    <row r="9" spans="1:29" ht="14" x14ac:dyDescent="0.15">
-      <c r="A9" s="8" t="s">
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="1"/>
+    </row>
+    <row r="9" spans="1:32" ht="14" x14ac:dyDescent="0.15">
+      <c r="A9" s="15" t="s">
         <v>200</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -1992,17 +2046,19 @@
       <c r="G9" s="3">
         <v>1</v>
       </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3" t="s">
+      <c r="H9" s="3">
+        <v>1</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="J9" s="3"/>
-      <c r="K9" s="4" t="s">
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -2018,9 +2074,12 @@
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
-    </row>
-    <row r="10" spans="1:29" ht="14" x14ac:dyDescent="0.15">
-      <c r="A10" s="8"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="1"/>
+    </row>
+    <row r="10" spans="1:32" ht="14" x14ac:dyDescent="0.15">
+      <c r="A10" s="15"/>
       <c r="B10" s="3" t="s">
         <v>232</v>
       </c>
@@ -2039,17 +2098,19 @@
       <c r="G10" s="3">
         <v>1</v>
       </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="6" t="s">
+      <c r="H10" s="3">
+        <v>1</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="J10" s="3"/>
-      <c r="K10" s="4" t="s">
+      <c r="L10" s="6"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
@@ -2065,9 +2126,12 @@
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
-    </row>
-    <row r="11" spans="1:29" ht="28" x14ac:dyDescent="0.15">
-      <c r="A11" s="8" t="s">
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1"/>
+    </row>
+    <row r="11" spans="1:32" ht="28" x14ac:dyDescent="0.15">
+      <c r="A11" s="15" t="s">
         <v>201</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -2082,23 +2146,25 @@
       <c r="E11" s="3">
         <v>1</v>
       </c>
-      <c r="F11" s="17">
-        <v>0</v>
-      </c>
-      <c r="G11" s="17">
-        <v>0</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>341</v>
+      <c r="F11" s="12">
+        <v>0</v>
+      </c>
+      <c r="G11" s="12">
+        <v>0</v>
+      </c>
+      <c r="H11" s="12">
+        <v>0</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>341</v>
       </c>
       <c r="J11" s="3"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
+      <c r="K11" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="8"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
@@ -2114,9 +2180,12 @@
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
-    </row>
-    <row r="12" spans="1:29" ht="14" x14ac:dyDescent="0.15">
-      <c r="A12" s="8"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1"/>
+    </row>
+    <row r="12" spans="1:32" ht="14" x14ac:dyDescent="0.15">
+      <c r="A12" s="15"/>
       <c r="B12" s="3" t="s">
         <v>235</v>
       </c>
@@ -2129,23 +2198,25 @@
       <c r="E12" s="3">
         <v>1</v>
       </c>
-      <c r="F12" s="17">
-        <v>0</v>
-      </c>
-      <c r="G12" s="17">
-        <v>0</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>341</v>
+      <c r="F12" s="12">
+        <v>0</v>
+      </c>
+      <c r="G12" s="12">
+        <v>0</v>
+      </c>
+      <c r="H12" s="12">
+        <v>0</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>341</v>
       </c>
       <c r="J12" s="3"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
+      <c r="K12" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="8"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
@@ -2161,9 +2232,12 @@
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
-    </row>
-    <row r="13" spans="1:29" ht="28" x14ac:dyDescent="0.15">
-      <c r="A13" s="8"/>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1"/>
+    </row>
+    <row r="13" spans="1:32" ht="28" x14ac:dyDescent="0.15">
+      <c r="A13" s="15"/>
       <c r="B13" s="3" t="s">
         <v>237</v>
       </c>
@@ -2176,21 +2250,23 @@
       <c r="E13" s="3">
         <v>2</v>
       </c>
-      <c r="F13" s="17">
-        <v>0</v>
-      </c>
-      <c r="G13" s="17">
-        <v>0</v>
-      </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3" t="s">
+      <c r="F13" s="12">
+        <v>0</v>
+      </c>
+      <c r="G13" s="12">
+        <v>0</v>
+      </c>
+      <c r="H13" s="12">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="J13" s="3"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="8"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
@@ -2206,9 +2282,12 @@
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
-    </row>
-    <row r="14" spans="1:29" ht="28" x14ac:dyDescent="0.15">
-      <c r="A14" s="8"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1"/>
+    </row>
+    <row r="14" spans="1:32" ht="28" x14ac:dyDescent="0.15">
+      <c r="A14" s="15"/>
       <c r="B14" s="3" t="s">
         <v>239</v>
       </c>
@@ -2221,21 +2300,23 @@
       <c r="E14" s="3">
         <v>2</v>
       </c>
-      <c r="F14" s="17">
-        <v>0</v>
-      </c>
-      <c r="G14" s="17">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3" t="s">
+      <c r="F14" s="12">
+        <v>0</v>
+      </c>
+      <c r="G14" s="12">
+        <v>0</v>
+      </c>
+      <c r="H14" s="12">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="J14" s="3"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="8"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
@@ -2251,9 +2332,12 @@
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
-    </row>
-    <row r="15" spans="1:29" ht="28" x14ac:dyDescent="0.15">
-      <c r="A15" s="8"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="1"/>
+    </row>
+    <row r="15" spans="1:32" ht="28" x14ac:dyDescent="0.15">
+      <c r="A15" s="15"/>
       <c r="B15" s="3" t="s">
         <v>241</v>
       </c>
@@ -2266,21 +2350,23 @@
       <c r="E15" s="3">
         <v>1</v>
       </c>
-      <c r="F15" s="17">
-        <v>0</v>
-      </c>
-      <c r="G15" s="17">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3" t="s">
+      <c r="F15" s="12">
+        <v>0</v>
+      </c>
+      <c r="G15" s="12">
+        <v>0</v>
+      </c>
+      <c r="H15" s="12">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="J15" s="3"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="8"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
@@ -2296,9 +2382,12 @@
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
-    </row>
-    <row r="16" spans="1:29" ht="28" x14ac:dyDescent="0.15">
-      <c r="A16" s="8"/>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="1"/>
+      <c r="AF15" s="1"/>
+    </row>
+    <row r="16" spans="1:32" ht="28" x14ac:dyDescent="0.15">
+      <c r="A16" s="15"/>
       <c r="B16" s="3" t="s">
         <v>243</v>
       </c>
@@ -2317,17 +2406,21 @@
       <c r="G16" s="3">
         <v>1</v>
       </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3" t="s">
-        <v>355</v>
-      </c>
+      <c r="H16" s="3">
+        <v>1</v>
+      </c>
+      <c r="I16" s="3"/>
       <c r="J16" s="3"/>
-      <c r="K16" s="4" t="s">
+      <c r="K16" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="M16" s="3"/>
+      <c r="N16" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
@@ -2343,9 +2436,12 @@
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
-    </row>
-    <row r="17" spans="1:29" ht="28" x14ac:dyDescent="0.15">
-      <c r="A17" s="8"/>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="1"/>
+      <c r="AF16" s="1"/>
+    </row>
+    <row r="17" spans="1:32" ht="28" x14ac:dyDescent="0.15">
+      <c r="A17" s="15"/>
       <c r="B17" s="3" t="s">
         <v>244</v>
       </c>
@@ -2358,21 +2454,23 @@
       <c r="E17" s="3">
         <v>1</v>
       </c>
-      <c r="F17" s="17">
-        <v>0</v>
-      </c>
-      <c r="G17" s="17">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3" t="s">
+      <c r="F17" s="12">
+        <v>0</v>
+      </c>
+      <c r="G17" s="12">
+        <v>0</v>
+      </c>
+      <c r="H17" s="12">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="J17" s="3"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="8"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
@@ -2388,9 +2486,12 @@
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
       <c r="AC17" s="1"/>
-    </row>
-    <row r="18" spans="1:29" ht="14" x14ac:dyDescent="0.15">
-      <c r="A18" s="8"/>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="1"/>
+      <c r="AF17" s="1"/>
+    </row>
+    <row r="18" spans="1:32" ht="14" x14ac:dyDescent="0.15">
+      <c r="A18" s="15"/>
       <c r="B18" s="3" t="s">
         <v>246</v>
       </c>
@@ -2403,21 +2504,23 @@
       <c r="E18" s="3">
         <v>1</v>
       </c>
-      <c r="F18" s="17">
-        <v>0</v>
-      </c>
-      <c r="G18" s="17">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3" t="s">
+      <c r="F18" s="12">
+        <v>0</v>
+      </c>
+      <c r="G18" s="12">
+        <v>0</v>
+      </c>
+      <c r="H18" s="12">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="J18" s="3"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="8"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
@@ -2433,9 +2536,12 @@
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
       <c r="AC18" s="1"/>
-    </row>
-    <row r="19" spans="1:29" ht="14" x14ac:dyDescent="0.15">
-      <c r="A19" s="8"/>
+      <c r="AD18" s="1"/>
+      <c r="AE18" s="1"/>
+      <c r="AF18" s="1"/>
+    </row>
+    <row r="19" spans="1:32" ht="14" x14ac:dyDescent="0.15">
+      <c r="A19" s="15"/>
       <c r="B19" s="3" t="s">
         <v>248</v>
       </c>
@@ -2448,21 +2554,23 @@
       <c r="E19" s="3">
         <v>1</v>
       </c>
-      <c r="F19" s="17">
-        <v>0</v>
-      </c>
-      <c r="G19" s="17">
-        <v>0</v>
-      </c>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3" t="s">
+      <c r="F19" s="12">
+        <v>0</v>
+      </c>
+      <c r="G19" s="12">
+        <v>0</v>
+      </c>
+      <c r="H19" s="12">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="J19" s="3"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="8"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
@@ -2478,9 +2586,12 @@
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
       <c r="AC19" s="1"/>
-    </row>
-    <row r="20" spans="1:29" ht="42" x14ac:dyDescent="0.15">
-      <c r="A20" s="8" t="s">
+      <c r="AD19" s="1"/>
+      <c r="AE19" s="1"/>
+      <c r="AF19" s="1"/>
+    </row>
+    <row r="20" spans="1:32" ht="42" x14ac:dyDescent="0.15">
+      <c r="A20" s="15" t="s">
         <v>143</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -2489,29 +2600,31 @@
       <c r="C20" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="D20" s="18">
-        <v>1</v>
-      </c>
-      <c r="E20" s="18">
-        <v>1</v>
-      </c>
-      <c r="F20" s="18">
+      <c r="D20" s="13">
+        <v>1</v>
+      </c>
+      <c r="E20" s="13">
+        <v>1</v>
+      </c>
+      <c r="F20" s="13">
         <v>2</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="13">
         <v>2</v>
       </c>
-      <c r="H20" s="3"/>
-      <c r="I20" s="6" t="s">
+      <c r="H20" s="13">
+        <v>2</v>
+      </c>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="J20" s="3"/>
-      <c r="K20" s="4" t="s">
+      <c r="L20" s="6"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
@@ -2527,38 +2640,43 @@
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
       <c r="AC20" s="1"/>
-    </row>
-    <row r="21" spans="1:29" ht="14" x14ac:dyDescent="0.15">
-      <c r="A21" s="8"/>
+      <c r="AD20" s="1"/>
+      <c r="AE20" s="1"/>
+      <c r="AF20" s="1"/>
+    </row>
+    <row r="21" spans="1:32" ht="14" x14ac:dyDescent="0.15">
+      <c r="A21" s="15"/>
       <c r="B21" s="3" t="s">
         <v>145</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D21" s="13">
         <v>2</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E21" s="13">
         <v>2</v>
       </c>
-      <c r="F21" s="19">
-        <v>1</v>
-      </c>
-      <c r="G21" s="19">
-        <v>1</v>
-      </c>
-      <c r="H21" s="3"/>
-      <c r="I21" s="6" t="s">
-        <v>354</v>
-      </c>
+      <c r="F21" s="14">
+        <v>1</v>
+      </c>
+      <c r="G21" s="14">
+        <v>2</v>
+      </c>
+      <c r="H21" s="14">
+        <v>2</v>
+      </c>
+      <c r="I21" s="3"/>
       <c r="J21" s="3"/>
-      <c r="K21" s="4" t="s">
+      <c r="K21" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="L21" s="6"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
@@ -2574,9 +2692,12 @@
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
       <c r="AC21" s="1"/>
-    </row>
-    <row r="22" spans="1:29" ht="14" x14ac:dyDescent="0.15">
-      <c r="A22" s="8"/>
+      <c r="AD21" s="1"/>
+      <c r="AE21" s="1"/>
+      <c r="AF21" s="1"/>
+    </row>
+    <row r="22" spans="1:32" ht="14" x14ac:dyDescent="0.15">
+      <c r="A22" s="15"/>
       <c r="B22" s="3" t="s">
         <v>147</v>
       </c>
@@ -2595,17 +2716,19 @@
       <c r="G22" s="6">
         <v>2</v>
       </c>
-      <c r="H22" s="3"/>
-      <c r="I22" s="6" t="s">
+      <c r="H22" s="6">
+        <v>2</v>
+      </c>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="J22" s="3"/>
-      <c r="K22" s="4" t="s">
+      <c r="L22" s="6"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
@@ -2621,9 +2744,12 @@
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
       <c r="AC22" s="1"/>
-    </row>
-    <row r="23" spans="1:29" ht="14" x14ac:dyDescent="0.15">
-      <c r="A23" s="8"/>
+      <c r="AD22" s="1"/>
+      <c r="AE22" s="1"/>
+      <c r="AF22" s="1"/>
+    </row>
+    <row r="23" spans="1:32" ht="14" x14ac:dyDescent="0.15">
+      <c r="A23" s="15"/>
       <c r="B23" s="3" t="s">
         <v>149</v>
       </c>
@@ -2642,17 +2768,19 @@
       <c r="G23" s="6">
         <v>4</v>
       </c>
-      <c r="H23" s="3"/>
-      <c r="I23" s="6" t="s">
+      <c r="H23" s="6">
+        <v>4</v>
+      </c>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="J23" s="3"/>
-      <c r="K23" s="4" t="s">
+      <c r="L23" s="6"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
@@ -2668,9 +2796,12 @@
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
       <c r="AC23" s="1"/>
-    </row>
-    <row r="24" spans="1:29" ht="28" x14ac:dyDescent="0.15">
-      <c r="A24" s="8"/>
+      <c r="AD23" s="1"/>
+      <c r="AE23" s="1"/>
+      <c r="AF23" s="1"/>
+    </row>
+    <row r="24" spans="1:32" ht="28" x14ac:dyDescent="0.15">
+      <c r="A24" s="15"/>
       <c r="B24" s="3" t="s">
         <v>251</v>
       </c>
@@ -2683,21 +2814,23 @@
       <c r="E24" s="3">
         <v>4</v>
       </c>
-      <c r="F24" s="17">
-        <v>0</v>
-      </c>
-      <c r="G24" s="17">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3" t="s">
+      <c r="F24" s="12">
+        <v>0</v>
+      </c>
+      <c r="G24" s="12">
+        <v>0</v>
+      </c>
+      <c r="H24" s="12">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="J24" s="3"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="8"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
@@ -2713,9 +2846,12 @@
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
       <c r="AC24" s="1"/>
-    </row>
-    <row r="25" spans="1:29" ht="14" x14ac:dyDescent="0.15">
-      <c r="A25" s="8" t="s">
+      <c r="AD24" s="1"/>
+      <c r="AE24" s="1"/>
+      <c r="AF24" s="1"/>
+    </row>
+    <row r="25" spans="1:32" ht="14" x14ac:dyDescent="0.15">
+      <c r="A25" s="15" t="s">
         <v>73</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -2736,17 +2872,19 @@
       <c r="G25" s="6">
         <v>2</v>
       </c>
-      <c r="H25" s="3"/>
-      <c r="I25" s="6" t="s">
+      <c r="H25" s="6">
+        <v>2</v>
+      </c>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="J25" s="3"/>
-      <c r="K25" s="4" t="s">
+      <c r="L25" s="6"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
@@ -2762,9 +2900,12 @@
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
       <c r="AC25" s="1"/>
-    </row>
-    <row r="26" spans="1:29" ht="14" x14ac:dyDescent="0.15">
-      <c r="A26" s="8"/>
+      <c r="AD25" s="1"/>
+      <c r="AE25" s="1"/>
+      <c r="AF25" s="1"/>
+    </row>
+    <row r="26" spans="1:32" ht="14" x14ac:dyDescent="0.15">
+      <c r="A26" s="15"/>
       <c r="B26" s="3" t="s">
         <v>74</v>
       </c>
@@ -2783,17 +2924,19 @@
       <c r="G26" s="3">
         <v>1</v>
       </c>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3" t="s">
+      <c r="H26" s="3">
+        <v>1</v>
+      </c>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="J26" s="3"/>
-      <c r="K26" s="4" t="s">
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
@@ -2809,9 +2952,12 @@
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
       <c r="AC26" s="1"/>
-    </row>
-    <row r="27" spans="1:29" ht="14" x14ac:dyDescent="0.15">
-      <c r="A27" s="8"/>
+      <c r="AD26" s="1"/>
+      <c r="AE26" s="1"/>
+      <c r="AF26" s="1"/>
+    </row>
+    <row r="27" spans="1:32" ht="14" x14ac:dyDescent="0.15">
+      <c r="A27" s="15"/>
       <c r="B27" s="3" t="s">
         <v>114</v>
       </c>
@@ -2830,17 +2976,19 @@
       <c r="G27" s="6">
         <v>1</v>
       </c>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3" t="s">
+      <c r="H27" s="6">
+        <v>1</v>
+      </c>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="J27" s="3"/>
-      <c r="K27" s="4" t="s">
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
@@ -2856,9 +3004,12 @@
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
       <c r="AC27" s="1"/>
-    </row>
-    <row r="28" spans="1:29" ht="28" x14ac:dyDescent="0.15">
-      <c r="A28" s="8" t="s">
+      <c r="AD27" s="1"/>
+      <c r="AE27" s="1"/>
+      <c r="AF27" s="1"/>
+    </row>
+    <row r="28" spans="1:32" ht="28" x14ac:dyDescent="0.15">
+      <c r="A28" s="15" t="s">
         <v>202</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -2873,21 +3024,23 @@
       <c r="E28" s="3">
         <v>1</v>
       </c>
-      <c r="F28" s="17">
-        <v>0</v>
-      </c>
-      <c r="G28" s="17">
-        <v>0</v>
-      </c>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3" t="s">
+      <c r="F28" s="12">
+        <v>0</v>
+      </c>
+      <c r="G28" s="12">
+        <v>0</v>
+      </c>
+      <c r="H28" s="12">
+        <v>0</v>
+      </c>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="J28" s="3"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="8"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
@@ -2903,9 +3056,12 @@
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
       <c r="AC28" s="1"/>
-    </row>
-    <row r="29" spans="1:29" ht="14" x14ac:dyDescent="0.15">
-      <c r="A29" s="8"/>
+      <c r="AD28" s="1"/>
+      <c r="AE28" s="1"/>
+      <c r="AF28" s="1"/>
+    </row>
+    <row r="29" spans="1:32" ht="14" x14ac:dyDescent="0.15">
+      <c r="A29" s="15"/>
       <c r="B29" s="3" t="s">
         <v>254</v>
       </c>
@@ -2918,21 +3074,23 @@
       <c r="E29" s="3">
         <v>1</v>
       </c>
-      <c r="F29" s="17">
-        <v>0</v>
-      </c>
-      <c r="G29" s="17">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3" t="s">
+      <c r="F29" s="12">
+        <v>0</v>
+      </c>
+      <c r="G29" s="12">
+        <v>0</v>
+      </c>
+      <c r="H29" s="12">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="J29" s="3"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="8"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
@@ -2948,9 +3106,12 @@
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
       <c r="AC29" s="1"/>
-    </row>
-    <row r="30" spans="1:29" ht="14" x14ac:dyDescent="0.15">
-      <c r="A30" s="8"/>
+      <c r="AD29" s="1"/>
+      <c r="AE29" s="1"/>
+      <c r="AF29" s="1"/>
+    </row>
+    <row r="30" spans="1:32" ht="14" x14ac:dyDescent="0.15">
+      <c r="A30" s="15"/>
       <c r="B30" s="3" t="s">
         <v>70</v>
       </c>
@@ -2969,17 +3130,19 @@
       <c r="G30" s="3">
         <v>1</v>
       </c>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3" t="s">
+      <c r="H30" s="3">
+        <v>1</v>
+      </c>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="J30" s="3"/>
-      <c r="K30" s="4" t="s">
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
@@ -2995,9 +3158,12 @@
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
       <c r="AC30" s="1"/>
-    </row>
-    <row r="31" spans="1:29" ht="28" x14ac:dyDescent="0.15">
-      <c r="A31" s="14" t="s">
+      <c r="AD30" s="1"/>
+      <c r="AE30" s="1"/>
+      <c r="AF30" s="1"/>
+    </row>
+    <row r="31" spans="1:32" ht="28" x14ac:dyDescent="0.15">
+      <c r="A31" s="18" t="s">
         <v>164</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -3018,17 +3184,19 @@
       <c r="G31" s="6">
         <v>1</v>
       </c>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3" t="s">
+      <c r="H31" s="6">
+        <v>1</v>
+      </c>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="J31" s="3"/>
-      <c r="K31" s="4" t="s">
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
@@ -3044,9 +3212,12 @@
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
       <c r="AC31" s="1"/>
-    </row>
-    <row r="32" spans="1:29" ht="14" x14ac:dyDescent="0.15">
-      <c r="A32" s="15"/>
+      <c r="AD31" s="1"/>
+      <c r="AE31" s="1"/>
+      <c r="AF31" s="1"/>
+    </row>
+    <row r="32" spans="1:32" ht="14" x14ac:dyDescent="0.15">
+      <c r="A32" s="19"/>
       <c r="B32" s="3" t="s">
         <v>167</v>
       </c>
@@ -3065,17 +3236,19 @@
       <c r="G32" s="3">
         <v>1</v>
       </c>
-      <c r="H32" s="3"/>
-      <c r="I32" s="6" t="s">
+      <c r="H32" s="3">
+        <v>1</v>
+      </c>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="J32" s="3"/>
-      <c r="K32" s="4" t="s">
+      <c r="L32" s="6"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
@@ -3091,9 +3264,12 @@
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
       <c r="AC32" s="1"/>
-    </row>
-    <row r="33" spans="1:29" ht="14" x14ac:dyDescent="0.15">
-      <c r="A33" s="15"/>
+      <c r="AD32" s="1"/>
+      <c r="AE32" s="1"/>
+      <c r="AF32" s="1"/>
+    </row>
+    <row r="33" spans="1:32" ht="14" x14ac:dyDescent="0.15">
+      <c r="A33" s="19"/>
       <c r="B33" s="3" t="s">
         <v>169</v>
       </c>
@@ -3112,17 +3288,19 @@
       <c r="G33" s="6">
         <v>1</v>
       </c>
-      <c r="H33" s="3"/>
-      <c r="I33" s="6" t="s">
+      <c r="H33" s="6">
+        <v>1</v>
+      </c>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="J33" s="3"/>
-      <c r="K33" s="4" t="s">
+      <c r="L33" s="6"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
@@ -3138,38 +3316,45 @@
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
       <c r="AC33" s="1"/>
-    </row>
-    <row r="34" spans="1:29" ht="28" x14ac:dyDescent="0.15">
-      <c r="A34" s="15"/>
+      <c r="AD33" s="1"/>
+      <c r="AE33" s="1"/>
+      <c r="AF33" s="1"/>
+    </row>
+    <row r="34" spans="1:32" ht="28" x14ac:dyDescent="0.15">
+      <c r="A34" s="19"/>
       <c r="B34" s="3" t="s">
         <v>171</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D34" s="3">
-        <v>1</v>
-      </c>
-      <c r="E34" s="3">
-        <v>1</v>
-      </c>
-      <c r="F34" s="6">
-        <v>1</v>
-      </c>
-      <c r="G34" s="6">
-        <v>1</v>
-      </c>
-      <c r="H34" s="3"/>
-      <c r="I34" s="6" t="s">
+      <c r="D34" s="13">
+        <v>1</v>
+      </c>
+      <c r="E34" s="13">
+        <v>1</v>
+      </c>
+      <c r="F34" s="14">
+        <v>1</v>
+      </c>
+      <c r="G34" s="14">
+        <v>0</v>
+      </c>
+      <c r="H34" s="14">
+        <v>0</v>
+      </c>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="J34" s="3"/>
-      <c r="K34" s="4" t="s">
+      <c r="L34" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="M34" s="3"/>
+      <c r="N34" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
@@ -3185,38 +3370,43 @@
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
       <c r="AC34" s="1"/>
-    </row>
-    <row r="35" spans="1:29" ht="28" x14ac:dyDescent="0.15">
-      <c r="A35" s="15"/>
+      <c r="AD34" s="1"/>
+      <c r="AE34" s="1"/>
+      <c r="AF34" s="1"/>
+    </row>
+    <row r="35" spans="1:32" ht="28" x14ac:dyDescent="0.15">
+      <c r="A35" s="19"/>
       <c r="B35" s="3" t="s">
         <v>256</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D35" s="18">
-        <v>1</v>
-      </c>
-      <c r="E35" s="18">
-        <v>1</v>
-      </c>
-      <c r="F35" s="18">
+      <c r="D35" s="13">
+        <v>1</v>
+      </c>
+      <c r="E35" s="13">
+        <v>1</v>
+      </c>
+      <c r="F35" s="13">
         <v>2</v>
       </c>
-      <c r="G35" s="18">
+      <c r="G35" s="13">
         <v>2</v>
       </c>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3" t="s">
+      <c r="H35" s="13">
+        <v>2</v>
+      </c>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J35" s="3"/>
-      <c r="K35" s="4" t="s">
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
@@ -3232,9 +3422,12 @@
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
       <c r="AC35" s="1"/>
-    </row>
-    <row r="36" spans="1:29" ht="14" x14ac:dyDescent="0.15">
-      <c r="A36" s="15"/>
+      <c r="AD35" s="1"/>
+      <c r="AE35" s="1"/>
+      <c r="AF35" s="1"/>
+    </row>
+    <row r="36" spans="1:32" ht="14" x14ac:dyDescent="0.15">
+      <c r="A36" s="19"/>
       <c r="B36" s="3" t="s">
         <v>257</v>
       </c>
@@ -3247,21 +3440,23 @@
       <c r="E36" s="3">
         <v>1</v>
       </c>
-      <c r="F36" s="17">
-        <v>0</v>
-      </c>
-      <c r="G36" s="17">
-        <v>0</v>
-      </c>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3" t="s">
+      <c r="F36" s="12">
+        <v>0</v>
+      </c>
+      <c r="G36" s="12">
+        <v>0</v>
+      </c>
+      <c r="H36" s="12">
+        <v>0</v>
+      </c>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="J36" s="3"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="8"/>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
@@ -3277,9 +3472,12 @@
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
       <c r="AC36" s="1"/>
-    </row>
-    <row r="37" spans="1:29" ht="14" x14ac:dyDescent="0.15">
-      <c r="A37" s="15"/>
+      <c r="AD36" s="1"/>
+      <c r="AE36" s="1"/>
+      <c r="AF36" s="1"/>
+    </row>
+    <row r="37" spans="1:32" ht="14" x14ac:dyDescent="0.15">
+      <c r="A37" s="19"/>
       <c r="B37" s="3" t="s">
         <v>259</v>
       </c>
@@ -3292,21 +3490,23 @@
       <c r="E37" s="3">
         <v>1</v>
       </c>
-      <c r="F37" s="17">
-        <v>0</v>
-      </c>
-      <c r="G37" s="17">
-        <v>0</v>
-      </c>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3" t="s">
+      <c r="F37" s="12">
+        <v>0</v>
+      </c>
+      <c r="G37" s="12">
+        <v>0</v>
+      </c>
+      <c r="H37" s="12">
+        <v>0</v>
+      </c>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="J37" s="3"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="8"/>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
@@ -3322,9 +3522,12 @@
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
       <c r="AC37" s="1"/>
-    </row>
-    <row r="38" spans="1:29" ht="14" x14ac:dyDescent="0.15">
-      <c r="A38" s="15"/>
+      <c r="AD37" s="1"/>
+      <c r="AE37" s="1"/>
+      <c r="AF37" s="1"/>
+    </row>
+    <row r="38" spans="1:32" ht="14" x14ac:dyDescent="0.15">
+      <c r="A38" s="19"/>
       <c r="B38" s="3" t="s">
         <v>261</v>
       </c>
@@ -3337,21 +3540,23 @@
       <c r="E38" s="3">
         <v>1</v>
       </c>
-      <c r="F38" s="17">
-        <v>0</v>
-      </c>
-      <c r="G38" s="17">
-        <v>0</v>
-      </c>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3" t="s">
+      <c r="F38" s="12">
+        <v>0</v>
+      </c>
+      <c r="G38" s="12">
+        <v>0</v>
+      </c>
+      <c r="H38" s="12">
+        <v>0</v>
+      </c>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="J38" s="3"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="8"/>
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
@@ -3367,9 +3572,12 @@
       <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
       <c r="AC38" s="1"/>
-    </row>
-    <row r="39" spans="1:29" ht="14" x14ac:dyDescent="0.15">
-      <c r="A39" s="15"/>
+      <c r="AD38" s="1"/>
+      <c r="AE38" s="1"/>
+      <c r="AF38" s="1"/>
+    </row>
+    <row r="39" spans="1:32" ht="14" x14ac:dyDescent="0.15">
+      <c r="A39" s="19"/>
       <c r="B39" s="3" t="s">
         <v>263</v>
       </c>
@@ -3382,21 +3590,23 @@
       <c r="E39" s="3">
         <v>1</v>
       </c>
-      <c r="F39" s="17">
-        <v>0</v>
-      </c>
-      <c r="G39" s="17">
-        <v>0</v>
-      </c>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3" t="s">
+      <c r="F39" s="12">
+        <v>0</v>
+      </c>
+      <c r="G39" s="12">
+        <v>0</v>
+      </c>
+      <c r="H39" s="12">
+        <v>0</v>
+      </c>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="J39" s="3"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="8"/>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
@@ -3412,9 +3622,12 @@
       <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
       <c r="AC39" s="1"/>
-    </row>
-    <row r="40" spans="1:29" ht="28" x14ac:dyDescent="0.15">
-      <c r="A40" s="15"/>
+      <c r="AD39" s="1"/>
+      <c r="AE39" s="1"/>
+      <c r="AF39" s="1"/>
+    </row>
+    <row r="40" spans="1:32" ht="28" x14ac:dyDescent="0.15">
+      <c r="A40" s="19"/>
       <c r="B40" s="3" t="s">
         <v>265</v>
       </c>
@@ -3427,21 +3640,23 @@
       <c r="E40" s="3">
         <v>1</v>
       </c>
-      <c r="F40" s="17">
-        <v>0</v>
-      </c>
-      <c r="G40" s="17">
-        <v>0</v>
-      </c>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3" t="s">
+      <c r="F40" s="12">
+        <v>0</v>
+      </c>
+      <c r="G40" s="12">
+        <v>0</v>
+      </c>
+      <c r="H40" s="12">
+        <v>0</v>
+      </c>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="J40" s="3"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="8"/>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
@@ -3457,9 +3672,12 @@
       <c r="AA40" s="1"/>
       <c r="AB40" s="1"/>
       <c r="AC40" s="1"/>
-    </row>
-    <row r="41" spans="1:29" ht="28" x14ac:dyDescent="0.15">
-      <c r="A41" s="15"/>
+      <c r="AD40" s="1"/>
+      <c r="AE40" s="1"/>
+      <c r="AF40" s="1"/>
+    </row>
+    <row r="41" spans="1:32" ht="28" x14ac:dyDescent="0.15">
+      <c r="A41" s="19"/>
       <c r="B41" s="3" t="s">
         <v>267</v>
       </c>
@@ -3472,21 +3690,23 @@
       <c r="E41" s="3">
         <v>1</v>
       </c>
-      <c r="F41" s="17">
-        <v>0</v>
-      </c>
-      <c r="G41" s="17">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3" t="s">
+      <c r="F41" s="12">
+        <v>0</v>
+      </c>
+      <c r="G41" s="12">
+        <v>0</v>
+      </c>
+      <c r="H41" s="12">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="J41" s="3"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="8"/>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
@@ -3502,9 +3722,12 @@
       <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
       <c r="AC41" s="1"/>
-    </row>
-    <row r="42" spans="1:29" ht="14" x14ac:dyDescent="0.15">
-      <c r="A42" s="15"/>
+      <c r="AD41" s="1"/>
+      <c r="AE41" s="1"/>
+      <c r="AF41" s="1"/>
+    </row>
+    <row r="42" spans="1:32" ht="14" x14ac:dyDescent="0.15">
+      <c r="A42" s="19"/>
       <c r="B42" s="3" t="s">
         <v>14</v>
       </c>
@@ -3523,17 +3746,19 @@
       <c r="G42" s="3">
         <v>1</v>
       </c>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3" t="s">
+      <c r="H42" s="3">
+        <v>1</v>
+      </c>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J42" s="3"/>
-      <c r="K42" s="4" t="s">
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
@@ -3549,9 +3774,12 @@
       <c r="AA42" s="1"/>
       <c r="AB42" s="1"/>
       <c r="AC42" s="1"/>
-    </row>
-    <row r="43" spans="1:29" ht="14" x14ac:dyDescent="0.15">
-      <c r="A43" s="15"/>
+      <c r="AD42" s="1"/>
+      <c r="AE42" s="1"/>
+      <c r="AF42" s="1"/>
+    </row>
+    <row r="43" spans="1:32" ht="14" x14ac:dyDescent="0.15">
+      <c r="A43" s="19"/>
       <c r="B43" s="3" t="s">
         <v>129</v>
       </c>
@@ -3570,17 +3798,19 @@
       <c r="G43" s="3">
         <v>1</v>
       </c>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3" t="s">
+      <c r="H43" s="3">
+        <v>1</v>
+      </c>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="J43" s="3"/>
-      <c r="K43" s="4" t="s">
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
@@ -3596,9 +3826,12 @@
       <c r="AA43" s="1"/>
       <c r="AB43" s="1"/>
       <c r="AC43" s="1"/>
-    </row>
-    <row r="44" spans="1:29" ht="14" x14ac:dyDescent="0.15">
-      <c r="A44" s="15"/>
+      <c r="AD43" s="1"/>
+      <c r="AE43" s="1"/>
+      <c r="AF43" s="1"/>
+    </row>
+    <row r="44" spans="1:32" ht="14" x14ac:dyDescent="0.15">
+      <c r="A44" s="19"/>
       <c r="B44" s="3" t="s">
         <v>269</v>
       </c>
@@ -3611,21 +3844,23 @@
       <c r="E44" s="3">
         <v>1</v>
       </c>
-      <c r="F44" s="17">
-        <v>0</v>
-      </c>
-      <c r="G44" s="17">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3" t="s">
+      <c r="F44" s="12">
+        <v>0</v>
+      </c>
+      <c r="G44" s="12">
+        <v>0</v>
+      </c>
+      <c r="H44" s="12">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="J44" s="3"/>
-      <c r="K44" s="9"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="8"/>
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
@@ -3641,9 +3876,12 @@
       <c r="AA44" s="1"/>
       <c r="AB44" s="1"/>
       <c r="AC44" s="1"/>
-    </row>
-    <row r="45" spans="1:29" ht="14" x14ac:dyDescent="0.15">
-      <c r="A45" s="15"/>
+      <c r="AD44" s="1"/>
+      <c r="AE44" s="1"/>
+      <c r="AF44" s="1"/>
+    </row>
+    <row r="45" spans="1:32" ht="14" x14ac:dyDescent="0.15">
+      <c r="A45" s="19"/>
       <c r="B45" s="3" t="s">
         <v>131</v>
       </c>
@@ -3662,17 +3900,21 @@
       <c r="G45" s="3">
         <v>1</v>
       </c>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3" t="s">
+      <c r="H45" s="3">
+        <v>1</v>
+      </c>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="J45" s="3"/>
-      <c r="K45" s="4" t="s">
+      <c r="L45" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="M45" s="3"/>
+      <c r="N45" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
@@ -3688,38 +3930,43 @@
       <c r="AA45" s="1"/>
       <c r="AB45" s="1"/>
       <c r="AC45" s="1"/>
-    </row>
-    <row r="46" spans="1:29" ht="14" x14ac:dyDescent="0.15">
-      <c r="A46" s="10"/>
+      <c r="AD45" s="1"/>
+      <c r="AE45" s="1"/>
+      <c r="AF45" s="1"/>
+    </row>
+    <row r="46" spans="1:32" ht="14" x14ac:dyDescent="0.15">
+      <c r="A46" s="17"/>
       <c r="B46" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D46" s="18">
-        <v>0</v>
-      </c>
-      <c r="E46" s="18">
-        <v>0</v>
-      </c>
-      <c r="F46" s="18">
+      <c r="D46" s="13">
+        <v>0</v>
+      </c>
+      <c r="E46" s="13">
+        <v>0</v>
+      </c>
+      <c r="F46" s="13">
         <v>2</v>
       </c>
-      <c r="G46" s="18">
+      <c r="G46" s="13">
         <v>2</v>
       </c>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3" t="s">
+      <c r="H46" s="13">
+        <v>2</v>
+      </c>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J46" s="3"/>
-      <c r="K46" s="4" t="s">
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
@@ -3735,9 +3982,12 @@
       <c r="AA46" s="1"/>
       <c r="AB46" s="1"/>
       <c r="AC46" s="1"/>
-    </row>
-    <row r="47" spans="1:29" ht="14" x14ac:dyDescent="0.15">
-      <c r="A47" s="8" t="s">
+      <c r="AD46" s="1"/>
+      <c r="AE46" s="1"/>
+      <c r="AF46" s="1"/>
+    </row>
+    <row r="47" spans="1:32" ht="14" x14ac:dyDescent="0.15">
+      <c r="A47" s="15" t="s">
         <v>203</v>
       </c>
       <c r="B47" s="3" t="s">
@@ -3746,29 +3996,31 @@
       <c r="C47" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="D47" s="18">
-        <v>1</v>
-      </c>
-      <c r="E47" s="18">
-        <v>0</v>
-      </c>
-      <c r="F47" s="18">
-        <v>0</v>
-      </c>
-      <c r="G47" s="18">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3" t="s">
+      <c r="D47" s="13">
+        <v>1</v>
+      </c>
+      <c r="E47" s="13">
+        <v>0</v>
+      </c>
+      <c r="F47" s="13">
+        <v>0</v>
+      </c>
+      <c r="G47" s="13">
+        <v>0</v>
+      </c>
+      <c r="H47" s="13">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="I47" s="3" t="s">
+      <c r="J47" s="3"/>
+      <c r="K47" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="J47" s="3"/>
-      <c r="K47" s="9"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="8"/>
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
@@ -3784,9 +4036,12 @@
       <c r="AA47" s="1"/>
       <c r="AB47" s="1"/>
       <c r="AC47" s="1"/>
-    </row>
-    <row r="48" spans="1:29" ht="14" x14ac:dyDescent="0.15">
-      <c r="A48" s="8"/>
+      <c r="AD47" s="1"/>
+      <c r="AE47" s="1"/>
+      <c r="AF47" s="1"/>
+    </row>
+    <row r="48" spans="1:32" ht="14" x14ac:dyDescent="0.15">
+      <c r="A48" s="15"/>
       <c r="B48" s="3" t="s">
         <v>273</v>
       </c>
@@ -3799,21 +4054,23 @@
       <c r="E48" s="3">
         <v>1</v>
       </c>
-      <c r="F48" s="17">
-        <v>0</v>
-      </c>
-      <c r="G48" s="17">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3" t="s">
+      <c r="F48" s="12">
+        <v>0</v>
+      </c>
+      <c r="G48" s="12">
+        <v>0</v>
+      </c>
+      <c r="H48" s="12">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="J48" s="3"/>
-      <c r="K48" s="9"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="8"/>
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
@@ -3829,38 +4086,45 @@
       <c r="AA48" s="1"/>
       <c r="AB48" s="1"/>
       <c r="AC48" s="1"/>
-    </row>
-    <row r="49" spans="1:29" ht="14" x14ac:dyDescent="0.15">
-      <c r="A49" s="8"/>
+      <c r="AD48" s="1"/>
+      <c r="AE48" s="1"/>
+      <c r="AF48" s="1"/>
+    </row>
+    <row r="49" spans="1:32" ht="14" x14ac:dyDescent="0.15">
+      <c r="A49" s="15"/>
       <c r="B49" s="3" t="s">
         <v>275</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="D49" s="3">
-        <v>1</v>
-      </c>
-      <c r="E49" s="3">
-        <v>1</v>
-      </c>
-      <c r="F49" s="3">
-        <v>1</v>
-      </c>
-      <c r="G49" s="3">
-        <v>1</v>
-      </c>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3" t="s">
+      <c r="D49" s="13">
+        <v>1</v>
+      </c>
+      <c r="E49" s="13">
+        <v>1</v>
+      </c>
+      <c r="F49" s="13">
+        <v>1</v>
+      </c>
+      <c r="G49" s="13">
+        <v>0</v>
+      </c>
+      <c r="H49" s="13">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="J49" s="3"/>
-      <c r="K49" s="4" t="s">
+      <c r="L49" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="M49" s="3"/>
+      <c r="N49" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
@@ -3876,9 +4140,12 @@
       <c r="AA49" s="1"/>
       <c r="AB49" s="1"/>
       <c r="AC49" s="1"/>
-    </row>
-    <row r="50" spans="1:29" ht="14" x14ac:dyDescent="0.15">
-      <c r="A50" s="8"/>
+      <c r="AD49" s="1"/>
+      <c r="AE49" s="1"/>
+      <c r="AF49" s="1"/>
+    </row>
+    <row r="50" spans="1:32" ht="14" x14ac:dyDescent="0.15">
+      <c r="A50" s="15"/>
       <c r="B50" s="3" t="s">
         <v>276</v>
       </c>
@@ -3891,21 +4158,23 @@
       <c r="E50" s="3">
         <v>1</v>
       </c>
-      <c r="F50" s="17">
-        <v>0</v>
-      </c>
-      <c r="G50" s="17">
-        <v>0</v>
-      </c>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3" t="s">
+      <c r="F50" s="12">
+        <v>0</v>
+      </c>
+      <c r="G50" s="12">
+        <v>0</v>
+      </c>
+      <c r="H50" s="12">
+        <v>0</v>
+      </c>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="J50" s="3"/>
-      <c r="K50" s="9"/>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="8"/>
       <c r="O50" s="1"/>
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
@@ -3921,9 +4190,12 @@
       <c r="AA50" s="1"/>
       <c r="AB50" s="1"/>
       <c r="AC50" s="1"/>
-    </row>
-    <row r="51" spans="1:29" ht="14" x14ac:dyDescent="0.15">
-      <c r="A51" s="8"/>
+      <c r="AD50" s="1"/>
+      <c r="AE50" s="1"/>
+      <c r="AF50" s="1"/>
+    </row>
+    <row r="51" spans="1:32" ht="14" x14ac:dyDescent="0.15">
+      <c r="A51" s="15"/>
       <c r="B51" s="3" t="s">
         <v>278</v>
       </c>
@@ -3936,21 +4208,23 @@
       <c r="E51" s="3">
         <v>1</v>
       </c>
-      <c r="F51" s="17">
-        <v>0</v>
-      </c>
-      <c r="G51" s="17">
-        <v>0</v>
-      </c>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3" t="s">
+      <c r="F51" s="12">
+        <v>0</v>
+      </c>
+      <c r="G51" s="12">
+        <v>0</v>
+      </c>
+      <c r="H51" s="12">
+        <v>0</v>
+      </c>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="J51" s="3"/>
-      <c r="K51" s="9"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="8"/>
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
@@ -3966,9 +4240,12 @@
       <c r="AA51" s="1"/>
       <c r="AB51" s="1"/>
       <c r="AC51" s="1"/>
-    </row>
-    <row r="52" spans="1:29" ht="14" x14ac:dyDescent="0.15">
-      <c r="A52" s="8"/>
+      <c r="AD51" s="1"/>
+      <c r="AE51" s="1"/>
+      <c r="AF51" s="1"/>
+    </row>
+    <row r="52" spans="1:32" ht="14" x14ac:dyDescent="0.15">
+      <c r="A52" s="15"/>
       <c r="B52" s="3" t="s">
         <v>280</v>
       </c>
@@ -3981,21 +4258,23 @@
       <c r="E52" s="3">
         <v>1</v>
       </c>
-      <c r="F52" s="17">
-        <v>0</v>
-      </c>
-      <c r="G52" s="17">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3" t="s">
+      <c r="F52" s="12">
+        <v>0</v>
+      </c>
+      <c r="G52" s="12">
+        <v>0</v>
+      </c>
+      <c r="H52" s="12">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="J52" s="3"/>
-      <c r="K52" s="9"/>
-      <c r="L52" s="1"/>
-      <c r="M52" s="1"/>
-      <c r="N52" s="1"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="8"/>
       <c r="O52" s="1"/>
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
@@ -4011,9 +4290,12 @@
       <c r="AA52" s="1"/>
       <c r="AB52" s="1"/>
       <c r="AC52" s="1"/>
-    </row>
-    <row r="53" spans="1:29" ht="14" x14ac:dyDescent="0.15">
-      <c r="A53" s="8"/>
+      <c r="AD52" s="1"/>
+      <c r="AE52" s="1"/>
+      <c r="AF52" s="1"/>
+    </row>
+    <row r="53" spans="1:32" ht="14" x14ac:dyDescent="0.15">
+      <c r="A53" s="15"/>
       <c r="B53" s="3" t="s">
         <v>204</v>
       </c>
@@ -4026,21 +4308,23 @@
       <c r="E53" s="3">
         <v>1</v>
       </c>
-      <c r="F53" s="17">
-        <v>0</v>
-      </c>
-      <c r="G53" s="17">
-        <v>0</v>
-      </c>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3" t="s">
+      <c r="F53" s="12">
+        <v>0</v>
+      </c>
+      <c r="G53" s="12">
+        <v>0</v>
+      </c>
+      <c r="H53" s="12">
+        <v>0</v>
+      </c>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="J53" s="3"/>
-      <c r="K53" s="9"/>
-      <c r="L53" s="1"/>
-      <c r="M53" s="1"/>
-      <c r="N53" s="1"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="8"/>
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
@@ -4056,9 +4340,12 @@
       <c r="AA53" s="1"/>
       <c r="AB53" s="1"/>
       <c r="AC53" s="1"/>
-    </row>
-    <row r="54" spans="1:29" ht="14" x14ac:dyDescent="0.15">
-      <c r="A54" s="8"/>
+      <c r="AD53" s="1"/>
+      <c r="AE53" s="1"/>
+      <c r="AF53" s="1"/>
+    </row>
+    <row r="54" spans="1:32" ht="14" x14ac:dyDescent="0.15">
+      <c r="A54" s="15"/>
       <c r="B54" s="3" t="s">
         <v>206</v>
       </c>
@@ -4071,21 +4358,23 @@
       <c r="E54" s="3">
         <v>1</v>
       </c>
-      <c r="F54" s="17">
-        <v>0</v>
-      </c>
-      <c r="G54" s="17">
-        <v>0</v>
-      </c>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3" t="s">
+      <c r="F54" s="12">
+        <v>0</v>
+      </c>
+      <c r="G54" s="12">
+        <v>0</v>
+      </c>
+      <c r="H54" s="12">
+        <v>0</v>
+      </c>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="J54" s="3"/>
-      <c r="K54" s="9"/>
-      <c r="L54" s="1"/>
-      <c r="M54" s="1"/>
-      <c r="N54" s="1"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="8"/>
       <c r="O54" s="1"/>
       <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
@@ -4101,9 +4390,12 @@
       <c r="AA54" s="1"/>
       <c r="AB54" s="1"/>
       <c r="AC54" s="1"/>
-    </row>
-    <row r="55" spans="1:29" ht="42" x14ac:dyDescent="0.15">
-      <c r="A55" s="8"/>
+      <c r="AD54" s="1"/>
+      <c r="AE54" s="1"/>
+      <c r="AF54" s="1"/>
+    </row>
+    <row r="55" spans="1:32" ht="42" x14ac:dyDescent="0.15">
+      <c r="A55" s="15"/>
       <c r="B55" s="3" t="s">
         <v>282</v>
       </c>
@@ -4116,21 +4408,23 @@
       <c r="E55" s="3">
         <v>1</v>
       </c>
-      <c r="F55" s="17">
-        <v>0</v>
-      </c>
-      <c r="G55" s="17">
-        <v>0</v>
-      </c>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3" t="s">
+      <c r="F55" s="12">
+        <v>0</v>
+      </c>
+      <c r="G55" s="12">
+        <v>0</v>
+      </c>
+      <c r="H55" s="12">
+        <v>0</v>
+      </c>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="J55" s="3"/>
-      <c r="K55" s="9"/>
-      <c r="L55" s="1"/>
-      <c r="M55" s="1"/>
-      <c r="N55" s="1"/>
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="8"/>
       <c r="O55" s="1"/>
       <c r="P55" s="1"/>
       <c r="Q55" s="1"/>
@@ -4146,9 +4440,12 @@
       <c r="AA55" s="1"/>
       <c r="AB55" s="1"/>
       <c r="AC55" s="1"/>
-    </row>
-    <row r="56" spans="1:29" ht="14" x14ac:dyDescent="0.15">
-      <c r="A56" s="8"/>
+      <c r="AD55" s="1"/>
+      <c r="AE55" s="1"/>
+      <c r="AF55" s="1"/>
+    </row>
+    <row r="56" spans="1:32" ht="14" x14ac:dyDescent="0.15">
+      <c r="A56" s="15"/>
       <c r="B56" s="3" t="s">
         <v>284</v>
       </c>
@@ -4161,21 +4458,23 @@
       <c r="E56" s="3">
         <v>1</v>
       </c>
-      <c r="F56" s="17">
-        <v>0</v>
-      </c>
-      <c r="G56" s="17">
-        <v>0</v>
-      </c>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3" t="s">
+      <c r="F56" s="12">
+        <v>0</v>
+      </c>
+      <c r="G56" s="12">
+        <v>0</v>
+      </c>
+      <c r="H56" s="12">
+        <v>0</v>
+      </c>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="J56" s="3"/>
-      <c r="K56" s="9"/>
-      <c r="L56" s="1"/>
-      <c r="M56" s="1"/>
-      <c r="N56" s="1"/>
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="8"/>
       <c r="O56" s="1"/>
       <c r="P56" s="1"/>
       <c r="Q56" s="1"/>
@@ -4191,9 +4490,12 @@
       <c r="AA56" s="1"/>
       <c r="AB56" s="1"/>
       <c r="AC56" s="1"/>
-    </row>
-    <row r="57" spans="1:29" ht="14" x14ac:dyDescent="0.15">
-      <c r="A57" s="14" t="s">
+      <c r="AD56" s="1"/>
+      <c r="AE56" s="1"/>
+      <c r="AF56" s="1"/>
+    </row>
+    <row r="57" spans="1:32" ht="14" x14ac:dyDescent="0.15">
+      <c r="A57" s="18" t="s">
         <v>208</v>
       </c>
       <c r="B57" s="3" t="s">
@@ -4202,29 +4504,31 @@
       <c r="C57" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="D57" s="18">
-        <v>1</v>
-      </c>
-      <c r="E57" s="18">
-        <v>1</v>
-      </c>
-      <c r="F57" s="18">
+      <c r="D57" s="13">
+        <v>1</v>
+      </c>
+      <c r="E57" s="13">
+        <v>1</v>
+      </c>
+      <c r="F57" s="13">
         <v>2</v>
       </c>
-      <c r="G57" s="18">
+      <c r="G57" s="13">
         <v>2</v>
       </c>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3" t="s">
+      <c r="H57" s="13">
+        <v>2</v>
+      </c>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="J57" s="3"/>
-      <c r="K57" s="4" t="s">
+      <c r="L57" s="3"/>
+      <c r="M57" s="3"/>
+      <c r="N57" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="L57" s="1"/>
-      <c r="M57" s="1"/>
-      <c r="N57" s="1"/>
       <c r="O57" s="1"/>
       <c r="P57" s="1"/>
       <c r="Q57" s="1"/>
@@ -4240,38 +4544,43 @@
       <c r="AA57" s="1"/>
       <c r="AB57" s="1"/>
       <c r="AC57" s="1"/>
-    </row>
-    <row r="58" spans="1:29" ht="28" x14ac:dyDescent="0.15">
-      <c r="A58" s="15"/>
+      <c r="AD57" s="1"/>
+      <c r="AE57" s="1"/>
+      <c r="AF57" s="1"/>
+    </row>
+    <row r="58" spans="1:32" ht="28" x14ac:dyDescent="0.15">
+      <c r="A58" s="19"/>
       <c r="B58" s="3" t="s">
         <v>65</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D58" s="18">
-        <v>1</v>
-      </c>
-      <c r="E58" s="18">
-        <v>1</v>
-      </c>
-      <c r="F58" s="18">
+      <c r="D58" s="13">
+        <v>1</v>
+      </c>
+      <c r="E58" s="13">
+        <v>1</v>
+      </c>
+      <c r="F58" s="13">
         <v>3</v>
       </c>
-      <c r="G58" s="18">
+      <c r="G58" s="13">
         <v>3</v>
       </c>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3" t="s">
-        <v>358</v>
-      </c>
+      <c r="H58" s="13">
+        <v>3</v>
+      </c>
+      <c r="I58" s="3"/>
       <c r="J58" s="3"/>
-      <c r="K58" s="4" t="s">
+      <c r="K58" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="L58" s="3"/>
+      <c r="M58" s="3"/>
+      <c r="N58" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="L58" s="1"/>
-      <c r="M58" s="1"/>
-      <c r="N58" s="1"/>
       <c r="O58" s="1"/>
       <c r="P58" s="1"/>
       <c r="Q58" s="1"/>
@@ -4287,9 +4596,12 @@
       <c r="AA58" s="1"/>
       <c r="AB58" s="1"/>
       <c r="AC58" s="1"/>
-    </row>
-    <row r="59" spans="1:29" ht="28" x14ac:dyDescent="0.15">
-      <c r="A59" s="15"/>
+      <c r="AD58" s="1"/>
+      <c r="AE58" s="1"/>
+      <c r="AF58" s="1"/>
+    </row>
+    <row r="59" spans="1:32" ht="28" x14ac:dyDescent="0.15">
+      <c r="A59" s="19"/>
       <c r="B59" s="3" t="s">
         <v>66</v>
       </c>
@@ -4308,17 +4620,19 @@
       <c r="G59" s="3">
         <v>1</v>
       </c>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3" t="s">
-        <v>358</v>
-      </c>
+      <c r="H59" s="3">
+        <v>1</v>
+      </c>
+      <c r="I59" s="3"/>
       <c r="J59" s="3"/>
-      <c r="K59" s="4" t="s">
+      <c r="K59" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="L59" s="3"/>
+      <c r="M59" s="3"/>
+      <c r="N59" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
-      <c r="N59" s="1"/>
       <c r="O59" s="1"/>
       <c r="P59" s="1"/>
       <c r="Q59" s="1"/>
@@ -4334,9 +4648,12 @@
       <c r="AA59" s="1"/>
       <c r="AB59" s="1"/>
       <c r="AC59" s="1"/>
-    </row>
-    <row r="60" spans="1:29" ht="28" x14ac:dyDescent="0.15">
-      <c r="A60" s="15"/>
+      <c r="AD59" s="1"/>
+      <c r="AE59" s="1"/>
+      <c r="AF59" s="1"/>
+    </row>
+    <row r="60" spans="1:32" ht="28" x14ac:dyDescent="0.15">
+      <c r="A60" s="19"/>
       <c r="B60" s="3" t="s">
         <v>286</v>
       </c>
@@ -4349,21 +4666,23 @@
       <c r="E60" s="3">
         <v>1</v>
       </c>
-      <c r="F60" s="17">
-        <v>0</v>
-      </c>
-      <c r="G60" s="17">
-        <v>0</v>
-      </c>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3" t="s">
-        <v>359</v>
-      </c>
+      <c r="F60" s="12">
+        <v>0</v>
+      </c>
+      <c r="G60" s="12">
+        <v>0</v>
+      </c>
+      <c r="H60" s="12">
+        <v>0</v>
+      </c>
+      <c r="I60" s="3"/>
       <c r="J60" s="3"/>
-      <c r="K60" s="9"/>
-      <c r="L60" s="1"/>
-      <c r="M60" s="1"/>
-      <c r="N60" s="1"/>
+      <c r="K60" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="L60" s="3"/>
+      <c r="M60" s="3"/>
+      <c r="N60" s="8"/>
       <c r="O60" s="1"/>
       <c r="P60" s="1"/>
       <c r="Q60" s="1"/>
@@ -4379,9 +4698,12 @@
       <c r="AA60" s="1"/>
       <c r="AB60" s="1"/>
       <c r="AC60" s="1"/>
-    </row>
-    <row r="61" spans="1:29" ht="28" x14ac:dyDescent="0.15">
-      <c r="A61" s="15"/>
+      <c r="AD60" s="1"/>
+      <c r="AE60" s="1"/>
+      <c r="AF60" s="1"/>
+    </row>
+    <row r="61" spans="1:32" ht="28" x14ac:dyDescent="0.15">
+      <c r="A61" s="19"/>
       <c r="B61" s="3" t="s">
         <v>288</v>
       </c>
@@ -4394,21 +4716,23 @@
       <c r="E61" s="3">
         <v>1</v>
       </c>
-      <c r="F61" s="17">
-        <v>0</v>
-      </c>
-      <c r="G61" s="17">
-        <v>0</v>
-      </c>
-      <c r="H61" s="3"/>
-      <c r="I61" s="6" t="s">
-        <v>359</v>
-      </c>
+      <c r="F61" s="12">
+        <v>0</v>
+      </c>
+      <c r="G61" s="12">
+        <v>0</v>
+      </c>
+      <c r="H61" s="12">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3"/>
       <c r="J61" s="3"/>
-      <c r="K61" s="9"/>
-      <c r="L61" s="1"/>
-      <c r="M61" s="1"/>
-      <c r="N61" s="1"/>
+      <c r="K61" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="L61" s="6"/>
+      <c r="M61" s="3"/>
+      <c r="N61" s="8"/>
       <c r="O61" s="1"/>
       <c r="P61" s="1"/>
       <c r="Q61" s="1"/>
@@ -4424,9 +4748,12 @@
       <c r="AA61" s="1"/>
       <c r="AB61" s="1"/>
       <c r="AC61" s="1"/>
-    </row>
-    <row r="62" spans="1:29" ht="28" x14ac:dyDescent="0.15">
-      <c r="A62" s="15"/>
+      <c r="AD61" s="1"/>
+      <c r="AE61" s="1"/>
+      <c r="AF61" s="1"/>
+    </row>
+    <row r="62" spans="1:32" ht="28" x14ac:dyDescent="0.15">
+      <c r="A62" s="19"/>
       <c r="B62" s="3" t="s">
         <v>290</v>
       </c>
@@ -4439,21 +4766,23 @@
       <c r="E62" s="3">
         <v>2</v>
       </c>
-      <c r="F62" s="17">
-        <v>0</v>
-      </c>
-      <c r="G62" s="17">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3"/>
-      <c r="I62" s="6" t="s">
-        <v>359</v>
-      </c>
+      <c r="F62" s="12">
+        <v>0</v>
+      </c>
+      <c r="G62" s="12">
+        <v>0</v>
+      </c>
+      <c r="H62" s="12">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3"/>
       <c r="J62" s="3"/>
-      <c r="K62" s="9"/>
-      <c r="L62" s="1"/>
-      <c r="M62" s="1"/>
-      <c r="N62" s="1"/>
+      <c r="K62" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="L62" s="6"/>
+      <c r="M62" s="3"/>
+      <c r="N62" s="8"/>
       <c r="O62" s="1"/>
       <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
@@ -4469,9 +4798,12 @@
       <c r="AA62" s="1"/>
       <c r="AB62" s="1"/>
       <c r="AC62" s="1"/>
-    </row>
-    <row r="63" spans="1:29" ht="28" x14ac:dyDescent="0.15">
-      <c r="A63" s="15"/>
+      <c r="AD62" s="1"/>
+      <c r="AE62" s="1"/>
+      <c r="AF62" s="1"/>
+    </row>
+    <row r="63" spans="1:32" ht="28" x14ac:dyDescent="0.15">
+      <c r="A63" s="19"/>
       <c r="B63" s="3" t="s">
         <v>292</v>
       </c>
@@ -4484,21 +4816,23 @@
       <c r="E63" s="3">
         <v>1</v>
       </c>
-      <c r="F63" s="17">
-        <v>0</v>
-      </c>
-      <c r="G63" s="17">
-        <v>0</v>
-      </c>
-      <c r="H63" s="3"/>
-      <c r="I63" s="6" t="s">
-        <v>359</v>
-      </c>
+      <c r="F63" s="12">
+        <v>0</v>
+      </c>
+      <c r="G63" s="12">
+        <v>0</v>
+      </c>
+      <c r="H63" s="12">
+        <v>0</v>
+      </c>
+      <c r="I63" s="3"/>
       <c r="J63" s="3"/>
-      <c r="K63" s="9"/>
-      <c r="L63" s="1"/>
-      <c r="M63" s="1"/>
-      <c r="N63" s="1"/>
+      <c r="K63" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="L63" s="6"/>
+      <c r="M63" s="3"/>
+      <c r="N63" s="8"/>
       <c r="O63" s="1"/>
       <c r="P63" s="1"/>
       <c r="Q63" s="1"/>
@@ -4514,9 +4848,12 @@
       <c r="AA63" s="1"/>
       <c r="AB63" s="1"/>
       <c r="AC63" s="1"/>
-    </row>
-    <row r="64" spans="1:29" ht="28" x14ac:dyDescent="0.15">
-      <c r="A64" s="15"/>
+      <c r="AD63" s="1"/>
+      <c r="AE63" s="1"/>
+      <c r="AF63" s="1"/>
+    </row>
+    <row r="64" spans="1:32" ht="28" x14ac:dyDescent="0.15">
+      <c r="A64" s="19"/>
       <c r="B64" s="3" t="s">
         <v>210</v>
       </c>
@@ -4529,21 +4866,23 @@
       <c r="E64" s="3">
         <v>3</v>
       </c>
-      <c r="F64" s="17">
-        <v>0</v>
-      </c>
-      <c r="G64" s="17">
-        <v>0</v>
-      </c>
-      <c r="H64" s="3"/>
-      <c r="I64" s="6" t="s">
-        <v>359</v>
-      </c>
+      <c r="F64" s="12">
+        <v>0</v>
+      </c>
+      <c r="G64" s="12">
+        <v>0</v>
+      </c>
+      <c r="H64" s="12">
+        <v>0</v>
+      </c>
+      <c r="I64" s="3"/>
       <c r="J64" s="3"/>
-      <c r="K64" s="9"/>
-      <c r="L64" s="1"/>
-      <c r="M64" s="1"/>
-      <c r="N64" s="1"/>
+      <c r="K64" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="L64" s="6"/>
+      <c r="M64" s="3"/>
+      <c r="N64" s="8"/>
       <c r="O64" s="1"/>
       <c r="P64" s="1"/>
       <c r="Q64" s="1"/>
@@ -4559,9 +4898,12 @@
       <c r="AA64" s="1"/>
       <c r="AB64" s="1"/>
       <c r="AC64" s="1"/>
-    </row>
-    <row r="65" spans="1:29" ht="28" x14ac:dyDescent="0.15">
-      <c r="A65" s="15"/>
+      <c r="AD64" s="1"/>
+      <c r="AE64" s="1"/>
+      <c r="AF64" s="1"/>
+    </row>
+    <row r="65" spans="1:32" ht="28" x14ac:dyDescent="0.15">
+      <c r="A65" s="19"/>
       <c r="B65" s="3" t="s">
         <v>294</v>
       </c>
@@ -4574,21 +4916,23 @@
       <c r="E65" s="3">
         <v>1</v>
       </c>
-      <c r="F65" s="17">
-        <v>0</v>
-      </c>
-      <c r="G65" s="17">
-        <v>0</v>
-      </c>
-      <c r="H65" s="3"/>
-      <c r="I65" s="6" t="s">
-        <v>359</v>
-      </c>
+      <c r="F65" s="12">
+        <v>0</v>
+      </c>
+      <c r="G65" s="12">
+        <v>0</v>
+      </c>
+      <c r="H65" s="12">
+        <v>0</v>
+      </c>
+      <c r="I65" s="3"/>
       <c r="J65" s="3"/>
-      <c r="K65" s="9"/>
-      <c r="L65" s="1"/>
-      <c r="M65" s="1"/>
-      <c r="N65" s="1"/>
+      <c r="K65" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="L65" s="6"/>
+      <c r="M65" s="3"/>
+      <c r="N65" s="8"/>
       <c r="O65" s="1"/>
       <c r="P65" s="1"/>
       <c r="Q65" s="1"/>
@@ -4604,9 +4948,12 @@
       <c r="AA65" s="1"/>
       <c r="AB65" s="1"/>
       <c r="AC65" s="1"/>
-    </row>
-    <row r="66" spans="1:29" ht="28" x14ac:dyDescent="0.15">
-      <c r="A66" s="15"/>
+      <c r="AD65" s="1"/>
+      <c r="AE65" s="1"/>
+      <c r="AF65" s="1"/>
+    </row>
+    <row r="66" spans="1:32" ht="28" x14ac:dyDescent="0.15">
+      <c r="A66" s="19"/>
       <c r="B66" s="3" t="s">
         <v>296</v>
       </c>
@@ -4625,17 +4972,19 @@
       <c r="G66" s="3">
         <v>1</v>
       </c>
-      <c r="H66" s="3"/>
-      <c r="I66" s="3" t="s">
+      <c r="H66" s="3">
+        <v>1</v>
+      </c>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
+      <c r="K66" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="J66" s="3"/>
-      <c r="K66" s="4" t="s">
+      <c r="L66" s="3"/>
+      <c r="M66" s="3"/>
+      <c r="N66" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="L66" s="1"/>
-      <c r="M66" s="1"/>
-      <c r="N66" s="1"/>
       <c r="O66" s="1"/>
       <c r="P66" s="1"/>
       <c r="Q66" s="1"/>
@@ -4651,38 +5000,43 @@
       <c r="AA66" s="1"/>
       <c r="AB66" s="1"/>
       <c r="AC66" s="1"/>
-    </row>
-    <row r="67" spans="1:29" ht="14" x14ac:dyDescent="0.15">
-      <c r="A67" s="15"/>
+      <c r="AD66" s="1"/>
+      <c r="AE66" s="1"/>
+      <c r="AF66" s="1"/>
+    </row>
+    <row r="67" spans="1:32" ht="14" x14ac:dyDescent="0.15">
+      <c r="A67" s="19"/>
       <c r="B67" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D67" s="18">
-        <v>0</v>
-      </c>
-      <c r="E67" s="18">
-        <v>0</v>
-      </c>
-      <c r="F67" s="18">
+      <c r="D67" s="13">
+        <v>0</v>
+      </c>
+      <c r="E67" s="13">
+        <v>0</v>
+      </c>
+      <c r="F67" s="13">
         <v>17</v>
       </c>
-      <c r="G67" s="18">
+      <c r="G67" s="13">
         <v>17</v>
       </c>
-      <c r="H67" s="3"/>
-      <c r="I67" s="3" t="s">
+      <c r="H67" s="13">
+        <v>17</v>
+      </c>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3"/>
+      <c r="K67" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J67" s="3"/>
-      <c r="K67" s="4" t="s">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L67" s="1"/>
-      <c r="M67" s="1"/>
-      <c r="N67" s="1"/>
       <c r="O67" s="1"/>
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
@@ -4698,38 +5052,43 @@
       <c r="AA67" s="1"/>
       <c r="AB67" s="1"/>
       <c r="AC67" s="1"/>
-    </row>
-    <row r="68" spans="1:29" ht="28" x14ac:dyDescent="0.15">
-      <c r="A68" s="15"/>
+      <c r="AD67" s="1"/>
+      <c r="AE67" s="1"/>
+      <c r="AF67" s="1"/>
+    </row>
+    <row r="68" spans="1:32" ht="28" x14ac:dyDescent="0.15">
+      <c r="A68" s="19"/>
       <c r="B68" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D68" s="18">
-        <v>0</v>
-      </c>
-      <c r="E68" s="18">
-        <v>0</v>
-      </c>
-      <c r="F68" s="18">
+      <c r="D68" s="13">
+        <v>0</v>
+      </c>
+      <c r="E68" s="13">
+        <v>0</v>
+      </c>
+      <c r="F68" s="13">
         <v>4</v>
       </c>
-      <c r="G68" s="18">
+      <c r="G68" s="13">
         <v>4</v>
       </c>
-      <c r="H68" s="3"/>
-      <c r="I68" s="3" t="s">
+      <c r="H68" s="13">
+        <v>4</v>
+      </c>
+      <c r="I68" s="3"/>
+      <c r="J68" s="3"/>
+      <c r="K68" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J68" s="3"/>
-      <c r="K68" s="4" t="s">
+      <c r="L68" s="3"/>
+      <c r="M68" s="3"/>
+      <c r="N68" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L68" s="1"/>
-      <c r="M68" s="1"/>
-      <c r="N68" s="1"/>
       <c r="O68" s="1"/>
       <c r="P68" s="1"/>
       <c r="Q68" s="1"/>
@@ -4745,38 +5104,43 @@
       <c r="AA68" s="1"/>
       <c r="AB68" s="1"/>
       <c r="AC68" s="1"/>
-    </row>
-    <row r="69" spans="1:29" ht="42" x14ac:dyDescent="0.15">
-      <c r="A69" s="15"/>
+      <c r="AD68" s="1"/>
+      <c r="AE68" s="1"/>
+      <c r="AF68" s="1"/>
+    </row>
+    <row r="69" spans="1:32" ht="42" x14ac:dyDescent="0.15">
+      <c r="A69" s="19"/>
       <c r="B69" s="3" t="s">
         <v>297</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="D69" s="18">
-        <v>1</v>
-      </c>
-      <c r="E69" s="18">
-        <v>1</v>
-      </c>
-      <c r="F69" s="18">
+      <c r="D69" s="13">
+        <v>1</v>
+      </c>
+      <c r="E69" s="13">
+        <v>1</v>
+      </c>
+      <c r="F69" s="13">
         <v>2</v>
       </c>
-      <c r="G69" s="18">
+      <c r="G69" s="13">
         <v>2</v>
       </c>
-      <c r="H69" s="3"/>
-      <c r="I69" s="6" t="s">
+      <c r="H69" s="13">
+        <v>2</v>
+      </c>
+      <c r="I69" s="3"/>
+      <c r="J69" s="3"/>
+      <c r="K69" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="J69" s="3"/>
-      <c r="K69" s="4" t="s">
+      <c r="L69" s="6"/>
+      <c r="M69" s="3"/>
+      <c r="N69" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L69" s="1"/>
-      <c r="M69" s="1"/>
-      <c r="N69" s="1"/>
       <c r="O69" s="1"/>
       <c r="P69" s="1"/>
       <c r="Q69" s="1"/>
@@ -4792,9 +5156,12 @@
       <c r="AA69" s="1"/>
       <c r="AB69" s="1"/>
       <c r="AC69" s="1"/>
-    </row>
-    <row r="70" spans="1:29" ht="28" x14ac:dyDescent="0.15">
-      <c r="A70" s="15"/>
+      <c r="AD69" s="1"/>
+      <c r="AE69" s="1"/>
+      <c r="AF69" s="1"/>
+    </row>
+    <row r="70" spans="1:32" ht="28" x14ac:dyDescent="0.15">
+      <c r="A70" s="19"/>
       <c r="B70" s="3" t="s">
         <v>299</v>
       </c>
@@ -4807,21 +5174,23 @@
       <c r="E70" s="3">
         <v>1</v>
       </c>
-      <c r="F70" s="17">
-        <v>0</v>
-      </c>
-      <c r="G70" s="17">
-        <v>0</v>
-      </c>
-      <c r="H70" s="3"/>
-      <c r="I70" s="3" t="s">
+      <c r="F70" s="12">
+        <v>0</v>
+      </c>
+      <c r="G70" s="12">
+        <v>0</v>
+      </c>
+      <c r="H70" s="12">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="J70" s="3"/>
-      <c r="K70" s="9"/>
-      <c r="L70" s="1"/>
-      <c r="M70" s="1"/>
-      <c r="N70" s="1"/>
+      <c r="L70" s="3"/>
+      <c r="M70" s="3"/>
+      <c r="N70" s="8"/>
       <c r="O70" s="1"/>
       <c r="P70" s="1"/>
       <c r="Q70" s="1"/>
@@ -4837,9 +5206,12 @@
       <c r="AA70" s="1"/>
       <c r="AB70" s="1"/>
       <c r="AC70" s="1"/>
-    </row>
-    <row r="71" spans="1:29" ht="28" x14ac:dyDescent="0.15">
-      <c r="A71" s="15"/>
+      <c r="AD70" s="1"/>
+      <c r="AE70" s="1"/>
+      <c r="AF70" s="1"/>
+    </row>
+    <row r="71" spans="1:32" ht="28" x14ac:dyDescent="0.15">
+      <c r="A71" s="19"/>
       <c r="B71" s="3" t="s">
         <v>19</v>
       </c>
@@ -4858,17 +5230,19 @@
       <c r="G71" s="3">
         <v>1</v>
       </c>
-      <c r="H71" s="3"/>
-      <c r="I71" s="6" t="s">
+      <c r="H71" s="3">
+        <v>1</v>
+      </c>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3"/>
+      <c r="K71" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J71" s="3"/>
-      <c r="K71" s="4" t="s">
+      <c r="L71" s="6"/>
+      <c r="M71" s="3"/>
+      <c r="N71" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L71" s="1"/>
-      <c r="M71" s="1"/>
-      <c r="N71" s="1"/>
       <c r="O71" s="1"/>
       <c r="P71" s="1"/>
       <c r="Q71" s="1"/>
@@ -4884,9 +5258,12 @@
       <c r="AA71" s="1"/>
       <c r="AB71" s="1"/>
       <c r="AC71" s="1"/>
-    </row>
-    <row r="72" spans="1:29" ht="14" x14ac:dyDescent="0.15">
-      <c r="A72" s="15"/>
+      <c r="AD71" s="1"/>
+      <c r="AE71" s="1"/>
+      <c r="AF71" s="1"/>
+    </row>
+    <row r="72" spans="1:32" ht="14" x14ac:dyDescent="0.15">
+      <c r="A72" s="19"/>
       <c r="B72" s="3" t="s">
         <v>300</v>
       </c>
@@ -4899,21 +5276,23 @@
       <c r="E72" s="3">
         <v>1</v>
       </c>
-      <c r="F72" s="17">
-        <v>0</v>
-      </c>
-      <c r="G72" s="17">
-        <v>0</v>
-      </c>
-      <c r="H72" s="3"/>
-      <c r="I72" s="3" t="s">
+      <c r="F72" s="12">
+        <v>0</v>
+      </c>
+      <c r="G72" s="12">
+        <v>0</v>
+      </c>
+      <c r="H72" s="12">
+        <v>0</v>
+      </c>
+      <c r="I72" s="3"/>
+      <c r="J72" s="3"/>
+      <c r="K72" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="J72" s="3"/>
-      <c r="K72" s="9"/>
-      <c r="L72" s="1"/>
-      <c r="M72" s="1"/>
-      <c r="N72" s="1"/>
+      <c r="L72" s="3"/>
+      <c r="M72" s="3"/>
+      <c r="N72" s="8"/>
       <c r="O72" s="1"/>
       <c r="P72" s="1"/>
       <c r="Q72" s="1"/>
@@ -4929,9 +5308,12 @@
       <c r="AA72" s="1"/>
       <c r="AB72" s="1"/>
       <c r="AC72" s="1"/>
-    </row>
-    <row r="73" spans="1:29" ht="28" x14ac:dyDescent="0.15">
-      <c r="A73" s="15"/>
+      <c r="AD72" s="1"/>
+      <c r="AE72" s="1"/>
+      <c r="AF72" s="1"/>
+    </row>
+    <row r="73" spans="1:32" ht="28" x14ac:dyDescent="0.15">
+      <c r="A73" s="19"/>
       <c r="B73" s="3" t="s">
         <v>302</v>
       </c>
@@ -4944,21 +5326,23 @@
       <c r="E73" s="3">
         <v>1</v>
       </c>
-      <c r="F73" s="17">
-        <v>0</v>
-      </c>
-      <c r="G73" s="17">
-        <v>0</v>
-      </c>
-      <c r="H73" s="3"/>
-      <c r="I73" s="3" t="s">
+      <c r="F73" s="12">
+        <v>0</v>
+      </c>
+      <c r="G73" s="12">
+        <v>0</v>
+      </c>
+      <c r="H73" s="12">
+        <v>0</v>
+      </c>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3"/>
+      <c r="K73" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="J73" s="3"/>
-      <c r="K73" s="9"/>
-      <c r="L73" s="1"/>
-      <c r="M73" s="1"/>
-      <c r="N73" s="1"/>
+      <c r="L73" s="3"/>
+      <c r="M73" s="3"/>
+      <c r="N73" s="8"/>
       <c r="O73" s="1"/>
       <c r="P73" s="1"/>
       <c r="Q73" s="1"/>
@@ -4974,9 +5358,12 @@
       <c r="AA73" s="1"/>
       <c r="AB73" s="1"/>
       <c r="AC73" s="1"/>
-    </row>
-    <row r="74" spans="1:29" ht="28" x14ac:dyDescent="0.15">
-      <c r="A74" s="15"/>
+      <c r="AD73" s="1"/>
+      <c r="AE73" s="1"/>
+      <c r="AF73" s="1"/>
+    </row>
+    <row r="74" spans="1:32" ht="28" x14ac:dyDescent="0.15">
+      <c r="A74" s="19"/>
       <c r="B74" s="3" t="s">
         <v>304</v>
       </c>
@@ -4989,21 +5376,23 @@
       <c r="E74" s="3">
         <v>1</v>
       </c>
-      <c r="F74" s="17">
-        <v>0</v>
-      </c>
-      <c r="G74" s="17">
-        <v>0</v>
-      </c>
-      <c r="H74" s="3"/>
-      <c r="I74" s="3" t="s">
+      <c r="F74" s="12">
+        <v>0</v>
+      </c>
+      <c r="G74" s="12">
+        <v>0</v>
+      </c>
+      <c r="H74" s="12">
+        <v>0</v>
+      </c>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="J74" s="3"/>
-      <c r="K74" s="9"/>
-      <c r="L74" s="1"/>
-      <c r="M74" s="1"/>
-      <c r="N74" s="1"/>
+      <c r="L74" s="3"/>
+      <c r="M74" s="3"/>
+      <c r="N74" s="8"/>
       <c r="O74" s="1"/>
       <c r="P74" s="1"/>
       <c r="Q74" s="1"/>
@@ -5019,9 +5408,12 @@
       <c r="AA74" s="1"/>
       <c r="AB74" s="1"/>
       <c r="AC74" s="1"/>
-    </row>
-    <row r="75" spans="1:29" ht="28" x14ac:dyDescent="0.15">
-      <c r="A75" s="15"/>
+      <c r="AD74" s="1"/>
+      <c r="AE74" s="1"/>
+      <c r="AF74" s="1"/>
+    </row>
+    <row r="75" spans="1:32" ht="28" x14ac:dyDescent="0.15">
+      <c r="A75" s="19"/>
       <c r="B75" s="3" t="s">
         <v>306</v>
       </c>
@@ -5034,21 +5426,23 @@
       <c r="E75" s="3">
         <v>1</v>
       </c>
-      <c r="F75" s="17">
-        <v>0</v>
-      </c>
-      <c r="G75" s="17">
-        <v>0</v>
-      </c>
-      <c r="H75" s="3"/>
-      <c r="I75" s="3" t="s">
+      <c r="F75" s="12">
+        <v>0</v>
+      </c>
+      <c r="G75" s="12">
+        <v>0</v>
+      </c>
+      <c r="H75" s="12">
+        <v>0</v>
+      </c>
+      <c r="I75" s="3"/>
+      <c r="J75" s="3"/>
+      <c r="K75" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="J75" s="3"/>
-      <c r="K75" s="9"/>
-      <c r="L75" s="1"/>
-      <c r="M75" s="1"/>
-      <c r="N75" s="1"/>
+      <c r="L75" s="3"/>
+      <c r="M75" s="3"/>
+      <c r="N75" s="8"/>
       <c r="O75" s="1"/>
       <c r="P75" s="1"/>
       <c r="Q75" s="1"/>
@@ -5064,9 +5458,12 @@
       <c r="AA75" s="1"/>
       <c r="AB75" s="1"/>
       <c r="AC75" s="1"/>
-    </row>
-    <row r="76" spans="1:29" ht="14" x14ac:dyDescent="0.15">
-      <c r="A76" s="15"/>
+      <c r="AD75" s="1"/>
+      <c r="AE75" s="1"/>
+      <c r="AF75" s="1"/>
+    </row>
+    <row r="76" spans="1:32" ht="14" x14ac:dyDescent="0.15">
+      <c r="A76" s="19"/>
       <c r="B76" s="3" t="s">
         <v>308</v>
       </c>
@@ -5079,21 +5476,23 @@
       <c r="E76" s="3">
         <v>1</v>
       </c>
-      <c r="F76" s="17">
-        <v>0</v>
-      </c>
-      <c r="G76" s="17">
-        <v>0</v>
-      </c>
-      <c r="H76" s="3"/>
-      <c r="I76" s="3" t="s">
+      <c r="F76" s="12">
+        <v>0</v>
+      </c>
+      <c r="G76" s="12">
+        <v>0</v>
+      </c>
+      <c r="H76" s="12">
+        <v>0</v>
+      </c>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3"/>
+      <c r="K76" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="J76" s="3"/>
-      <c r="K76" s="9"/>
-      <c r="L76" s="1"/>
-      <c r="M76" s="1"/>
-      <c r="N76" s="1"/>
+      <c r="L76" s="3"/>
+      <c r="M76" s="3"/>
+      <c r="N76" s="8"/>
       <c r="O76" s="1"/>
       <c r="P76" s="1"/>
       <c r="Q76" s="1"/>
@@ -5109,38 +5508,43 @@
       <c r="AA76" s="1"/>
       <c r="AB76" s="1"/>
       <c r="AC76" s="1"/>
-    </row>
-    <row r="77" spans="1:29" ht="28" x14ac:dyDescent="0.15">
-      <c r="A77" s="10"/>
+      <c r="AD76" s="1"/>
+      <c r="AE76" s="1"/>
+      <c r="AF76" s="1"/>
+    </row>
+    <row r="77" spans="1:32" ht="28" x14ac:dyDescent="0.15">
+      <c r="A77" s="17"/>
       <c r="B77" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D77" s="18">
-        <v>0</v>
-      </c>
-      <c r="E77" s="18">
-        <v>0</v>
-      </c>
-      <c r="F77" s="18">
-        <v>1</v>
-      </c>
-      <c r="G77" s="18">
-        <v>1</v>
-      </c>
-      <c r="H77" s="3"/>
-      <c r="I77" s="3" t="s">
+      <c r="D77" s="13">
+        <v>0</v>
+      </c>
+      <c r="E77" s="13">
+        <v>0</v>
+      </c>
+      <c r="F77" s="13">
+        <v>1</v>
+      </c>
+      <c r="G77" s="13">
+        <v>1</v>
+      </c>
+      <c r="H77" s="13">
+        <v>1</v>
+      </c>
+      <c r="I77" s="3"/>
+      <c r="J77" s="3"/>
+      <c r="K77" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="J77" s="3"/>
-      <c r="K77" s="4" t="s">
+      <c r="L77" s="3"/>
+      <c r="M77" s="3"/>
+      <c r="N77" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="L77" s="1"/>
-      <c r="M77" s="1"/>
-      <c r="N77" s="1"/>
       <c r="O77" s="1"/>
       <c r="P77" s="1"/>
       <c r="Q77" s="1"/>
@@ -5156,9 +5560,12 @@
       <c r="AA77" s="1"/>
       <c r="AB77" s="1"/>
       <c r="AC77" s="1"/>
-    </row>
-    <row r="78" spans="1:29" ht="28" x14ac:dyDescent="0.15">
-      <c r="A78" s="8" t="s">
+      <c r="AD77" s="1"/>
+      <c r="AE77" s="1"/>
+      <c r="AF77" s="1"/>
+    </row>
+    <row r="78" spans="1:32" ht="28" x14ac:dyDescent="0.15">
+      <c r="A78" s="15" t="s">
         <v>212</v>
       </c>
       <c r="B78" s="3" t="s">
@@ -5179,17 +5586,19 @@
       <c r="G78" s="3">
         <v>1</v>
       </c>
-      <c r="H78" s="3"/>
-      <c r="I78" s="6" t="s">
+      <c r="H78" s="3">
+        <v>1</v>
+      </c>
+      <c r="I78" s="3"/>
+      <c r="J78" s="3"/>
+      <c r="K78" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="J78" s="3"/>
-      <c r="K78" s="4" t="s">
+      <c r="L78" s="6"/>
+      <c r="M78" s="3"/>
+      <c r="N78" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L78" s="1"/>
-      <c r="M78" s="1"/>
-      <c r="N78" s="1"/>
       <c r="O78" s="1"/>
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
@@ -5205,38 +5614,43 @@
       <c r="AA78" s="1"/>
       <c r="AB78" s="1"/>
       <c r="AC78" s="1"/>
-    </row>
-    <row r="79" spans="1:29" ht="14" x14ac:dyDescent="0.15">
-      <c r="A79" s="8"/>
+      <c r="AD78" s="1"/>
+      <c r="AE78" s="1"/>
+      <c r="AF78" s="1"/>
+    </row>
+    <row r="79" spans="1:32" ht="14" x14ac:dyDescent="0.15">
+      <c r="A79" s="15"/>
       <c r="B79" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D79" s="18">
-        <v>1</v>
-      </c>
-      <c r="E79" s="18">
-        <v>1</v>
-      </c>
-      <c r="F79" s="18">
+      <c r="D79" s="13">
+        <v>1</v>
+      </c>
+      <c r="E79" s="13">
+        <v>1</v>
+      </c>
+      <c r="F79" s="13">
         <v>2</v>
       </c>
-      <c r="G79" s="18">
+      <c r="G79" s="13">
         <v>2</v>
       </c>
-      <c r="H79" s="3"/>
-      <c r="I79" s="3" t="s">
+      <c r="H79" s="13">
+        <v>2</v>
+      </c>
+      <c r="I79" s="3"/>
+      <c r="J79" s="3"/>
+      <c r="K79" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="J79" s="3"/>
-      <c r="K79" s="4" t="s">
+      <c r="L79" s="3"/>
+      <c r="M79" s="3"/>
+      <c r="N79" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="L79" s="1"/>
-      <c r="M79" s="1"/>
-      <c r="N79" s="1"/>
       <c r="O79" s="1"/>
       <c r="P79" s="1"/>
       <c r="Q79" s="1"/>
@@ -5252,9 +5666,12 @@
       <c r="AA79" s="1"/>
       <c r="AB79" s="1"/>
       <c r="AC79" s="1"/>
-    </row>
-    <row r="80" spans="1:29" ht="14" x14ac:dyDescent="0.15">
-      <c r="A80" s="8"/>
+      <c r="AD79" s="1"/>
+      <c r="AE79" s="1"/>
+      <c r="AF79" s="1"/>
+    </row>
+    <row r="80" spans="1:32" ht="14" x14ac:dyDescent="0.15">
+      <c r="A80" s="15"/>
       <c r="B80" s="3" t="s">
         <v>311</v>
       </c>
@@ -5267,21 +5684,23 @@
       <c r="E80" s="3">
         <v>1</v>
       </c>
-      <c r="F80" s="17">
-        <v>0</v>
-      </c>
-      <c r="G80" s="17">
-        <v>0</v>
-      </c>
-      <c r="H80" s="3"/>
-      <c r="I80" s="3" t="s">
+      <c r="F80" s="12">
+        <v>0</v>
+      </c>
+      <c r="G80" s="12">
+        <v>0</v>
+      </c>
+      <c r="H80" s="12">
+        <v>0</v>
+      </c>
+      <c r="I80" s="3"/>
+      <c r="J80" s="3"/>
+      <c r="K80" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="J80" s="3"/>
-      <c r="K80" s="9"/>
-      <c r="L80" s="1"/>
-      <c r="M80" s="1"/>
-      <c r="N80" s="1"/>
+      <c r="L80" s="3"/>
+      <c r="M80" s="3"/>
+      <c r="N80" s="8"/>
       <c r="O80" s="1"/>
       <c r="P80" s="1"/>
       <c r="Q80" s="1"/>
@@ -5297,9 +5716,12 @@
       <c r="AA80" s="1"/>
       <c r="AB80" s="1"/>
       <c r="AC80" s="1"/>
-    </row>
-    <row r="81" spans="1:29" ht="14" x14ac:dyDescent="0.15">
-      <c r="A81" s="8"/>
+      <c r="AD80" s="1"/>
+      <c r="AE80" s="1"/>
+      <c r="AF80" s="1"/>
+    </row>
+    <row r="81" spans="1:32" ht="14" x14ac:dyDescent="0.15">
+      <c r="A81" s="15"/>
       <c r="B81" s="3" t="s">
         <v>313</v>
       </c>
@@ -5312,21 +5734,23 @@
       <c r="E81" s="3">
         <v>1</v>
       </c>
-      <c r="F81" s="17">
-        <v>0</v>
-      </c>
-      <c r="G81" s="17">
-        <v>0</v>
-      </c>
-      <c r="H81" s="3"/>
-      <c r="I81" s="3" t="s">
+      <c r="F81" s="12">
+        <v>0</v>
+      </c>
+      <c r="G81" s="12">
+        <v>0</v>
+      </c>
+      <c r="H81" s="12">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3"/>
+      <c r="J81" s="3"/>
+      <c r="K81" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="J81" s="3"/>
-      <c r="K81" s="9"/>
-      <c r="L81" s="1"/>
-      <c r="M81" s="1"/>
-      <c r="N81" s="1"/>
+      <c r="L81" s="3"/>
+      <c r="M81" s="3"/>
+      <c r="N81" s="8"/>
       <c r="O81" s="1"/>
       <c r="P81" s="1"/>
       <c r="Q81" s="1"/>
@@ -5342,9 +5766,12 @@
       <c r="AA81" s="1"/>
       <c r="AB81" s="1"/>
       <c r="AC81" s="1"/>
-    </row>
-    <row r="82" spans="1:29" ht="14" x14ac:dyDescent="0.15">
-      <c r="A82" s="8"/>
+      <c r="AD81" s="1"/>
+      <c r="AE81" s="1"/>
+      <c r="AF81" s="1"/>
+    </row>
+    <row r="82" spans="1:32" ht="14" x14ac:dyDescent="0.15">
+      <c r="A82" s="15"/>
       <c r="B82" s="3" t="s">
         <v>315</v>
       </c>
@@ -5357,21 +5784,23 @@
       <c r="E82" s="3">
         <v>1</v>
       </c>
-      <c r="F82" s="17">
-        <v>0</v>
-      </c>
-      <c r="G82" s="17">
-        <v>0</v>
-      </c>
-      <c r="H82" s="3"/>
-      <c r="I82" s="3" t="s">
+      <c r="F82" s="12">
+        <v>0</v>
+      </c>
+      <c r="G82" s="12">
+        <v>0</v>
+      </c>
+      <c r="H82" s="12">
+        <v>0</v>
+      </c>
+      <c r="I82" s="3"/>
+      <c r="J82" s="3"/>
+      <c r="K82" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="J82" s="3"/>
-      <c r="K82" s="9"/>
-      <c r="L82" s="1"/>
-      <c r="M82" s="1"/>
-      <c r="N82" s="1"/>
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+      <c r="N82" s="8"/>
       <c r="O82" s="1"/>
       <c r="P82" s="1"/>
       <c r="Q82" s="1"/>
@@ -5387,9 +5816,12 @@
       <c r="AA82" s="1"/>
       <c r="AB82" s="1"/>
       <c r="AC82" s="1"/>
-    </row>
-    <row r="83" spans="1:29" ht="28" x14ac:dyDescent="0.15">
-      <c r="A83" s="8"/>
+      <c r="AD82" s="1"/>
+      <c r="AE82" s="1"/>
+      <c r="AF82" s="1"/>
+    </row>
+    <row r="83" spans="1:32" ht="28" x14ac:dyDescent="0.15">
+      <c r="A83" s="15"/>
       <c r="B83" s="3" t="s">
         <v>317</v>
       </c>
@@ -5408,17 +5840,19 @@
       <c r="G83" s="3">
         <v>1</v>
       </c>
-      <c r="H83" s="3"/>
-      <c r="I83" s="6" t="s">
+      <c r="H83" s="3">
+        <v>1</v>
+      </c>
+      <c r="I83" s="3"/>
+      <c r="J83" s="3"/>
+      <c r="K83" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="J83" s="3"/>
-      <c r="K83" s="4" t="s">
+      <c r="L83" s="6"/>
+      <c r="M83" s="3"/>
+      <c r="N83" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="L83" s="1"/>
-      <c r="M83" s="1"/>
-      <c r="N83" s="1"/>
       <c r="O83" s="1"/>
       <c r="P83" s="1"/>
       <c r="Q83" s="1"/>
@@ -5434,9 +5868,12 @@
       <c r="AA83" s="1"/>
       <c r="AB83" s="1"/>
       <c r="AC83" s="1"/>
-    </row>
-    <row r="84" spans="1:29" ht="14" x14ac:dyDescent="0.15">
-      <c r="A84" s="8"/>
+      <c r="AD83" s="1"/>
+      <c r="AE83" s="1"/>
+      <c r="AF83" s="1"/>
+    </row>
+    <row r="84" spans="1:32" ht="14" x14ac:dyDescent="0.15">
+      <c r="A84" s="15"/>
       <c r="B84" s="3" t="s">
         <v>318</v>
       </c>
@@ -5449,21 +5886,23 @@
       <c r="E84" s="3">
         <v>1</v>
       </c>
-      <c r="F84" s="17">
-        <v>0</v>
-      </c>
-      <c r="G84" s="17">
-        <v>0</v>
-      </c>
-      <c r="H84" s="3"/>
-      <c r="I84" s="3" t="s">
+      <c r="F84" s="12">
+        <v>0</v>
+      </c>
+      <c r="G84" s="12">
+        <v>0</v>
+      </c>
+      <c r="H84" s="12">
+        <v>0</v>
+      </c>
+      <c r="I84" s="3"/>
+      <c r="J84" s="3"/>
+      <c r="K84" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="J84" s="3"/>
-      <c r="K84" s="9"/>
-      <c r="L84" s="1"/>
-      <c r="M84" s="1"/>
-      <c r="N84" s="1"/>
+      <c r="L84" s="3"/>
+      <c r="M84" s="3"/>
+      <c r="N84" s="8"/>
       <c r="O84" s="1"/>
       <c r="P84" s="1"/>
       <c r="Q84" s="1"/>
@@ -5479,9 +5918,12 @@
       <c r="AA84" s="1"/>
       <c r="AB84" s="1"/>
       <c r="AC84" s="1"/>
-    </row>
-    <row r="85" spans="1:29" ht="14" x14ac:dyDescent="0.15">
-      <c r="A85" s="8"/>
+      <c r="AD84" s="1"/>
+      <c r="AE84" s="1"/>
+      <c r="AF84" s="1"/>
+    </row>
+    <row r="85" spans="1:32" ht="14" x14ac:dyDescent="0.15">
+      <c r="A85" s="15"/>
       <c r="B85" s="3" t="s">
         <v>320</v>
       </c>
@@ -5500,17 +5942,19 @@
       <c r="G85" s="3">
         <v>1</v>
       </c>
-      <c r="H85" s="3"/>
-      <c r="I85" s="6" t="s">
+      <c r="H85" s="3">
+        <v>1</v>
+      </c>
+      <c r="I85" s="3"/>
+      <c r="J85" s="3"/>
+      <c r="K85" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="J85" s="3"/>
-      <c r="K85" s="4" t="s">
+      <c r="L85" s="6"/>
+      <c r="M85" s="3"/>
+      <c r="N85" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="L85" s="1"/>
-      <c r="M85" s="1"/>
-      <c r="N85" s="1"/>
       <c r="O85" s="1"/>
       <c r="P85" s="1"/>
       <c r="Q85" s="1"/>
@@ -5526,38 +5970,43 @@
       <c r="AA85" s="1"/>
       <c r="AB85" s="1"/>
       <c r="AC85" s="1"/>
-    </row>
-    <row r="86" spans="1:29" ht="14" x14ac:dyDescent="0.15">
-      <c r="A86" s="8"/>
+      <c r="AD85" s="1"/>
+      <c r="AE85" s="1"/>
+      <c r="AF85" s="1"/>
+    </row>
+    <row r="86" spans="1:32" ht="14" x14ac:dyDescent="0.15">
+      <c r="A86" s="15"/>
       <c r="B86" s="6" t="s">
         <v>46</v>
       </c>
       <c r="C86" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D86" s="19">
-        <v>0</v>
-      </c>
-      <c r="E86" s="19">
-        <v>0</v>
-      </c>
-      <c r="F86" s="18">
+      <c r="D86" s="14">
+        <v>0</v>
+      </c>
+      <c r="E86" s="14">
+        <v>0</v>
+      </c>
+      <c r="F86" s="13">
         <v>18</v>
       </c>
-      <c r="G86" s="18">
+      <c r="G86" s="13">
         <v>18</v>
       </c>
-      <c r="H86" s="3"/>
-      <c r="I86" s="6" t="s">
+      <c r="H86" s="13">
+        <v>18</v>
+      </c>
+      <c r="I86" s="3"/>
+      <c r="J86" s="3"/>
+      <c r="K86" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J86" s="3"/>
-      <c r="K86" s="4" t="s">
+      <c r="L86" s="6"/>
+      <c r="M86" s="3"/>
+      <c r="N86" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L86" s="1"/>
-      <c r="M86" s="1"/>
-      <c r="N86" s="1"/>
       <c r="O86" s="1"/>
       <c r="P86" s="1"/>
       <c r="Q86" s="1"/>
@@ -5573,38 +6022,43 @@
       <c r="AA86" s="1"/>
       <c r="AB86" s="1"/>
       <c r="AC86" s="1"/>
-    </row>
-    <row r="87" spans="1:29" ht="14" x14ac:dyDescent="0.15">
-      <c r="A87" s="8"/>
+      <c r="AD86" s="1"/>
+      <c r="AE86" s="1"/>
+      <c r="AF86" s="1"/>
+    </row>
+    <row r="87" spans="1:32" ht="14" x14ac:dyDescent="0.15">
+      <c r="A87" s="15"/>
       <c r="B87" s="3" t="s">
         <v>321</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D87" s="18">
-        <v>1</v>
-      </c>
-      <c r="E87" s="18">
-        <v>1</v>
-      </c>
-      <c r="F87" s="18">
+      <c r="D87" s="13">
+        <v>1</v>
+      </c>
+      <c r="E87" s="13">
+        <v>1</v>
+      </c>
+      <c r="F87" s="13">
         <v>2</v>
       </c>
-      <c r="G87" s="18">
+      <c r="G87" s="13">
         <v>2</v>
       </c>
-      <c r="H87" s="3"/>
-      <c r="I87" s="3" t="s">
-        <v>357</v>
-      </c>
+      <c r="H87" s="13">
+        <v>2</v>
+      </c>
+      <c r="I87" s="3"/>
       <c r="J87" s="3"/>
-      <c r="K87" s="4" t="s">
+      <c r="K87" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="L87" s="3"/>
+      <c r="M87" s="3"/>
+      <c r="N87" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="L87" s="1"/>
-      <c r="M87" s="1"/>
-      <c r="N87" s="1"/>
       <c r="O87" s="1"/>
       <c r="P87" s="1"/>
       <c r="Q87" s="1"/>
@@ -5620,9 +6074,12 @@
       <c r="AA87" s="1"/>
       <c r="AB87" s="1"/>
       <c r="AC87" s="1"/>
-    </row>
-    <row r="88" spans="1:29" ht="28" x14ac:dyDescent="0.15">
-      <c r="A88" s="8" t="s">
+      <c r="AD87" s="1"/>
+      <c r="AE87" s="1"/>
+      <c r="AF87" s="1"/>
+    </row>
+    <row r="88" spans="1:32" ht="28" x14ac:dyDescent="0.15">
+      <c r="A88" s="15" t="s">
         <v>213</v>
       </c>
       <c r="B88" s="3" t="s">
@@ -5637,21 +6094,23 @@
       <c r="E88" s="3">
         <v>1</v>
       </c>
-      <c r="F88" s="17">
-        <v>0</v>
-      </c>
-      <c r="G88" s="17">
-        <v>0</v>
-      </c>
-      <c r="H88" s="3"/>
-      <c r="I88" s="3" t="s">
+      <c r="F88" s="12">
+        <v>0</v>
+      </c>
+      <c r="G88" s="12">
+        <v>0</v>
+      </c>
+      <c r="H88" s="12">
+        <v>0</v>
+      </c>
+      <c r="I88" s="3"/>
+      <c r="J88" s="3"/>
+      <c r="K88" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="J88" s="3"/>
-      <c r="K88" s="9"/>
-      <c r="L88" s="1"/>
-      <c r="M88" s="1"/>
-      <c r="N88" s="1"/>
+      <c r="L88" s="3"/>
+      <c r="M88" s="3"/>
+      <c r="N88" s="8"/>
       <c r="O88" s="1"/>
       <c r="P88" s="1"/>
       <c r="Q88" s="1"/>
@@ -5667,9 +6126,12 @@
       <c r="AA88" s="1"/>
       <c r="AB88" s="1"/>
       <c r="AC88" s="1"/>
-    </row>
-    <row r="89" spans="1:29" ht="14" x14ac:dyDescent="0.15">
-      <c r="A89" s="8"/>
+      <c r="AD88" s="1"/>
+      <c r="AE88" s="1"/>
+      <c r="AF88" s="1"/>
+    </row>
+    <row r="89" spans="1:32" ht="14" x14ac:dyDescent="0.15">
+      <c r="A89" s="15"/>
       <c r="B89" s="3" t="s">
         <v>324</v>
       </c>
@@ -5682,21 +6144,23 @@
       <c r="E89" s="3">
         <v>1</v>
       </c>
-      <c r="F89" s="17">
-        <v>0</v>
-      </c>
-      <c r="G89" s="17">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3"/>
-      <c r="I89" s="3" t="s">
+      <c r="F89" s="12">
+        <v>0</v>
+      </c>
+      <c r="G89" s="12">
+        <v>0</v>
+      </c>
+      <c r="H89" s="12">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3"/>
+      <c r="J89" s="3"/>
+      <c r="K89" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="J89" s="3"/>
-      <c r="K89" s="9"/>
-      <c r="L89" s="1"/>
-      <c r="M89" s="1"/>
-      <c r="N89" s="1"/>
+      <c r="L89" s="3"/>
+      <c r="M89" s="3"/>
+      <c r="N89" s="8"/>
       <c r="O89" s="1"/>
       <c r="P89" s="1"/>
       <c r="Q89" s="1"/>
@@ -5712,9 +6176,12 @@
       <c r="AA89" s="1"/>
       <c r="AB89" s="1"/>
       <c r="AC89" s="1"/>
-    </row>
-    <row r="90" spans="1:29" ht="14" x14ac:dyDescent="0.15">
-      <c r="A90" s="8"/>
+      <c r="AD89" s="1"/>
+      <c r="AE89" s="1"/>
+      <c r="AF89" s="1"/>
+    </row>
+    <row r="90" spans="1:32" ht="14" x14ac:dyDescent="0.15">
+      <c r="A90" s="15"/>
       <c r="B90" s="3" t="s">
         <v>326</v>
       </c>
@@ -5727,21 +6194,23 @@
       <c r="E90" s="3">
         <v>1</v>
       </c>
-      <c r="F90" s="17">
-        <v>0</v>
-      </c>
-      <c r="G90" s="17">
-        <v>0</v>
-      </c>
-      <c r="H90" s="3"/>
-      <c r="I90" s="3" t="s">
+      <c r="F90" s="12">
+        <v>0</v>
+      </c>
+      <c r="G90" s="12">
+        <v>0</v>
+      </c>
+      <c r="H90" s="12">
+        <v>0</v>
+      </c>
+      <c r="I90" s="3"/>
+      <c r="J90" s="3"/>
+      <c r="K90" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="J90" s="3"/>
-      <c r="K90" s="9"/>
-      <c r="L90" s="1"/>
-      <c r="M90" s="1"/>
-      <c r="N90" s="1"/>
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+      <c r="N90" s="8"/>
       <c r="O90" s="1"/>
       <c r="P90" s="1"/>
       <c r="Q90" s="1"/>
@@ -5757,9 +6226,12 @@
       <c r="AA90" s="1"/>
       <c r="AB90" s="1"/>
       <c r="AC90" s="1"/>
-    </row>
-    <row r="91" spans="1:29" ht="28" x14ac:dyDescent="0.15">
-      <c r="A91" s="11" t="s">
+      <c r="AD90" s="1"/>
+      <c r="AE90" s="1"/>
+      <c r="AF90" s="1"/>
+    </row>
+    <row r="91" spans="1:32" ht="28" x14ac:dyDescent="0.15">
+      <c r="A91" s="16" t="s">
         <v>83</v>
       </c>
       <c r="B91" s="6" t="s">
@@ -5768,29 +6240,31 @@
       <c r="C91" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D91" s="19">
-        <v>0</v>
-      </c>
-      <c r="E91" s="19">
-        <v>0</v>
-      </c>
-      <c r="F91" s="19">
+      <c r="D91" s="14">
+        <v>0</v>
+      </c>
+      <c r="E91" s="14">
+        <v>0</v>
+      </c>
+      <c r="F91" s="14">
         <v>2</v>
       </c>
-      <c r="G91" s="19">
+      <c r="G91" s="14">
         <v>2</v>
       </c>
-      <c r="H91" s="4"/>
-      <c r="I91" s="6" t="s">
+      <c r="H91" s="14">
+        <v>2</v>
+      </c>
+      <c r="I91" s="4"/>
+      <c r="J91" s="4"/>
+      <c r="K91" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="J91" s="3"/>
-      <c r="K91" s="4" t="s">
+      <c r="L91" s="6"/>
+      <c r="M91" s="3"/>
+      <c r="N91" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="L91" s="1"/>
-      <c r="M91" s="1"/>
-      <c r="N91" s="1"/>
       <c r="O91" s="1"/>
       <c r="P91" s="1"/>
       <c r="Q91" s="1"/>
@@ -5803,38 +6277,43 @@
       <c r="X91" s="1"/>
       <c r="Y91" s="1"/>
       <c r="Z91" s="1"/>
-    </row>
-    <row r="92" spans="1:29" ht="14" x14ac:dyDescent="0.15">
-      <c r="A92" s="11"/>
+      <c r="AA91" s="1"/>
+      <c r="AB91" s="1"/>
+      <c r="AC91" s="1"/>
+    </row>
+    <row r="92" spans="1:32" ht="14" x14ac:dyDescent="0.15">
+      <c r="A92" s="16"/>
       <c r="B92" s="3" t="s">
         <v>86</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D92" s="18">
-        <v>0</v>
-      </c>
-      <c r="E92" s="18">
-        <v>0</v>
-      </c>
-      <c r="F92" s="18">
-        <v>1</v>
-      </c>
-      <c r="G92" s="18">
-        <v>1</v>
-      </c>
-      <c r="H92" s="4"/>
-      <c r="I92" s="6" t="s">
+      <c r="D92" s="13">
+        <v>0</v>
+      </c>
+      <c r="E92" s="13">
+        <v>0</v>
+      </c>
+      <c r="F92" s="13">
+        <v>1</v>
+      </c>
+      <c r="G92" s="13">
+        <v>1</v>
+      </c>
+      <c r="H92" s="13">
+        <v>1</v>
+      </c>
+      <c r="I92" s="4"/>
+      <c r="J92" s="4"/>
+      <c r="K92" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="J92" s="3"/>
-      <c r="K92" s="4" t="s">
+      <c r="L92" s="6"/>
+      <c r="M92" s="3"/>
+      <c r="N92" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="L92" s="1"/>
-      <c r="M92" s="1"/>
-      <c r="N92" s="1"/>
       <c r="O92" s="1"/>
       <c r="P92" s="1"/>
       <c r="Q92" s="1"/>
@@ -5847,38 +6326,43 @@
       <c r="X92" s="1"/>
       <c r="Y92" s="1"/>
       <c r="Z92" s="1"/>
-    </row>
-    <row r="93" spans="1:29" ht="28" x14ac:dyDescent="0.15">
-      <c r="A93" s="11"/>
+      <c r="AA92" s="1"/>
+      <c r="AB92" s="1"/>
+      <c r="AC92" s="1"/>
+    </row>
+    <row r="93" spans="1:32" ht="28" x14ac:dyDescent="0.15">
+      <c r="A93" s="16"/>
       <c r="B93" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D93" s="18">
-        <v>0</v>
-      </c>
-      <c r="E93" s="18">
-        <v>0</v>
-      </c>
-      <c r="F93" s="18">
-        <v>1</v>
-      </c>
-      <c r="G93" s="18">
-        <v>1</v>
-      </c>
-      <c r="H93" s="4"/>
-      <c r="I93" s="6" t="s">
+      <c r="D93" s="13">
+        <v>0</v>
+      </c>
+      <c r="E93" s="13">
+        <v>0</v>
+      </c>
+      <c r="F93" s="13">
+        <v>1</v>
+      </c>
+      <c r="G93" s="13">
+        <v>1</v>
+      </c>
+      <c r="H93" s="13">
+        <v>1</v>
+      </c>
+      <c r="I93" s="4"/>
+      <c r="J93" s="4"/>
+      <c r="K93" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="J93" s="3"/>
-      <c r="K93" s="4" t="s">
+      <c r="L93" s="6"/>
+      <c r="M93" s="3"/>
+      <c r="N93" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="L93" s="1"/>
-      <c r="M93" s="1"/>
-      <c r="N93" s="1"/>
       <c r="O93" s="1"/>
       <c r="P93" s="1"/>
       <c r="Q93" s="1"/>
@@ -5890,38 +6374,43 @@
       <c r="W93" s="1"/>
       <c r="X93" s="1"/>
       <c r="Y93" s="1"/>
-    </row>
-    <row r="94" spans="1:29" ht="14" x14ac:dyDescent="0.15">
-      <c r="A94" s="11"/>
+      <c r="Z93" s="1"/>
+      <c r="AA93" s="1"/>
+      <c r="AB93" s="1"/>
+    </row>
+    <row r="94" spans="1:32" ht="14" x14ac:dyDescent="0.15">
+      <c r="A94" s="16"/>
       <c r="B94" s="3" t="s">
         <v>97</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D94" s="18">
-        <v>0</v>
-      </c>
-      <c r="E94" s="18">
-        <v>0</v>
-      </c>
-      <c r="F94" s="18">
-        <v>1</v>
-      </c>
-      <c r="G94" s="18">
-        <v>1</v>
-      </c>
-      <c r="H94" s="4"/>
-      <c r="I94" s="6" t="s">
+      <c r="D94" s="13">
+        <v>0</v>
+      </c>
+      <c r="E94" s="13">
+        <v>0</v>
+      </c>
+      <c r="F94" s="13">
+        <v>1</v>
+      </c>
+      <c r="G94" s="13">
+        <v>1</v>
+      </c>
+      <c r="H94" s="13">
+        <v>1</v>
+      </c>
+      <c r="I94" s="4"/>
+      <c r="J94" s="4"/>
+      <c r="K94" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="J94" s="3"/>
-      <c r="K94" s="4" t="s">
+      <c r="L94" s="6"/>
+      <c r="M94" s="3"/>
+      <c r="N94" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="L94" s="1"/>
-      <c r="M94" s="1"/>
-      <c r="N94" s="1"/>
       <c r="O94" s="1"/>
       <c r="P94" s="1"/>
       <c r="Q94" s="1"/>
@@ -5934,38 +6423,43 @@
       <c r="X94" s="1"/>
       <c r="Y94" s="1"/>
       <c r="Z94" s="1"/>
-    </row>
-    <row r="95" spans="1:29" ht="14" x14ac:dyDescent="0.15">
-      <c r="A95" s="11"/>
+      <c r="AA94" s="1"/>
+      <c r="AB94" s="1"/>
+      <c r="AC94" s="1"/>
+    </row>
+    <row r="95" spans="1:32" ht="14" x14ac:dyDescent="0.15">
+      <c r="A95" s="16"/>
       <c r="B95" s="3" t="s">
         <v>161</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D95" s="18">
-        <v>0</v>
-      </c>
-      <c r="E95" s="18">
-        <v>0</v>
-      </c>
-      <c r="F95" s="18">
-        <v>1</v>
-      </c>
-      <c r="G95" s="18">
-        <v>1</v>
-      </c>
-      <c r="H95" s="4"/>
-      <c r="I95" s="3" t="s">
+      <c r="D95" s="13">
+        <v>0</v>
+      </c>
+      <c r="E95" s="13">
+        <v>0</v>
+      </c>
+      <c r="F95" s="13">
+        <v>1</v>
+      </c>
+      <c r="G95" s="13">
+        <v>1</v>
+      </c>
+      <c r="H95" s="13">
+        <v>1</v>
+      </c>
+      <c r="I95" s="4"/>
+      <c r="J95" s="4"/>
+      <c r="K95" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="J95" s="3"/>
-      <c r="K95" s="4" t="s">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+      <c r="N95" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="L95" s="1"/>
-      <c r="M95" s="1"/>
-      <c r="N95" s="1"/>
       <c r="O95" s="1"/>
       <c r="P95" s="1"/>
       <c r="Q95" s="1"/>
@@ -5978,9 +6472,12 @@
       <c r="X95" s="1"/>
       <c r="Y95" s="1"/>
       <c r="Z95" s="1"/>
-    </row>
-    <row r="96" spans="1:29" ht="14" x14ac:dyDescent="0.15">
-      <c r="A96" s="11" t="s">
+      <c r="AA95" s="1"/>
+      <c r="AB95" s="1"/>
+      <c r="AC95" s="1"/>
+    </row>
+    <row r="96" spans="1:32" ht="14" x14ac:dyDescent="0.15">
+      <c r="A96" s="16" t="s">
         <v>100</v>
       </c>
       <c r="B96" s="6" t="s">
@@ -5989,29 +6486,31 @@
       <c r="C96" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="D96" s="19">
-        <v>0</v>
-      </c>
-      <c r="E96" s="19">
-        <v>0</v>
-      </c>
-      <c r="F96" s="19">
-        <v>1</v>
-      </c>
-      <c r="G96" s="19">
-        <v>1</v>
-      </c>
-      <c r="H96" s="4"/>
-      <c r="I96" s="6" t="s">
+      <c r="D96" s="14">
+        <v>0</v>
+      </c>
+      <c r="E96" s="14">
+        <v>0</v>
+      </c>
+      <c r="F96" s="14">
+        <v>1</v>
+      </c>
+      <c r="G96" s="14">
+        <v>1</v>
+      </c>
+      <c r="H96" s="14">
+        <v>1</v>
+      </c>
+      <c r="I96" s="4"/>
+      <c r="J96" s="4"/>
+      <c r="K96" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="J96" s="3"/>
-      <c r="K96" s="4" t="s">
+      <c r="L96" s="6"/>
+      <c r="M96" s="3"/>
+      <c r="N96" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="L96" s="1"/>
-      <c r="M96" s="1"/>
-      <c r="N96" s="1"/>
       <c r="O96" s="1"/>
       <c r="P96" s="1"/>
       <c r="Q96" s="1"/>
@@ -6024,38 +6523,43 @@
       <c r="X96" s="1"/>
       <c r="Y96" s="1"/>
       <c r="Z96" s="1"/>
-    </row>
-    <row r="97" spans="1:29" ht="14" x14ac:dyDescent="0.15">
-      <c r="A97" s="11"/>
+      <c r="AA96" s="1"/>
+      <c r="AB96" s="1"/>
+      <c r="AC96" s="1"/>
+    </row>
+    <row r="97" spans="1:32" ht="14" x14ac:dyDescent="0.15">
+      <c r="A97" s="16"/>
       <c r="B97" s="6" t="s">
         <v>117</v>
       </c>
       <c r="C97" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="D97" s="18">
-        <v>0</v>
-      </c>
-      <c r="E97" s="18">
-        <v>0</v>
-      </c>
-      <c r="F97" s="18">
-        <v>1</v>
-      </c>
-      <c r="G97" s="18">
-        <v>1</v>
-      </c>
-      <c r="H97" s="4"/>
-      <c r="I97" s="3" t="s">
+      <c r="D97" s="13">
+        <v>0</v>
+      </c>
+      <c r="E97" s="13">
+        <v>0</v>
+      </c>
+      <c r="F97" s="13">
+        <v>1</v>
+      </c>
+      <c r="G97" s="13">
+        <v>1</v>
+      </c>
+      <c r="H97" s="13">
+        <v>1</v>
+      </c>
+      <c r="I97" s="4"/>
+      <c r="J97" s="4"/>
+      <c r="K97" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="J97" s="3"/>
-      <c r="K97" s="4" t="s">
+      <c r="L97" s="3"/>
+      <c r="M97" s="3"/>
+      <c r="N97" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="L97" s="1"/>
-      <c r="M97" s="1"/>
-      <c r="N97" s="1"/>
       <c r="O97" s="1"/>
       <c r="P97" s="1"/>
       <c r="Q97" s="1"/>
@@ -6068,9 +6572,12 @@
       <c r="X97" s="1"/>
       <c r="Y97" s="1"/>
       <c r="Z97" s="1"/>
-    </row>
-    <row r="98" spans="1:29" ht="28" x14ac:dyDescent="0.15">
-      <c r="A98" s="11" t="s">
+      <c r="AA97" s="1"/>
+      <c r="AB97" s="1"/>
+      <c r="AC97" s="1"/>
+    </row>
+    <row r="98" spans="1:32" ht="28" x14ac:dyDescent="0.15">
+      <c r="A98" s="16" t="s">
         <v>156</v>
       </c>
       <c r="B98" s="6" t="s">
@@ -6079,29 +6586,31 @@
       <c r="C98" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="D98" s="19">
-        <v>0</v>
-      </c>
-      <c r="E98" s="19">
-        <v>0</v>
-      </c>
-      <c r="F98" s="19">
-        <v>1</v>
-      </c>
-      <c r="G98" s="19">
-        <v>1</v>
-      </c>
-      <c r="H98" s="4"/>
-      <c r="I98" s="3" t="s">
+      <c r="D98" s="14">
+        <v>0</v>
+      </c>
+      <c r="E98" s="14">
+        <v>0</v>
+      </c>
+      <c r="F98" s="14">
+        <v>1</v>
+      </c>
+      <c r="G98" s="14">
+        <v>1</v>
+      </c>
+      <c r="H98" s="14">
+        <v>1</v>
+      </c>
+      <c r="I98" s="4"/>
+      <c r="J98" s="4"/>
+      <c r="K98" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="J98" s="3"/>
-      <c r="K98" s="4" t="s">
+      <c r="L98" s="3"/>
+      <c r="M98" s="3"/>
+      <c r="N98" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="L98" s="1"/>
-      <c r="M98" s="1"/>
-      <c r="N98" s="1"/>
       <c r="O98" s="1"/>
       <c r="P98" s="1"/>
       <c r="Q98" s="1"/>
@@ -6114,38 +6623,43 @@
       <c r="X98" s="1"/>
       <c r="Y98" s="1"/>
       <c r="Z98" s="1"/>
-    </row>
-    <row r="99" spans="1:29" ht="14" x14ac:dyDescent="0.15">
-      <c r="A99" s="11"/>
+      <c r="AA98" s="1"/>
+      <c r="AB98" s="1"/>
+      <c r="AC98" s="1"/>
+    </row>
+    <row r="99" spans="1:32" ht="14" x14ac:dyDescent="0.15">
+      <c r="A99" s="16"/>
       <c r="B99" s="6" t="s">
         <v>158</v>
       </c>
       <c r="C99" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="D99" s="19">
-        <v>0</v>
-      </c>
-      <c r="E99" s="19">
-        <v>0</v>
-      </c>
-      <c r="F99" s="19">
+      <c r="D99" s="14">
+        <v>0</v>
+      </c>
+      <c r="E99" s="14">
+        <v>0</v>
+      </c>
+      <c r="F99" s="14">
         <v>6</v>
       </c>
-      <c r="G99" s="19">
+      <c r="G99" s="14">
         <v>6</v>
       </c>
-      <c r="H99" s="4"/>
-      <c r="I99" s="6" t="s">
+      <c r="H99" s="14">
+        <v>6</v>
+      </c>
+      <c r="I99" s="4"/>
+      <c r="J99" s="4"/>
+      <c r="K99" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="J99" s="3"/>
-      <c r="K99" s="4" t="s">
+      <c r="L99" s="6"/>
+      <c r="M99" s="3"/>
+      <c r="N99" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="L99" s="1"/>
-      <c r="M99" s="1"/>
-      <c r="N99" s="1"/>
       <c r="O99" s="1"/>
       <c r="P99" s="1"/>
       <c r="Q99" s="1"/>
@@ -6158,9 +6672,12 @@
       <c r="X99" s="1"/>
       <c r="Y99" s="1"/>
       <c r="Z99" s="1"/>
-    </row>
-    <row r="100" spans="1:29" ht="28" x14ac:dyDescent="0.15">
-      <c r="A100" s="8" t="s">
+      <c r="AA99" s="1"/>
+      <c r="AB99" s="1"/>
+      <c r="AC99" s="1"/>
+    </row>
+    <row r="100" spans="1:32" ht="28" x14ac:dyDescent="0.15">
+      <c r="A100" s="15" t="s">
         <v>55</v>
       </c>
       <c r="B100" s="3" t="s">
@@ -6175,21 +6692,23 @@
       <c r="E100" s="3">
         <v>1</v>
       </c>
-      <c r="F100" s="17">
-        <v>0</v>
-      </c>
-      <c r="G100" s="17">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3"/>
-      <c r="I100" s="3" t="s">
+      <c r="F100" s="12">
+        <v>0</v>
+      </c>
+      <c r="G100" s="12">
+        <v>0</v>
+      </c>
+      <c r="H100" s="12">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3"/>
+      <c r="J100" s="3"/>
+      <c r="K100" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="J100" s="3"/>
-      <c r="K100" s="9"/>
-      <c r="L100" s="1"/>
-      <c r="M100" s="1"/>
-      <c r="N100" s="1"/>
+      <c r="L100" s="3"/>
+      <c r="M100" s="3"/>
+      <c r="N100" s="8"/>
       <c r="O100" s="1"/>
       <c r="P100" s="1"/>
       <c r="Q100" s="1"/>
@@ -6205,38 +6724,43 @@
       <c r="AA100" s="1"/>
       <c r="AB100" s="1"/>
       <c r="AC100" s="1"/>
-    </row>
-    <row r="101" spans="1:29" ht="28" x14ac:dyDescent="0.15">
-      <c r="A101" s="8"/>
+      <c r="AD100" s="1"/>
+      <c r="AE100" s="1"/>
+      <c r="AF100" s="1"/>
+    </row>
+    <row r="101" spans="1:32" ht="28" x14ac:dyDescent="0.15">
+      <c r="A101" s="15"/>
       <c r="B101" s="3" t="s">
         <v>330</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="D101" s="18">
-        <v>1</v>
-      </c>
-      <c r="E101" s="18">
-        <v>1</v>
-      </c>
-      <c r="F101" s="18">
+      <c r="D101" s="13">
+        <v>1</v>
+      </c>
+      <c r="E101" s="13">
+        <v>1</v>
+      </c>
+      <c r="F101" s="13">
         <v>2</v>
       </c>
-      <c r="G101" s="18">
+      <c r="G101" s="13">
         <v>2</v>
       </c>
-      <c r="H101" s="3"/>
-      <c r="I101" s="6" t="s">
+      <c r="H101" s="13">
+        <v>2</v>
+      </c>
+      <c r="I101" s="3"/>
+      <c r="J101" s="3"/>
+      <c r="K101" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="J101" s="3"/>
-      <c r="K101" s="4" t="s">
+      <c r="L101" s="6"/>
+      <c r="M101" s="3"/>
+      <c r="N101" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="L101" s="1"/>
-      <c r="M101" s="1"/>
-      <c r="N101" s="1"/>
       <c r="O101" s="1"/>
       <c r="P101" s="1"/>
       <c r="Q101" s="1"/>
@@ -6252,9 +6776,12 @@
       <c r="AA101" s="1"/>
       <c r="AB101" s="1"/>
       <c r="AC101" s="1"/>
-    </row>
-    <row r="102" spans="1:29" ht="14" x14ac:dyDescent="0.15">
-      <c r="A102" s="8"/>
+      <c r="AD101" s="1"/>
+      <c r="AE101" s="1"/>
+      <c r="AF101" s="1"/>
+    </row>
+    <row r="102" spans="1:32" ht="14" x14ac:dyDescent="0.15">
+      <c r="A102" s="15"/>
       <c r="B102" s="3" t="s">
         <v>332</v>
       </c>
@@ -6267,21 +6794,23 @@
       <c r="E102" s="3">
         <v>1</v>
       </c>
-      <c r="F102" s="17">
-        <v>0</v>
-      </c>
-      <c r="G102" s="17">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3"/>
-      <c r="I102" s="3" t="s">
+      <c r="F102" s="12">
+        <v>0</v>
+      </c>
+      <c r="G102" s="12">
+        <v>0</v>
+      </c>
+      <c r="H102" s="12">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3"/>
+      <c r="J102" s="3"/>
+      <c r="K102" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="J102" s="3"/>
-      <c r="K102" s="9"/>
-      <c r="L102" s="1"/>
-      <c r="M102" s="1"/>
-      <c r="N102" s="1"/>
+      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
+      <c r="N102" s="8"/>
       <c r="O102" s="1"/>
       <c r="P102" s="1"/>
       <c r="Q102" s="1"/>
@@ -6297,38 +6826,45 @@
       <c r="AA102" s="1"/>
       <c r="AB102" s="1"/>
       <c r="AC102" s="1"/>
-    </row>
-    <row r="103" spans="1:29" ht="14" x14ac:dyDescent="0.15">
-      <c r="A103" s="8"/>
+      <c r="AD102" s="1"/>
+      <c r="AE102" s="1"/>
+      <c r="AF102" s="1"/>
+    </row>
+    <row r="103" spans="1:32" ht="28" x14ac:dyDescent="0.15">
+      <c r="A103" s="15"/>
       <c r="B103" s="3" t="s">
         <v>109</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D103" s="3">
+      <c r="D103" s="13">
         <v>4</v>
       </c>
-      <c r="E103" s="3">
+      <c r="E103" s="13">
         <v>4</v>
       </c>
-      <c r="F103" s="6">
+      <c r="F103" s="14">
         <v>4</v>
       </c>
-      <c r="G103" s="6">
-        <v>4</v>
-      </c>
-      <c r="H103" s="3"/>
-      <c r="I103" s="3" t="s">
+      <c r="G103" s="14">
+        <v>5</v>
+      </c>
+      <c r="H103" s="14">
+        <v>5</v>
+      </c>
+      <c r="I103" s="3"/>
+      <c r="J103" s="3"/>
+      <c r="K103" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="J103" s="3"/>
-      <c r="K103" s="4" t="s">
+      <c r="L103" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="M103" s="3"/>
+      <c r="N103" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="L103" s="1"/>
-      <c r="M103" s="1"/>
-      <c r="N103" s="1"/>
       <c r="O103" s="1"/>
       <c r="P103" s="1"/>
       <c r="Q103" s="1"/>
@@ -6344,9 +6880,12 @@
       <c r="AA103" s="1"/>
       <c r="AB103" s="1"/>
       <c r="AC103" s="1"/>
-    </row>
-    <row r="104" spans="1:29" ht="14" x14ac:dyDescent="0.15">
-      <c r="A104" s="8"/>
+      <c r="AD103" s="1"/>
+      <c r="AE103" s="1"/>
+      <c r="AF103" s="1"/>
+    </row>
+    <row r="104" spans="1:32" ht="14" x14ac:dyDescent="0.15">
+      <c r="A104" s="15"/>
       <c r="B104" s="3" t="s">
         <v>334</v>
       </c>
@@ -6359,21 +6898,23 @@
       <c r="E104" s="3">
         <v>1</v>
       </c>
-      <c r="F104" s="17">
-        <v>0</v>
-      </c>
-      <c r="G104" s="17">
-        <v>0</v>
-      </c>
-      <c r="H104" s="3"/>
-      <c r="I104" s="3" t="s">
+      <c r="F104" s="12">
+        <v>0</v>
+      </c>
+      <c r="G104" s="12">
+        <v>0</v>
+      </c>
+      <c r="H104" s="12">
+        <v>0</v>
+      </c>
+      <c r="I104" s="3"/>
+      <c r="J104" s="3"/>
+      <c r="K104" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="J104" s="3"/>
-      <c r="K104" s="9"/>
-      <c r="L104" s="1"/>
-      <c r="M104" s="1"/>
-      <c r="N104" s="1"/>
+      <c r="L104" s="3"/>
+      <c r="M104" s="3"/>
+      <c r="N104" s="8"/>
       <c r="O104" s="1"/>
       <c r="P104" s="1"/>
       <c r="Q104" s="1"/>
@@ -6389,9 +6930,12 @@
       <c r="AA104" s="1"/>
       <c r="AB104" s="1"/>
       <c r="AC104" s="1"/>
-    </row>
-    <row r="105" spans="1:29" ht="42" x14ac:dyDescent="0.15">
-      <c r="A105" s="8"/>
+      <c r="AD104" s="1"/>
+      <c r="AE104" s="1"/>
+      <c r="AF104" s="1"/>
+    </row>
+    <row r="105" spans="1:32" ht="42" x14ac:dyDescent="0.15">
+      <c r="A105" s="15"/>
       <c r="B105" s="3" t="s">
         <v>183</v>
       </c>
@@ -6410,17 +6954,19 @@
       <c r="G105" s="6">
         <v>1</v>
       </c>
-      <c r="H105" s="3"/>
-      <c r="I105" s="6" t="s">
+      <c r="H105" s="6">
+        <v>1</v>
+      </c>
+      <c r="I105" s="3"/>
+      <c r="J105" s="3"/>
+      <c r="K105" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="J105" s="3"/>
-      <c r="K105" s="4" t="s">
+      <c r="L105" s="6"/>
+      <c r="M105" s="3"/>
+      <c r="N105" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="L105" s="1"/>
-      <c r="M105" s="1"/>
-      <c r="N105" s="1"/>
       <c r="O105" s="1"/>
       <c r="P105" s="1"/>
       <c r="Q105" s="1"/>
@@ -6436,40 +6982,47 @@
       <c r="AA105" s="1"/>
       <c r="AB105" s="1"/>
       <c r="AC105" s="1"/>
-    </row>
-    <row r="106" spans="1:29" ht="42" x14ac:dyDescent="0.15">
-      <c r="A106" s="8"/>
+      <c r="AD105" s="1"/>
+      <c r="AE105" s="1"/>
+      <c r="AF105" s="1"/>
+    </row>
+    <row r="106" spans="1:32" ht="42" x14ac:dyDescent="0.15">
+      <c r="A106" s="15"/>
       <c r="B106" s="3" t="s">
         <v>185</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="D106" s="18">
+      <c r="D106" s="13">
         <v>8</v>
       </c>
-      <c r="E106" s="18">
+      <c r="E106" s="13">
         <v>8</v>
       </c>
-      <c r="F106" s="19">
+      <c r="F106" s="14">
         <v>12</v>
       </c>
-      <c r="G106" s="19">
+      <c r="G106" s="14">
         <v>12</v>
       </c>
-      <c r="H106" s="3" t="s">
+      <c r="H106" s="14">
+        <v>12</v>
+      </c>
+      <c r="I106" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="I106" s="6" t="s">
+      <c r="J106" s="3"/>
+      <c r="K106" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="J106" s="3"/>
-      <c r="K106" s="4" t="s">
+      <c r="L106" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="M106" s="3"/>
+      <c r="N106" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="L106" s="1"/>
-      <c r="M106" s="1"/>
-      <c r="N106" s="1"/>
       <c r="O106" s="1"/>
       <c r="P106" s="1"/>
       <c r="Q106" s="1"/>
@@ -6485,38 +7038,43 @@
       <c r="AA106" s="1"/>
       <c r="AB106" s="1"/>
       <c r="AC106" s="1"/>
-    </row>
-    <row r="107" spans="1:29" ht="42" x14ac:dyDescent="0.15">
-      <c r="A107" s="8"/>
+      <c r="AD106" s="1"/>
+      <c r="AE106" s="1"/>
+      <c r="AF106" s="1"/>
+    </row>
+    <row r="107" spans="1:32" ht="42" x14ac:dyDescent="0.15">
+      <c r="A107" s="15"/>
       <c r="B107" s="3" t="s">
         <v>187</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="D107" s="18">
+      <c r="D107" s="13">
         <v>3</v>
       </c>
-      <c r="E107" s="18">
+      <c r="E107" s="13">
         <v>3</v>
       </c>
-      <c r="F107" s="19">
+      <c r="F107" s="14">
         <v>4</v>
       </c>
-      <c r="G107" s="19">
+      <c r="G107" s="14">
         <v>4</v>
       </c>
-      <c r="H107" s="3"/>
-      <c r="I107" s="6" t="s">
+      <c r="H107" s="14">
+        <v>4</v>
+      </c>
+      <c r="I107" s="3"/>
+      <c r="J107" s="3"/>
+      <c r="K107" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="J107" s="3"/>
-      <c r="K107" s="4" t="s">
+      <c r="L107" s="6"/>
+      <c r="M107" s="3"/>
+      <c r="N107" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="L107" s="1"/>
-      <c r="M107" s="1"/>
-      <c r="N107" s="1"/>
       <c r="O107" s="1"/>
       <c r="P107" s="1"/>
       <c r="Q107" s="1"/>
@@ -6532,9 +7090,12 @@
       <c r="AA107" s="1"/>
       <c r="AB107" s="1"/>
       <c r="AC107" s="1"/>
-    </row>
-    <row r="108" spans="1:29" ht="14" x14ac:dyDescent="0.15">
-      <c r="A108" s="8"/>
+      <c r="AD107" s="1"/>
+      <c r="AE107" s="1"/>
+      <c r="AF107" s="1"/>
+    </row>
+    <row r="108" spans="1:32" ht="14" x14ac:dyDescent="0.15">
+      <c r="A108" s="15"/>
       <c r="B108" s="3" t="s">
         <v>336</v>
       </c>
@@ -6553,15 +7114,19 @@
       <c r="G108" s="3">
         <v>0</v>
       </c>
-      <c r="H108" s="3"/>
-      <c r="I108" s="3" t="s">
-        <v>356</v>
-      </c>
+      <c r="H108" s="3">
+        <v>0</v>
+      </c>
+      <c r="I108" s="3"/>
       <c r="J108" s="3"/>
-      <c r="K108" s="9"/>
-      <c r="L108" s="1"/>
-      <c r="M108" s="1"/>
-      <c r="N108" s="1"/>
+      <c r="K108" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="L108" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="M108" s="3"/>
+      <c r="N108" s="8"/>
       <c r="O108" s="1"/>
       <c r="P108" s="1"/>
       <c r="Q108" s="1"/>
@@ -6577,9 +7142,12 @@
       <c r="AA108" s="1"/>
       <c r="AB108" s="1"/>
       <c r="AC108" s="1"/>
-    </row>
-    <row r="109" spans="1:29" ht="14" x14ac:dyDescent="0.15">
-      <c r="A109" s="8"/>
+      <c r="AD108" s="1"/>
+      <c r="AE108" s="1"/>
+      <c r="AF108" s="1"/>
+    </row>
+    <row r="109" spans="1:32" ht="14" x14ac:dyDescent="0.15">
+      <c r="A109" s="15"/>
       <c r="B109" s="3" t="s">
         <v>57</v>
       </c>
@@ -6598,17 +7166,19 @@
       <c r="G109" s="3">
         <v>1</v>
       </c>
-      <c r="H109" s="3"/>
-      <c r="I109" s="3" t="s">
+      <c r="H109" s="3">
+        <v>1</v>
+      </c>
+      <c r="I109" s="3"/>
+      <c r="J109" s="3"/>
+      <c r="K109" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="J109" s="3"/>
-      <c r="K109" s="4" t="s">
+      <c r="L109" s="3"/>
+      <c r="M109" s="3"/>
+      <c r="N109" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="L109" s="1"/>
-      <c r="M109" s="1"/>
-      <c r="N109" s="1"/>
       <c r="O109" s="1"/>
       <c r="P109" s="1"/>
       <c r="Q109" s="1"/>
@@ -6624,38 +7194,43 @@
       <c r="AA109" s="1"/>
       <c r="AB109" s="1"/>
       <c r="AC109" s="1"/>
-    </row>
-    <row r="110" spans="1:29" ht="14" x14ac:dyDescent="0.15">
-      <c r="A110" s="8"/>
+      <c r="AD109" s="1"/>
+      <c r="AE109" s="1"/>
+      <c r="AF109" s="1"/>
+    </row>
+    <row r="110" spans="1:32" ht="14" x14ac:dyDescent="0.15">
+      <c r="A110" s="15"/>
       <c r="B110" s="3" t="s">
         <v>214</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D110" s="18">
-        <v>1</v>
-      </c>
-      <c r="E110" s="18">
-        <v>1</v>
-      </c>
-      <c r="F110" s="18">
+      <c r="D110" s="13">
+        <v>1</v>
+      </c>
+      <c r="E110" s="13">
+        <v>1</v>
+      </c>
+      <c r="F110" s="13">
         <v>3</v>
       </c>
-      <c r="G110" s="18">
+      <c r="G110" s="13">
         <v>3</v>
       </c>
-      <c r="H110" s="3"/>
-      <c r="I110" s="3" t="s">
+      <c r="H110" s="13">
+        <v>3</v>
+      </c>
+      <c r="I110" s="3"/>
+      <c r="J110" s="3"/>
+      <c r="K110" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="J110" s="3"/>
-      <c r="K110" s="4" t="s">
+      <c r="L110" s="3"/>
+      <c r="M110" s="3"/>
+      <c r="N110" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L110" s="1"/>
-      <c r="M110" s="1"/>
-      <c r="N110" s="1"/>
       <c r="O110" s="1"/>
       <c r="P110" s="1"/>
       <c r="Q110" s="1"/>
@@ -6671,9 +7246,12 @@
       <c r="AA110" s="1"/>
       <c r="AB110" s="1"/>
       <c r="AC110" s="1"/>
-    </row>
-    <row r="111" spans="1:29" ht="14" x14ac:dyDescent="0.15">
-      <c r="A111" s="8"/>
+      <c r="AD110" s="1"/>
+      <c r="AE110" s="1"/>
+      <c r="AF110" s="1"/>
+    </row>
+    <row r="111" spans="1:32" ht="14" x14ac:dyDescent="0.15">
+      <c r="A111" s="15"/>
       <c r="B111" s="3" t="s">
         <v>178</v>
       </c>
@@ -6692,17 +7270,19 @@
       <c r="G111" s="3">
         <v>1</v>
       </c>
-      <c r="H111" s="3"/>
-      <c r="I111" s="3" t="s">
+      <c r="H111" s="3">
+        <v>1</v>
+      </c>
+      <c r="I111" s="3"/>
+      <c r="J111" s="3"/>
+      <c r="K111" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="J111" s="3"/>
-      <c r="K111" s="4" t="s">
+      <c r="L111" s="3"/>
+      <c r="M111" s="3"/>
+      <c r="N111" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="L111" s="1"/>
-      <c r="M111" s="1"/>
-      <c r="N111" s="1"/>
       <c r="O111" s="1"/>
       <c r="P111" s="1"/>
       <c r="Q111" s="1"/>
@@ -6718,9 +7298,12 @@
       <c r="AA111" s="1"/>
       <c r="AB111" s="1"/>
       <c r="AC111" s="1"/>
-    </row>
-    <row r="112" spans="1:29" ht="28" x14ac:dyDescent="0.15">
-      <c r="A112" s="8"/>
+      <c r="AD111" s="1"/>
+      <c r="AE111" s="1"/>
+      <c r="AF111" s="1"/>
+    </row>
+    <row r="112" spans="1:32" ht="28" x14ac:dyDescent="0.15">
+      <c r="A112" s="15"/>
       <c r="B112" s="3" t="s">
         <v>215</v>
       </c>
@@ -6733,21 +7316,23 @@
       <c r="E112" s="3">
         <v>1</v>
       </c>
-      <c r="F112" s="18">
-        <v>0</v>
-      </c>
-      <c r="G112" s="18">
-        <v>0</v>
-      </c>
-      <c r="H112" s="3"/>
-      <c r="I112" s="3" t="s">
+      <c r="F112" s="13">
+        <v>0</v>
+      </c>
+      <c r="G112" s="13">
+        <v>0</v>
+      </c>
+      <c r="H112" s="13">
+        <v>0</v>
+      </c>
+      <c r="I112" s="3"/>
+      <c r="J112" s="3"/>
+      <c r="K112" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="J112" s="3"/>
-      <c r="K112" s="9"/>
-      <c r="L112" s="1"/>
-      <c r="M112" s="1"/>
-      <c r="N112" s="1"/>
+      <c r="L112" s="3"/>
+      <c r="M112" s="3"/>
+      <c r="N112" s="8"/>
       <c r="O112" s="1"/>
       <c r="P112" s="1"/>
       <c r="Q112" s="1"/>
@@ -6763,9 +7348,12 @@
       <c r="AA112" s="1"/>
       <c r="AB112" s="1"/>
       <c r="AC112" s="1"/>
-    </row>
-    <row r="113" spans="1:29" ht="14" x14ac:dyDescent="0.15">
-      <c r="A113" s="8"/>
+      <c r="AD112" s="1"/>
+      <c r="AE112" s="1"/>
+      <c r="AF112" s="1"/>
+    </row>
+    <row r="113" spans="1:32" ht="14" x14ac:dyDescent="0.15">
+      <c r="A113" s="15"/>
       <c r="B113" s="3" t="s">
         <v>217</v>
       </c>
@@ -6778,21 +7366,23 @@
       <c r="E113" s="3">
         <v>1</v>
       </c>
-      <c r="F113" s="18">
-        <v>0</v>
-      </c>
-      <c r="G113" s="18">
-        <v>0</v>
-      </c>
-      <c r="H113" s="3"/>
-      <c r="I113" s="3" t="s">
+      <c r="F113" s="13">
+        <v>0</v>
+      </c>
+      <c r="G113" s="13">
+        <v>0</v>
+      </c>
+      <c r="H113" s="13">
+        <v>0</v>
+      </c>
+      <c r="I113" s="3"/>
+      <c r="J113" s="3"/>
+      <c r="K113" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="J113" s="3"/>
-      <c r="K113" s="9"/>
-      <c r="L113" s="1"/>
-      <c r="M113" s="1"/>
-      <c r="N113" s="1"/>
+      <c r="L113" s="3"/>
+      <c r="M113" s="3"/>
+      <c r="N113" s="8"/>
       <c r="O113" s="1"/>
       <c r="P113" s="1"/>
       <c r="Q113" s="1"/>
@@ -6808,9 +7398,12 @@
       <c r="AA113" s="1"/>
       <c r="AB113" s="1"/>
       <c r="AC113" s="1"/>
-    </row>
-    <row r="114" spans="1:29" ht="42" x14ac:dyDescent="0.15">
-      <c r="A114" s="8"/>
+      <c r="AD113" s="1"/>
+      <c r="AE113" s="1"/>
+      <c r="AF113" s="1"/>
+    </row>
+    <row r="114" spans="1:32" ht="42" x14ac:dyDescent="0.15">
+      <c r="A114" s="15"/>
       <c r="B114" s="3" t="s">
         <v>219</v>
       </c>
@@ -6829,17 +7422,19 @@
       <c r="G114" s="3">
         <v>1</v>
       </c>
-      <c r="H114" s="3"/>
-      <c r="I114" s="3" t="s">
+      <c r="H114" s="3">
+        <v>1</v>
+      </c>
+      <c r="I114" s="3"/>
+      <c r="J114" s="3"/>
+      <c r="K114" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="J114" s="3"/>
-      <c r="K114" s="4" t="s">
+      <c r="L114" s="3"/>
+      <c r="M114" s="3"/>
+      <c r="N114" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="L114" s="1"/>
-      <c r="M114" s="1"/>
-      <c r="N114" s="1"/>
       <c r="O114" s="1"/>
       <c r="P114" s="1"/>
       <c r="Q114" s="1"/>
@@ -6855,38 +7450,43 @@
       <c r="AA114" s="1"/>
       <c r="AB114" s="1"/>
       <c r="AC114" s="1"/>
-    </row>
-    <row r="115" spans="1:29" ht="56" x14ac:dyDescent="0.15">
-      <c r="A115" s="8"/>
+      <c r="AD114" s="1"/>
+      <c r="AE114" s="1"/>
+      <c r="AF114" s="1"/>
+    </row>
+    <row r="115" spans="1:32" ht="56" x14ac:dyDescent="0.15">
+      <c r="A115" s="15"/>
       <c r="B115" s="3" t="s">
         <v>181</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="D115" s="18">
+      <c r="D115" s="13">
         <v>4</v>
       </c>
-      <c r="E115" s="18">
+      <c r="E115" s="13">
         <v>4</v>
       </c>
-      <c r="F115" s="18">
+      <c r="F115" s="13">
         <v>2</v>
       </c>
-      <c r="G115" s="18">
+      <c r="G115" s="13">
         <v>2</v>
       </c>
-      <c r="H115" s="3"/>
-      <c r="I115" s="3" t="s">
+      <c r="H115" s="13">
+        <v>2</v>
+      </c>
+      <c r="I115" s="3"/>
+      <c r="J115" s="3"/>
+      <c r="K115" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="J115" s="3"/>
-      <c r="K115" s="4" t="s">
+      <c r="L115" s="3"/>
+      <c r="M115" s="3"/>
+      <c r="N115" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="L115" s="1"/>
-      <c r="M115" s="1"/>
-      <c r="N115" s="1"/>
       <c r="O115" s="1"/>
       <c r="P115" s="1"/>
       <c r="Q115" s="1"/>
@@ -6902,38 +7502,43 @@
       <c r="AA115" s="1"/>
       <c r="AB115" s="1"/>
       <c r="AC115" s="1"/>
-    </row>
-    <row r="116" spans="1:29" ht="14" x14ac:dyDescent="0.15">
-      <c r="A116" s="8"/>
+      <c r="AD115" s="1"/>
+      <c r="AE115" s="1"/>
+      <c r="AF115" s="1"/>
+    </row>
+    <row r="116" spans="1:32" ht="14" x14ac:dyDescent="0.15">
+      <c r="A116" s="15"/>
       <c r="B116" s="3" t="s">
         <v>80</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D116" s="18">
-        <v>0</v>
-      </c>
-      <c r="E116" s="18">
-        <v>0</v>
-      </c>
-      <c r="F116" s="18">
+      <c r="D116" s="13">
+        <v>0</v>
+      </c>
+      <c r="E116" s="13">
+        <v>0</v>
+      </c>
+      <c r="F116" s="13">
         <v>2</v>
       </c>
-      <c r="G116" s="18">
+      <c r="G116" s="13">
         <v>2</v>
       </c>
-      <c r="H116" s="3"/>
-      <c r="I116" s="3" t="s">
+      <c r="H116" s="13">
+        <v>2</v>
+      </c>
+      <c r="I116" s="3"/>
+      <c r="J116" s="3"/>
+      <c r="K116" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="J116" s="3"/>
-      <c r="K116" s="4" t="s">
+      <c r="L116" s="3"/>
+      <c r="M116" s="3"/>
+      <c r="N116" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="L116" s="1"/>
-      <c r="M116" s="1"/>
-      <c r="N116" s="1"/>
       <c r="O116" s="1"/>
       <c r="P116" s="1"/>
       <c r="Q116" s="1"/>
@@ -6945,38 +7550,43 @@
       <c r="W116" s="1"/>
       <c r="X116" s="1"/>
       <c r="Y116" s="1"/>
-    </row>
-    <row r="117" spans="1:29" ht="28" x14ac:dyDescent="0.15">
-      <c r="A117" s="8"/>
+      <c r="Z116" s="1"/>
+      <c r="AA116" s="1"/>
+      <c r="AB116" s="1"/>
+    </row>
+    <row r="117" spans="1:32" ht="28" x14ac:dyDescent="0.15">
+      <c r="A117" s="15"/>
       <c r="B117" s="3" t="s">
         <v>60</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D117" s="18">
-        <v>0</v>
-      </c>
-      <c r="E117" s="18">
-        <v>0</v>
-      </c>
-      <c r="F117" s="18">
+      <c r="D117" s="13">
+        <v>0</v>
+      </c>
+      <c r="E117" s="13">
+        <v>0</v>
+      </c>
+      <c r="F117" s="13">
         <v>2</v>
       </c>
-      <c r="G117" s="18">
+      <c r="G117" s="13">
         <v>2</v>
       </c>
-      <c r="H117" s="3"/>
-      <c r="I117" s="3" t="s">
+      <c r="H117" s="13">
+        <v>2</v>
+      </c>
+      <c r="I117" s="3"/>
+      <c r="J117" s="3"/>
+      <c r="K117" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="J117" s="3"/>
-      <c r="K117" s="4" t="s">
+      <c r="L117" s="3"/>
+      <c r="M117" s="3"/>
+      <c r="N117" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="L117" s="1"/>
-      <c r="M117" s="1"/>
-      <c r="N117" s="1"/>
       <c r="O117" s="1"/>
       <c r="P117" s="1"/>
       <c r="Q117" s="1"/>
@@ -6989,38 +7599,43 @@
       <c r="X117" s="1"/>
       <c r="Y117" s="1"/>
       <c r="Z117" s="1"/>
-    </row>
-    <row r="118" spans="1:29" ht="14" x14ac:dyDescent="0.15">
-      <c r="A118" s="8"/>
+      <c r="AA117" s="1"/>
+      <c r="AB117" s="1"/>
+      <c r="AC117" s="1"/>
+    </row>
+    <row r="118" spans="1:32" ht="14" x14ac:dyDescent="0.15">
+      <c r="A118" s="15"/>
       <c r="B118" s="6" t="s">
         <v>124</v>
       </c>
       <c r="C118" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D118" s="19">
-        <v>0</v>
-      </c>
-      <c r="E118" s="19">
-        <v>0</v>
-      </c>
-      <c r="F118" s="19">
+      <c r="D118" s="14">
+        <v>0</v>
+      </c>
+      <c r="E118" s="14">
+        <v>0</v>
+      </c>
+      <c r="F118" s="14">
         <v>2</v>
       </c>
-      <c r="G118" s="19">
+      <c r="G118" s="14">
         <v>2</v>
       </c>
-      <c r="H118" s="3"/>
-      <c r="I118" s="3" t="s">
+      <c r="H118" s="14">
+        <v>2</v>
+      </c>
+      <c r="I118" s="3"/>
+      <c r="J118" s="3"/>
+      <c r="K118" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="J118" s="3"/>
-      <c r="K118" s="4" t="s">
+      <c r="L118" s="3"/>
+      <c r="M118" s="3"/>
+      <c r="N118" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="L118" s="1"/>
-      <c r="M118" s="1"/>
-      <c r="N118" s="1"/>
       <c r="O118" s="1"/>
       <c r="P118" s="1"/>
       <c r="Q118" s="1"/>
@@ -7033,38 +7648,43 @@
       <c r="X118" s="1"/>
       <c r="Y118" s="1"/>
       <c r="Z118" s="1"/>
-    </row>
-    <row r="119" spans="1:29" ht="14" x14ac:dyDescent="0.15">
-      <c r="A119" s="8"/>
+      <c r="AA118" s="1"/>
+      <c r="AB118" s="1"/>
+      <c r="AC118" s="1"/>
+    </row>
+    <row r="119" spans="1:32" ht="14" x14ac:dyDescent="0.15">
+      <c r="A119" s="15"/>
       <c r="B119" s="6" t="s">
         <v>127</v>
       </c>
       <c r="C119" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D119" s="19">
-        <v>0</v>
-      </c>
-      <c r="E119" s="19">
-        <v>0</v>
-      </c>
-      <c r="F119" s="19">
+      <c r="D119" s="14">
+        <v>0</v>
+      </c>
+      <c r="E119" s="14">
+        <v>0</v>
+      </c>
+      <c r="F119" s="14">
         <v>4</v>
       </c>
-      <c r="G119" s="19">
+      <c r="G119" s="14">
         <v>4</v>
       </c>
-      <c r="H119" s="3"/>
-      <c r="I119" s="3" t="s">
+      <c r="H119" s="14">
+        <v>4</v>
+      </c>
+      <c r="I119" s="3"/>
+      <c r="J119" s="3"/>
+      <c r="K119" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="J119" s="3"/>
-      <c r="K119" s="4" t="s">
+      <c r="L119" s="3"/>
+      <c r="M119" s="3"/>
+      <c r="N119" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="L119" s="1"/>
-      <c r="M119" s="1"/>
-      <c r="N119" s="1"/>
       <c r="O119" s="1"/>
       <c r="P119" s="1"/>
       <c r="Q119" s="1"/>
@@ -7077,38 +7697,45 @@
       <c r="X119" s="1"/>
       <c r="Y119" s="1"/>
       <c r="Z119" s="1"/>
-    </row>
-    <row r="120" spans="1:29" ht="14" x14ac:dyDescent="0.15">
-      <c r="A120" s="8"/>
+      <c r="AA119" s="1"/>
+      <c r="AB119" s="1"/>
+      <c r="AC119" s="1"/>
+    </row>
+    <row r="120" spans="1:32" ht="14" x14ac:dyDescent="0.15">
+      <c r="A120" s="15"/>
       <c r="B120" s="6" t="s">
         <v>139</v>
       </c>
       <c r="C120" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="D120" s="19">
-        <v>0</v>
-      </c>
-      <c r="E120" s="19">
-        <v>0</v>
-      </c>
-      <c r="F120" s="19">
-        <v>1</v>
-      </c>
-      <c r="G120" s="19">
-        <v>1</v>
-      </c>
-      <c r="H120" s="3"/>
-      <c r="I120" s="3" t="s">
+      <c r="D120" s="14">
+        <v>0</v>
+      </c>
+      <c r="E120" s="14">
+        <v>0</v>
+      </c>
+      <c r="F120" s="14">
+        <v>1</v>
+      </c>
+      <c r="G120" s="14">
+        <v>0</v>
+      </c>
+      <c r="H120" s="14">
+        <v>0</v>
+      </c>
+      <c r="I120" s="3"/>
+      <c r="J120" s="3"/>
+      <c r="K120" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="J120" s="3"/>
-      <c r="K120" s="4" t="s">
+      <c r="L120" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="M120" s="3"/>
+      <c r="N120" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="L120" s="1"/>
-      <c r="M120" s="1"/>
-      <c r="N120" s="1"/>
       <c r="O120" s="1"/>
       <c r="P120" s="1"/>
       <c r="Q120" s="1"/>
@@ -7121,8 +7748,11 @@
       <c r="X120" s="1"/>
       <c r="Y120" s="1"/>
       <c r="Z120" s="1"/>
-    </row>
-    <row r="121" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA120" s="1"/>
+      <c r="AB120" s="1"/>
+      <c r="AC120" s="1"/>
+    </row>
+    <row r="121" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -7133,10 +7763,10 @@
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
       <c r="J121" s="1"/>
-      <c r="K121" s="2"/>
+      <c r="K121" s="1"/>
       <c r="L121" s="1"/>
       <c r="M121" s="1"/>
-      <c r="N121" s="1"/>
+      <c r="N121" s="2"/>
       <c r="O121" s="1"/>
       <c r="P121" s="1"/>
       <c r="Q121" s="1"/>
@@ -7152,8 +7782,11 @@
       <c r="AA121" s="1"/>
       <c r="AB121" s="1"/>
       <c r="AC121" s="1"/>
-    </row>
-    <row r="122" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AD121" s="1"/>
+      <c r="AE121" s="1"/>
+      <c r="AF121" s="1"/>
+    </row>
+    <row r="122" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -7164,10 +7797,10 @@
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
       <c r="J122" s="1"/>
-      <c r="K122" s="2"/>
+      <c r="K122" s="1"/>
       <c r="L122" s="1"/>
       <c r="M122" s="1"/>
-      <c r="N122" s="1"/>
+      <c r="N122" s="2"/>
       <c r="O122" s="1"/>
       <c r="P122" s="1"/>
       <c r="Q122" s="1"/>
@@ -7183,8 +7816,11 @@
       <c r="AA122" s="1"/>
       <c r="AB122" s="1"/>
       <c r="AC122" s="1"/>
-    </row>
-    <row r="123" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AD122" s="1"/>
+      <c r="AE122" s="1"/>
+      <c r="AF122" s="1"/>
+    </row>
+    <row r="123" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -7195,10 +7831,10 @@
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
       <c r="J123" s="1"/>
-      <c r="K123" s="2"/>
+      <c r="K123" s="1"/>
       <c r="L123" s="1"/>
       <c r="M123" s="1"/>
-      <c r="N123" s="1"/>
+      <c r="N123" s="2"/>
       <c r="O123" s="1"/>
       <c r="P123" s="1"/>
       <c r="Q123" s="1"/>
@@ -7214,8 +7850,11 @@
       <c r="AA123" s="1"/>
       <c r="AB123" s="1"/>
       <c r="AC123" s="1"/>
-    </row>
-    <row r="124" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AD123" s="1"/>
+      <c r="AE123" s="1"/>
+      <c r="AF123" s="1"/>
+    </row>
+    <row r="124" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -7226,10 +7865,10 @@
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
       <c r="J124" s="1"/>
-      <c r="K124" s="2"/>
+      <c r="K124" s="1"/>
       <c r="L124" s="1"/>
       <c r="M124" s="1"/>
-      <c r="N124" s="1"/>
+      <c r="N124" s="2"/>
       <c r="O124" s="1"/>
       <c r="P124" s="1"/>
       <c r="Q124" s="1"/>
@@ -7245,8 +7884,11 @@
       <c r="AA124" s="1"/>
       <c r="AB124" s="1"/>
       <c r="AC124" s="1"/>
-    </row>
-    <row r="125" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AD124" s="1"/>
+      <c r="AE124" s="1"/>
+      <c r="AF124" s="1"/>
+    </row>
+    <row r="125" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -7257,10 +7899,10 @@
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
       <c r="J125" s="1"/>
-      <c r="K125" s="2"/>
+      <c r="K125" s="1"/>
       <c r="L125" s="1"/>
       <c r="M125" s="1"/>
-      <c r="N125" s="1"/>
+      <c r="N125" s="2"/>
       <c r="O125" s="1"/>
       <c r="P125" s="1"/>
       <c r="Q125" s="1"/>
@@ -7276,8 +7918,11 @@
       <c r="AA125" s="1"/>
       <c r="AB125" s="1"/>
       <c r="AC125" s="1"/>
-    </row>
-    <row r="126" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AD125" s="1"/>
+      <c r="AE125" s="1"/>
+      <c r="AF125" s="1"/>
+    </row>
+    <row r="126" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -7288,10 +7933,10 @@
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
       <c r="J126" s="1"/>
-      <c r="K126" s="2"/>
+      <c r="K126" s="1"/>
       <c r="L126" s="1"/>
       <c r="M126" s="1"/>
-      <c r="N126" s="1"/>
+      <c r="N126" s="2"/>
       <c r="O126" s="1"/>
       <c r="P126" s="1"/>
       <c r="Q126" s="1"/>
@@ -7307,8 +7952,11 @@
       <c r="AA126" s="1"/>
       <c r="AB126" s="1"/>
       <c r="AC126" s="1"/>
-    </row>
-    <row r="127" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AD126" s="1"/>
+      <c r="AE126" s="1"/>
+      <c r="AF126" s="1"/>
+    </row>
+    <row r="127" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -7319,10 +7967,10 @@
       <c r="H127" s="1"/>
       <c r="I127" s="1"/>
       <c r="J127" s="1"/>
-      <c r="K127" s="2"/>
+      <c r="K127" s="1"/>
       <c r="L127" s="1"/>
       <c r="M127" s="1"/>
-      <c r="N127" s="1"/>
+      <c r="N127" s="2"/>
       <c r="O127" s="1"/>
       <c r="P127" s="1"/>
       <c r="Q127" s="1"/>
@@ -7338,8 +7986,11 @@
       <c r="AA127" s="1"/>
       <c r="AB127" s="1"/>
       <c r="AC127" s="1"/>
-    </row>
-    <row r="128" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AD127" s="1"/>
+      <c r="AE127" s="1"/>
+      <c r="AF127" s="1"/>
+    </row>
+    <row r="128" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -7350,10 +8001,10 @@
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
       <c r="J128" s="1"/>
-      <c r="K128" s="2"/>
+      <c r="K128" s="1"/>
       <c r="L128" s="1"/>
       <c r="M128" s="1"/>
-      <c r="N128" s="1"/>
+      <c r="N128" s="2"/>
       <c r="O128" s="1"/>
       <c r="P128" s="1"/>
       <c r="Q128" s="1"/>
@@ -7369,8 +8020,11 @@
       <c r="AA128" s="1"/>
       <c r="AB128" s="1"/>
       <c r="AC128" s="1"/>
-    </row>
-    <row r="129" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AD128" s="1"/>
+      <c r="AE128" s="1"/>
+      <c r="AF128" s="1"/>
+    </row>
+    <row r="129" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -7381,10 +8035,10 @@
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
       <c r="J129" s="1"/>
-      <c r="K129" s="2"/>
+      <c r="K129" s="1"/>
       <c r="L129" s="1"/>
       <c r="M129" s="1"/>
-      <c r="N129" s="1"/>
+      <c r="N129" s="2"/>
       <c r="O129" s="1"/>
       <c r="P129" s="1"/>
       <c r="Q129" s="1"/>
@@ -7400,8 +8054,11 @@
       <c r="AA129" s="1"/>
       <c r="AB129" s="1"/>
       <c r="AC129" s="1"/>
-    </row>
-    <row r="130" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AD129" s="1"/>
+      <c r="AE129" s="1"/>
+      <c r="AF129" s="1"/>
+    </row>
+    <row r="130" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -7412,10 +8069,10 @@
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
       <c r="J130" s="1"/>
-      <c r="K130" s="2"/>
+      <c r="K130" s="1"/>
       <c r="L130" s="1"/>
       <c r="M130" s="1"/>
-      <c r="N130" s="1"/>
+      <c r="N130" s="2"/>
       <c r="O130" s="1"/>
       <c r="P130" s="1"/>
       <c r="Q130" s="1"/>
@@ -7431,8 +8088,11 @@
       <c r="AA130" s="1"/>
       <c r="AB130" s="1"/>
       <c r="AC130" s="1"/>
-    </row>
-    <row r="131" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AD130" s="1"/>
+      <c r="AE130" s="1"/>
+      <c r="AF130" s="1"/>
+    </row>
+    <row r="131" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -7443,10 +8103,10 @@
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
       <c r="J131" s="1"/>
-      <c r="K131" s="2"/>
+      <c r="K131" s="1"/>
       <c r="L131" s="1"/>
       <c r="M131" s="1"/>
-      <c r="N131" s="1"/>
+      <c r="N131" s="2"/>
       <c r="O131" s="1"/>
       <c r="P131" s="1"/>
       <c r="Q131" s="1"/>
@@ -7462,8 +8122,11 @@
       <c r="AA131" s="1"/>
       <c r="AB131" s="1"/>
       <c r="AC131" s="1"/>
-    </row>
-    <row r="132" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AD131" s="1"/>
+      <c r="AE131" s="1"/>
+      <c r="AF131" s="1"/>
+    </row>
+    <row r="132" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -7474,10 +8137,10 @@
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
       <c r="J132" s="1"/>
-      <c r="K132" s="2"/>
+      <c r="K132" s="1"/>
       <c r="L132" s="1"/>
       <c r="M132" s="1"/>
-      <c r="N132" s="1"/>
+      <c r="N132" s="2"/>
       <c r="O132" s="1"/>
       <c r="P132" s="1"/>
       <c r="Q132" s="1"/>
@@ -7493,8 +8156,11 @@
       <c r="AA132" s="1"/>
       <c r="AB132" s="1"/>
       <c r="AC132" s="1"/>
-    </row>
-    <row r="133" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AD132" s="1"/>
+      <c r="AE132" s="1"/>
+      <c r="AF132" s="1"/>
+    </row>
+    <row r="133" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -7505,10 +8171,10 @@
       <c r="H133" s="1"/>
       <c r="I133" s="1"/>
       <c r="J133" s="1"/>
-      <c r="K133" s="2"/>
+      <c r="K133" s="1"/>
       <c r="L133" s="1"/>
       <c r="M133" s="1"/>
-      <c r="N133" s="1"/>
+      <c r="N133" s="2"/>
       <c r="O133" s="1"/>
       <c r="P133" s="1"/>
       <c r="Q133" s="1"/>
@@ -7524,8 +8190,11 @@
       <c r="AA133" s="1"/>
       <c r="AB133" s="1"/>
       <c r="AC133" s="1"/>
-    </row>
-    <row r="134" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AD133" s="1"/>
+      <c r="AE133" s="1"/>
+      <c r="AF133" s="1"/>
+    </row>
+    <row r="134" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -7536,10 +8205,10 @@
       <c r="H134" s="1"/>
       <c r="I134" s="1"/>
       <c r="J134" s="1"/>
-      <c r="K134" s="2"/>
+      <c r="K134" s="1"/>
       <c r="L134" s="1"/>
       <c r="M134" s="1"/>
-      <c r="N134" s="1"/>
+      <c r="N134" s="2"/>
       <c r="O134" s="1"/>
       <c r="P134" s="1"/>
       <c r="Q134" s="1"/>
@@ -7555,8 +8224,11 @@
       <c r="AA134" s="1"/>
       <c r="AB134" s="1"/>
       <c r="AC134" s="1"/>
-    </row>
-    <row r="135" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AD134" s="1"/>
+      <c r="AE134" s="1"/>
+      <c r="AF134" s="1"/>
+    </row>
+    <row r="135" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -7567,10 +8239,10 @@
       <c r="H135" s="1"/>
       <c r="I135" s="1"/>
       <c r="J135" s="1"/>
-      <c r="K135" s="2"/>
+      <c r="K135" s="1"/>
       <c r="L135" s="1"/>
       <c r="M135" s="1"/>
-      <c r="N135" s="1"/>
+      <c r="N135" s="2"/>
       <c r="O135" s="1"/>
       <c r="P135" s="1"/>
       <c r="Q135" s="1"/>
@@ -7586,8 +8258,11 @@
       <c r="AA135" s="1"/>
       <c r="AB135" s="1"/>
       <c r="AC135" s="1"/>
-    </row>
-    <row r="136" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AD135" s="1"/>
+      <c r="AE135" s="1"/>
+      <c r="AF135" s="1"/>
+    </row>
+    <row r="136" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -7598,10 +8273,10 @@
       <c r="H136" s="1"/>
       <c r="I136" s="1"/>
       <c r="J136" s="1"/>
-      <c r="K136" s="2"/>
+      <c r="K136" s="1"/>
       <c r="L136" s="1"/>
       <c r="M136" s="1"/>
-      <c r="N136" s="1"/>
+      <c r="N136" s="2"/>
       <c r="O136" s="1"/>
       <c r="P136" s="1"/>
       <c r="Q136" s="1"/>
@@ -7617,8 +8292,11 @@
       <c r="AA136" s="1"/>
       <c r="AB136" s="1"/>
       <c r="AC136" s="1"/>
-    </row>
-    <row r="137" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AD136" s="1"/>
+      <c r="AE136" s="1"/>
+      <c r="AF136" s="1"/>
+    </row>
+    <row r="137" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -7629,10 +8307,10 @@
       <c r="H137" s="1"/>
       <c r="I137" s="1"/>
       <c r="J137" s="1"/>
-      <c r="K137" s="2"/>
+      <c r="K137" s="1"/>
       <c r="L137" s="1"/>
       <c r="M137" s="1"/>
-      <c r="N137" s="1"/>
+      <c r="N137" s="2"/>
       <c r="O137" s="1"/>
       <c r="P137" s="1"/>
       <c r="Q137" s="1"/>
@@ -7648,8 +8326,11 @@
       <c r="AA137" s="1"/>
       <c r="AB137" s="1"/>
       <c r="AC137" s="1"/>
-    </row>
-    <row r="138" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AD137" s="1"/>
+      <c r="AE137" s="1"/>
+      <c r="AF137" s="1"/>
+    </row>
+    <row r="138" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -7660,10 +8341,10 @@
       <c r="H138" s="1"/>
       <c r="I138" s="1"/>
       <c r="J138" s="1"/>
-      <c r="K138" s="2"/>
+      <c r="K138" s="1"/>
       <c r="L138" s="1"/>
       <c r="M138" s="1"/>
-      <c r="N138" s="1"/>
+      <c r="N138" s="2"/>
       <c r="O138" s="1"/>
       <c r="P138" s="1"/>
       <c r="Q138" s="1"/>
@@ -7679,8 +8360,11 @@
       <c r="AA138" s="1"/>
       <c r="AB138" s="1"/>
       <c r="AC138" s="1"/>
-    </row>
-    <row r="139" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AD138" s="1"/>
+      <c r="AE138" s="1"/>
+      <c r="AF138" s="1"/>
+    </row>
+    <row r="139" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -7691,10 +8375,10 @@
       <c r="H139" s="1"/>
       <c r="I139" s="1"/>
       <c r="J139" s="1"/>
-      <c r="K139" s="2"/>
+      <c r="K139" s="1"/>
       <c r="L139" s="1"/>
       <c r="M139" s="1"/>
-      <c r="N139" s="1"/>
+      <c r="N139" s="2"/>
       <c r="O139" s="1"/>
       <c r="P139" s="1"/>
       <c r="Q139" s="1"/>
@@ -7710,8 +8394,11 @@
       <c r="AA139" s="1"/>
       <c r="AB139" s="1"/>
       <c r="AC139" s="1"/>
-    </row>
-    <row r="140" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AD139" s="1"/>
+      <c r="AE139" s="1"/>
+      <c r="AF139" s="1"/>
+    </row>
+    <row r="140" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -7722,10 +8409,10 @@
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
       <c r="J140" s="1"/>
-      <c r="K140" s="2"/>
+      <c r="K140" s="1"/>
       <c r="L140" s="1"/>
       <c r="M140" s="1"/>
-      <c r="N140" s="1"/>
+      <c r="N140" s="2"/>
       <c r="O140" s="1"/>
       <c r="P140" s="1"/>
       <c r="Q140" s="1"/>
@@ -7741,8 +8428,11 @@
       <c r="AA140" s="1"/>
       <c r="AB140" s="1"/>
       <c r="AC140" s="1"/>
-    </row>
-    <row r="141" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AD140" s="1"/>
+      <c r="AE140" s="1"/>
+      <c r="AF140" s="1"/>
+    </row>
+    <row r="141" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -7753,10 +8443,10 @@
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
       <c r="J141" s="1"/>
-      <c r="K141" s="2"/>
+      <c r="K141" s="1"/>
       <c r="L141" s="1"/>
       <c r="M141" s="1"/>
-      <c r="N141" s="1"/>
+      <c r="N141" s="2"/>
       <c r="O141" s="1"/>
       <c r="P141" s="1"/>
       <c r="Q141" s="1"/>
@@ -7772,8 +8462,11 @@
       <c r="AA141" s="1"/>
       <c r="AB141" s="1"/>
       <c r="AC141" s="1"/>
-    </row>
-    <row r="142" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AD141" s="1"/>
+      <c r="AE141" s="1"/>
+      <c r="AF141" s="1"/>
+    </row>
+    <row r="142" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -7784,10 +8477,10 @@
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
       <c r="J142" s="1"/>
-      <c r="K142" s="2"/>
+      <c r="K142" s="1"/>
       <c r="L142" s="1"/>
       <c r="M142" s="1"/>
-      <c r="N142" s="1"/>
+      <c r="N142" s="2"/>
       <c r="O142" s="1"/>
       <c r="P142" s="1"/>
       <c r="Q142" s="1"/>
@@ -7803,8 +8496,11 @@
       <c r="AA142" s="1"/>
       <c r="AB142" s="1"/>
       <c r="AC142" s="1"/>
-    </row>
-    <row r="143" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AD142" s="1"/>
+      <c r="AE142" s="1"/>
+      <c r="AF142" s="1"/>
+    </row>
+    <row r="143" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -7815,10 +8511,10 @@
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
       <c r="J143" s="1"/>
-      <c r="K143" s="2"/>
+      <c r="K143" s="1"/>
       <c r="L143" s="1"/>
       <c r="M143" s="1"/>
-      <c r="N143" s="1"/>
+      <c r="N143" s="2"/>
       <c r="O143" s="1"/>
       <c r="P143" s="1"/>
       <c r="Q143" s="1"/>
@@ -7834,8 +8530,11 @@
       <c r="AA143" s="1"/>
       <c r="AB143" s="1"/>
       <c r="AC143" s="1"/>
-    </row>
-    <row r="144" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AD143" s="1"/>
+      <c r="AE143" s="1"/>
+      <c r="AF143" s="1"/>
+    </row>
+    <row r="144" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -7846,10 +8545,10 @@
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
       <c r="J144" s="1"/>
-      <c r="K144" s="2"/>
+      <c r="K144" s="1"/>
       <c r="L144" s="1"/>
       <c r="M144" s="1"/>
-      <c r="N144" s="1"/>
+      <c r="N144" s="2"/>
       <c r="O144" s="1"/>
       <c r="P144" s="1"/>
       <c r="Q144" s="1"/>
@@ -7865,8 +8564,11 @@
       <c r="AA144" s="1"/>
       <c r="AB144" s="1"/>
       <c r="AC144" s="1"/>
-    </row>
-    <row r="145" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AD144" s="1"/>
+      <c r="AE144" s="1"/>
+      <c r="AF144" s="1"/>
+    </row>
+    <row r="145" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -7877,10 +8579,10 @@
       <c r="H145" s="1"/>
       <c r="I145" s="1"/>
       <c r="J145" s="1"/>
-      <c r="K145" s="2"/>
+      <c r="K145" s="1"/>
       <c r="L145" s="1"/>
       <c r="M145" s="1"/>
-      <c r="N145" s="1"/>
+      <c r="N145" s="2"/>
       <c r="O145" s="1"/>
       <c r="P145" s="1"/>
       <c r="Q145" s="1"/>
@@ -7896,8 +8598,11 @@
       <c r="AA145" s="1"/>
       <c r="AB145" s="1"/>
       <c r="AC145" s="1"/>
-    </row>
-    <row r="146" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AD145" s="1"/>
+      <c r="AE145" s="1"/>
+      <c r="AF145" s="1"/>
+    </row>
+    <row r="146" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -7908,10 +8613,10 @@
       <c r="H146" s="1"/>
       <c r="I146" s="1"/>
       <c r="J146" s="1"/>
-      <c r="K146" s="2"/>
+      <c r="K146" s="1"/>
       <c r="L146" s="1"/>
       <c r="M146" s="1"/>
-      <c r="N146" s="1"/>
+      <c r="N146" s="2"/>
       <c r="O146" s="1"/>
       <c r="P146" s="1"/>
       <c r="Q146" s="1"/>
@@ -7927,8 +8632,11 @@
       <c r="AA146" s="1"/>
       <c r="AB146" s="1"/>
       <c r="AC146" s="1"/>
-    </row>
-    <row r="147" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AD146" s="1"/>
+      <c r="AE146" s="1"/>
+      <c r="AF146" s="1"/>
+    </row>
+    <row r="147" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -7939,10 +8647,10 @@
       <c r="H147" s="1"/>
       <c r="I147" s="1"/>
       <c r="J147" s="1"/>
-      <c r="K147" s="2"/>
+      <c r="K147" s="1"/>
       <c r="L147" s="1"/>
       <c r="M147" s="1"/>
-      <c r="N147" s="1"/>
+      <c r="N147" s="2"/>
       <c r="O147" s="1"/>
       <c r="P147" s="1"/>
       <c r="Q147" s="1"/>
@@ -7958,8 +8666,11 @@
       <c r="AA147" s="1"/>
       <c r="AB147" s="1"/>
       <c r="AC147" s="1"/>
-    </row>
-    <row r="148" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AD147" s="1"/>
+      <c r="AE147" s="1"/>
+      <c r="AF147" s="1"/>
+    </row>
+    <row r="148" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -7970,10 +8681,10 @@
       <c r="H148" s="1"/>
       <c r="I148" s="1"/>
       <c r="J148" s="1"/>
-      <c r="K148" s="2"/>
+      <c r="K148" s="1"/>
       <c r="L148" s="1"/>
       <c r="M148" s="1"/>
-      <c r="N148" s="1"/>
+      <c r="N148" s="2"/>
       <c r="O148" s="1"/>
       <c r="P148" s="1"/>
       <c r="Q148" s="1"/>
@@ -7989,8 +8700,11 @@
       <c r="AA148" s="1"/>
       <c r="AB148" s="1"/>
       <c r="AC148" s="1"/>
-    </row>
-    <row r="149" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AD148" s="1"/>
+      <c r="AE148" s="1"/>
+      <c r="AF148" s="1"/>
+    </row>
+    <row r="149" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -8001,10 +8715,10 @@
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
       <c r="J149" s="1"/>
-      <c r="K149" s="2"/>
+      <c r="K149" s="1"/>
       <c r="L149" s="1"/>
       <c r="M149" s="1"/>
-      <c r="N149" s="1"/>
+      <c r="N149" s="2"/>
       <c r="O149" s="1"/>
       <c r="P149" s="1"/>
       <c r="Q149" s="1"/>
@@ -8020,8 +8734,11 @@
       <c r="AA149" s="1"/>
       <c r="AB149" s="1"/>
       <c r="AC149" s="1"/>
-    </row>
-    <row r="150" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AD149" s="1"/>
+      <c r="AE149" s="1"/>
+      <c r="AF149" s="1"/>
+    </row>
+    <row r="150" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -8032,10 +8749,10 @@
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
       <c r="J150" s="1"/>
-      <c r="K150" s="2"/>
+      <c r="K150" s="1"/>
       <c r="L150" s="1"/>
       <c r="M150" s="1"/>
-      <c r="N150" s="1"/>
+      <c r="N150" s="2"/>
       <c r="O150" s="1"/>
       <c r="P150" s="1"/>
       <c r="Q150" s="1"/>
@@ -8051,8 +8768,11 @@
       <c r="AA150" s="1"/>
       <c r="AB150" s="1"/>
       <c r="AC150" s="1"/>
-    </row>
-    <row r="151" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AD150" s="1"/>
+      <c r="AE150" s="1"/>
+      <c r="AF150" s="1"/>
+    </row>
+    <row r="151" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -8063,10 +8783,10 @@
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
       <c r="J151" s="1"/>
-      <c r="K151" s="2"/>
+      <c r="K151" s="1"/>
       <c r="L151" s="1"/>
       <c r="M151" s="1"/>
-      <c r="N151" s="1"/>
+      <c r="N151" s="2"/>
       <c r="O151" s="1"/>
       <c r="P151" s="1"/>
       <c r="Q151" s="1"/>
@@ -8082,8 +8802,11 @@
       <c r="AA151" s="1"/>
       <c r="AB151" s="1"/>
       <c r="AC151" s="1"/>
-    </row>
-    <row r="152" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AD151" s="1"/>
+      <c r="AE151" s="1"/>
+      <c r="AF151" s="1"/>
+    </row>
+    <row r="152" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -8094,10 +8817,10 @@
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
       <c r="J152" s="1"/>
-      <c r="K152" s="2"/>
+      <c r="K152" s="1"/>
       <c r="L152" s="1"/>
       <c r="M152" s="1"/>
-      <c r="N152" s="1"/>
+      <c r="N152" s="2"/>
       <c r="O152" s="1"/>
       <c r="P152" s="1"/>
       <c r="Q152" s="1"/>
@@ -8113,8 +8836,11 @@
       <c r="AA152" s="1"/>
       <c r="AB152" s="1"/>
       <c r="AC152" s="1"/>
-    </row>
-    <row r="153" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AD152" s="1"/>
+      <c r="AE152" s="1"/>
+      <c r="AF152" s="1"/>
+    </row>
+    <row r="153" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -8125,10 +8851,10 @@
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
       <c r="J153" s="1"/>
-      <c r="K153" s="2"/>
+      <c r="K153" s="1"/>
       <c r="L153" s="1"/>
       <c r="M153" s="1"/>
-      <c r="N153" s="1"/>
+      <c r="N153" s="2"/>
       <c r="O153" s="1"/>
       <c r="P153" s="1"/>
       <c r="Q153" s="1"/>
@@ -8144,8 +8870,11 @@
       <c r="AA153" s="1"/>
       <c r="AB153" s="1"/>
       <c r="AC153" s="1"/>
-    </row>
-    <row r="154" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AD153" s="1"/>
+      <c r="AE153" s="1"/>
+      <c r="AF153" s="1"/>
+    </row>
+    <row r="154" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -8156,10 +8885,10 @@
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
       <c r="J154" s="1"/>
-      <c r="K154" s="2"/>
+      <c r="K154" s="1"/>
       <c r="L154" s="1"/>
       <c r="M154" s="1"/>
-      <c r="N154" s="1"/>
+      <c r="N154" s="2"/>
       <c r="O154" s="1"/>
       <c r="P154" s="1"/>
       <c r="Q154" s="1"/>
@@ -8175,8 +8904,11 @@
       <c r="AA154" s="1"/>
       <c r="AB154" s="1"/>
       <c r="AC154" s="1"/>
-    </row>
-    <row r="155" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AD154" s="1"/>
+      <c r="AE154" s="1"/>
+      <c r="AF154" s="1"/>
+    </row>
+    <row r="155" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -8187,10 +8919,10 @@
       <c r="H155" s="1"/>
       <c r="I155" s="1"/>
       <c r="J155" s="1"/>
-      <c r="K155" s="2"/>
+      <c r="K155" s="1"/>
       <c r="L155" s="1"/>
       <c r="M155" s="1"/>
-      <c r="N155" s="1"/>
+      <c r="N155" s="2"/>
       <c r="O155" s="1"/>
       <c r="P155" s="1"/>
       <c r="Q155" s="1"/>
@@ -8206,8 +8938,11 @@
       <c r="AA155" s="1"/>
       <c r="AB155" s="1"/>
       <c r="AC155" s="1"/>
-    </row>
-    <row r="156" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AD155" s="1"/>
+      <c r="AE155" s="1"/>
+      <c r="AF155" s="1"/>
+    </row>
+    <row r="156" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -8218,10 +8953,10 @@
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
       <c r="J156" s="1"/>
-      <c r="K156" s="2"/>
+      <c r="K156" s="1"/>
       <c r="L156" s="1"/>
       <c r="M156" s="1"/>
-      <c r="N156" s="1"/>
+      <c r="N156" s="2"/>
       <c r="O156" s="1"/>
       <c r="P156" s="1"/>
       <c r="Q156" s="1"/>
@@ -8237,8 +8972,11 @@
       <c r="AA156" s="1"/>
       <c r="AB156" s="1"/>
       <c r="AC156" s="1"/>
-    </row>
-    <row r="157" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AD156" s="1"/>
+      <c r="AE156" s="1"/>
+      <c r="AF156" s="1"/>
+    </row>
+    <row r="157" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -8249,10 +8987,10 @@
       <c r="H157" s="1"/>
       <c r="I157" s="1"/>
       <c r="J157" s="1"/>
-      <c r="K157" s="2"/>
+      <c r="K157" s="1"/>
       <c r="L157" s="1"/>
       <c r="M157" s="1"/>
-      <c r="N157" s="1"/>
+      <c r="N157" s="2"/>
       <c r="O157" s="1"/>
       <c r="P157" s="1"/>
       <c r="Q157" s="1"/>
@@ -8268,8 +9006,11 @@
       <c r="AA157" s="1"/>
       <c r="AB157" s="1"/>
       <c r="AC157" s="1"/>
-    </row>
-    <row r="158" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AD157" s="1"/>
+      <c r="AE157" s="1"/>
+      <c r="AF157" s="1"/>
+    </row>
+    <row r="158" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -8280,10 +9021,10 @@
       <c r="H158" s="1"/>
       <c r="I158" s="1"/>
       <c r="J158" s="1"/>
-      <c r="K158" s="2"/>
+      <c r="K158" s="1"/>
       <c r="L158" s="1"/>
       <c r="M158" s="1"/>
-      <c r="N158" s="1"/>
+      <c r="N158" s="2"/>
       <c r="O158" s="1"/>
       <c r="P158" s="1"/>
       <c r="Q158" s="1"/>
@@ -8299,8 +9040,11 @@
       <c r="AA158" s="1"/>
       <c r="AB158" s="1"/>
       <c r="AC158" s="1"/>
-    </row>
-    <row r="159" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AD158" s="1"/>
+      <c r="AE158" s="1"/>
+      <c r="AF158" s="1"/>
+    </row>
+    <row r="159" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -8311,10 +9055,10 @@
       <c r="H159" s="1"/>
       <c r="I159" s="1"/>
       <c r="J159" s="1"/>
-      <c r="K159" s="2"/>
+      <c r="K159" s="1"/>
       <c r="L159" s="1"/>
       <c r="M159" s="1"/>
-      <c r="N159" s="1"/>
+      <c r="N159" s="2"/>
       <c r="O159" s="1"/>
       <c r="P159" s="1"/>
       <c r="Q159" s="1"/>
@@ -8330,8 +9074,11 @@
       <c r="AA159" s="1"/>
       <c r="AB159" s="1"/>
       <c r="AC159" s="1"/>
-    </row>
-    <row r="160" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AD159" s="1"/>
+      <c r="AE159" s="1"/>
+      <c r="AF159" s="1"/>
+    </row>
+    <row r="160" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -8342,10 +9089,10 @@
       <c r="H160" s="1"/>
       <c r="I160" s="1"/>
       <c r="J160" s="1"/>
-      <c r="K160" s="2"/>
+      <c r="K160" s="1"/>
       <c r="L160" s="1"/>
       <c r="M160" s="1"/>
-      <c r="N160" s="1"/>
+      <c r="N160" s="2"/>
       <c r="O160" s="1"/>
       <c r="P160" s="1"/>
       <c r="Q160" s="1"/>
@@ -8361,8 +9108,11 @@
       <c r="AA160" s="1"/>
       <c r="AB160" s="1"/>
       <c r="AC160" s="1"/>
-    </row>
-    <row r="161" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AD160" s="1"/>
+      <c r="AE160" s="1"/>
+      <c r="AF160" s="1"/>
+    </row>
+    <row r="161" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -8373,10 +9123,10 @@
       <c r="H161" s="1"/>
       <c r="I161" s="1"/>
       <c r="J161" s="1"/>
-      <c r="K161" s="2"/>
+      <c r="K161" s="1"/>
       <c r="L161" s="1"/>
       <c r="M161" s="1"/>
-      <c r="N161" s="1"/>
+      <c r="N161" s="2"/>
       <c r="O161" s="1"/>
       <c r="P161" s="1"/>
       <c r="Q161" s="1"/>
@@ -8392,8 +9142,11 @@
       <c r="AA161" s="1"/>
       <c r="AB161" s="1"/>
       <c r="AC161" s="1"/>
-    </row>
-    <row r="162" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AD161" s="1"/>
+      <c r="AE161" s="1"/>
+      <c r="AF161" s="1"/>
+    </row>
+    <row r="162" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -8404,10 +9157,10 @@
       <c r="H162" s="1"/>
       <c r="I162" s="1"/>
       <c r="J162" s="1"/>
-      <c r="K162" s="2"/>
+      <c r="K162" s="1"/>
       <c r="L162" s="1"/>
       <c r="M162" s="1"/>
-      <c r="N162" s="1"/>
+      <c r="N162" s="2"/>
       <c r="O162" s="1"/>
       <c r="P162" s="1"/>
       <c r="Q162" s="1"/>
@@ -8423,8 +9176,11 @@
       <c r="AA162" s="1"/>
       <c r="AB162" s="1"/>
       <c r="AC162" s="1"/>
-    </row>
-    <row r="163" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AD162" s="1"/>
+      <c r="AE162" s="1"/>
+      <c r="AF162" s="1"/>
+    </row>
+    <row r="163" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -8435,10 +9191,10 @@
       <c r="H163" s="1"/>
       <c r="I163" s="1"/>
       <c r="J163" s="1"/>
-      <c r="K163" s="2"/>
+      <c r="K163" s="1"/>
       <c r="L163" s="1"/>
       <c r="M163" s="1"/>
-      <c r="N163" s="1"/>
+      <c r="N163" s="2"/>
       <c r="O163" s="1"/>
       <c r="P163" s="1"/>
       <c r="Q163" s="1"/>
@@ -8454,8 +9210,11 @@
       <c r="AA163" s="1"/>
       <c r="AB163" s="1"/>
       <c r="AC163" s="1"/>
-    </row>
-    <row r="164" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AD163" s="1"/>
+      <c r="AE163" s="1"/>
+      <c r="AF163" s="1"/>
+    </row>
+    <row r="164" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -8466,10 +9225,10 @@
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
       <c r="J164" s="1"/>
-      <c r="K164" s="2"/>
+      <c r="K164" s="1"/>
       <c r="L164" s="1"/>
       <c r="M164" s="1"/>
-      <c r="N164" s="1"/>
+      <c r="N164" s="2"/>
       <c r="O164" s="1"/>
       <c r="P164" s="1"/>
       <c r="Q164" s="1"/>
@@ -8485,19 +9244,22 @@
       <c r="AA164" s="1"/>
       <c r="AB164" s="1"/>
       <c r="AC164" s="1"/>
-    </row>
-    <row r="165" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="166" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="167" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="168" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="169" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="170" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="171" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="172" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="173" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="174" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="175" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="176" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="AD164" s="1"/>
+      <c r="AE164" s="1"/>
+      <c r="AF164" s="1"/>
+    </row>
+    <row r="165" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -9188,80 +9950,81 @@
     <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A47:A56"/>
+    <mergeCell ref="A31:A46"/>
+    <mergeCell ref="A57:A77"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A19"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A100:A120"/>
     <mergeCell ref="A78:A87"/>
     <mergeCell ref="A88:A90"/>
     <mergeCell ref="A96:A97"/>
     <mergeCell ref="A98:A99"/>
     <mergeCell ref="A91:A95"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A19"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A47:A56"/>
-    <mergeCell ref="A31:A46"/>
-    <mergeCell ref="A57:A77"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="K3" r:id="rId1" xr:uid="{4EEF9A02-49FB-F34A-9D8A-A2E804A34701}"/>
-    <hyperlink ref="K9" r:id="rId2" xr:uid="{81B12C89-FD20-A941-9146-8BA196827F7E}"/>
-    <hyperlink ref="K5" r:id="rId3" xr:uid="{FA6192B7-2232-934C-9EB6-14ADF68260DA}"/>
-    <hyperlink ref="K4" r:id="rId4" xr:uid="{B02C30B3-C56D-5940-8E8D-E40970EED443}"/>
-    <hyperlink ref="K31" r:id="rId5" xr:uid="{764DF23B-EC1A-8D47-BEF4-8D7813CCABA9}"/>
-    <hyperlink ref="K32" r:id="rId6" xr:uid="{73862B72-9E11-FE46-81E2-364D8D04FF88}"/>
-    <hyperlink ref="K110" r:id="rId7" xr:uid="{F73F767C-4BB6-5D46-ADE9-1F1B773D2B5C}"/>
-    <hyperlink ref="K109" r:id="rId8" xr:uid="{2D7AD1BB-A6AB-A14C-9DCB-1E1A9698E0D3}"/>
-    <hyperlink ref="K115" r:id="rId9" xr:uid="{82E1373F-8D14-7D4D-93E0-F9A1568F1974}"/>
-    <hyperlink ref="K105" r:id="rId10" xr:uid="{D380FC82-5860-1145-80F5-29FD021D68B9}"/>
-    <hyperlink ref="K106" r:id="rId11" xr:uid="{9DE5631B-6681-BB4D-BDB0-42AC20A059F8}"/>
-    <hyperlink ref="K107" r:id="rId12" xr:uid="{3CD3CF1E-F5A9-A840-962F-7BC7702B915A}"/>
-    <hyperlink ref="K111" r:id="rId13" xr:uid="{329BE997-1440-5B47-BD86-5E12839125D4}"/>
-    <hyperlink ref="K114" r:id="rId14" xr:uid="{6FC69CA6-A485-AE48-95B1-010ABEC181B4}"/>
-    <hyperlink ref="K20" r:id="rId15" xr:uid="{581B34D2-9C04-B844-BCBE-06048846762D}"/>
-    <hyperlink ref="K26" r:id="rId16" xr:uid="{57BF47FE-7D21-CC48-AC1A-C80C30D7D801}"/>
-    <hyperlink ref="K27" r:id="rId17" xr:uid="{881A94E9-CAB1-DB47-859D-3BAF471FDECF}"/>
-    <hyperlink ref="K25" r:id="rId18" xr:uid="{358D5919-1AFD-2E46-A345-23BE36B3689F}"/>
-    <hyperlink ref="K21" r:id="rId19" xr:uid="{6B186369-D66F-1741-B62F-B180C73FE20A}"/>
-    <hyperlink ref="K22" r:id="rId20" xr:uid="{67EED017-1443-B447-AEB9-42259BA685D9}"/>
-    <hyperlink ref="K23" r:id="rId21" xr:uid="{4CC7D458-2907-4D4A-9294-52DD7162C330}"/>
-    <hyperlink ref="K16" r:id="rId22" xr:uid="{84DD28FE-CA48-B74C-9B13-29C184604681}"/>
-    <hyperlink ref="K95" r:id="rId23" xr:uid="{DDB10315-9687-CA4C-BC73-CA878221E6CF}"/>
-    <hyperlink ref="K98" r:id="rId24" xr:uid="{71236614-95F7-BE40-976A-9F20E7597150}"/>
-    <hyperlink ref="K97" r:id="rId25" xr:uid="{D27993BE-0E83-5447-BCDD-A80BC6C79F70}"/>
-    <hyperlink ref="K96" r:id="rId26" xr:uid="{DB9EF619-9467-234C-B197-1DCB58977944}"/>
-    <hyperlink ref="K94" r:id="rId27" xr:uid="{9DC15784-33DB-9440-AD0B-B84692009027}"/>
-    <hyperlink ref="K93" r:id="rId28" xr:uid="{7FA1FFA3-7DB7-1648-B1F9-A92658A317ED}"/>
-    <hyperlink ref="K92" r:id="rId29" xr:uid="{B81EE69F-71C0-0A49-8004-A8175E272373}"/>
-    <hyperlink ref="K91" r:id="rId30" xr:uid="{E21BE2B7-1C4F-3840-9AB0-26B21F728117}"/>
-    <hyperlink ref="K103" r:id="rId31" xr:uid="{8714C450-7AB3-2B44-8A8E-61473C0501A0}"/>
-    <hyperlink ref="K101" r:id="rId32" xr:uid="{AE55268D-32E6-9241-B49F-4F7B51DB8A59}"/>
-    <hyperlink ref="K87" r:id="rId33" xr:uid="{DD859F19-6B1B-AE4C-90BE-C8F912B3BAB7}"/>
-    <hyperlink ref="K79" r:id="rId34" xr:uid="{706955E3-FDB4-9C46-86EE-128C74E03547}"/>
-    <hyperlink ref="K30" r:id="rId35" xr:uid="{136A547E-DA64-C246-AF7C-26F50E283843}"/>
-    <hyperlink ref="K57" r:id="rId36" xr:uid="{AA42EBAB-23E4-964C-AC13-9E863CD92D29}"/>
-    <hyperlink ref="K59" r:id="rId37" xr:uid="{A9A6E541-F7BC-FD4A-84D7-803DA8A975AB}"/>
-    <hyperlink ref="K58" r:id="rId38" xr:uid="{01378C43-9B3A-3741-9129-61E30C3C5604}"/>
-    <hyperlink ref="K67" r:id="rId39" xr:uid="{3820232E-4065-5A43-913C-98257FC286C7}"/>
-    <hyperlink ref="K66" r:id="rId40" xr:uid="{DFE6DA52-FD9F-8E4E-82AA-1DB74B611A6E}"/>
-    <hyperlink ref="K69" r:id="rId41" xr:uid="{867A9723-FFB4-3B4B-9286-36102C080507}"/>
-    <hyperlink ref="K71" r:id="rId42" xr:uid="{74BF87E6-EBF2-CB4D-994A-8498747635A0}"/>
-    <hyperlink ref="K83" r:id="rId43" xr:uid="{BD54E36D-9846-6242-B6B2-305D557D6C05}"/>
-    <hyperlink ref="K78" r:id="rId44" xr:uid="{D52F70DA-772F-7C49-AC05-8394CEA45E21}"/>
-    <hyperlink ref="K43" r:id="rId45" xr:uid="{111B6513-1D33-6743-BBE0-71C0E2D8A504}"/>
-    <hyperlink ref="K45" r:id="rId46" xr:uid="{D49D721C-A333-5149-A205-34AD6E26917F}"/>
-    <hyperlink ref="K35" r:id="rId47" xr:uid="{173C9C36-A68D-4647-B381-16AD53E70612}"/>
-    <hyperlink ref="K68" r:id="rId48" xr:uid="{4B4FC91B-E79F-2541-80DB-A4D7114FD167}"/>
-    <hyperlink ref="K85" r:id="rId49" xr:uid="{6710643B-3CE5-6348-9A5C-FBFB721D5C1D}"/>
-    <hyperlink ref="K42" r:id="rId50" xr:uid="{CE6E1B8E-650B-7645-A875-01D324D9C7BE}"/>
-    <hyperlink ref="K77" r:id="rId51" xr:uid="{E56760F1-A773-E74A-BE41-29356D7ADD5F}"/>
-    <hyperlink ref="K46" r:id="rId52" xr:uid="{DBEF5FAC-F90D-B745-9DD9-AFAFC119E59A}"/>
-    <hyperlink ref="K120" r:id="rId53" xr:uid="{FA27A36B-F1D4-D841-AEC1-F7C0C1593191}"/>
-    <hyperlink ref="K119" r:id="rId54" xr:uid="{137FBE7E-E8C2-D848-B8AF-B96E4C84C8AC}"/>
-    <hyperlink ref="K118" r:id="rId55" xr:uid="{E4C00358-BDCE-834C-AD1A-69AB3FE28B85}"/>
-    <hyperlink ref="K117" r:id="rId56" xr:uid="{BF91FA62-9517-F04B-9121-AD145D2A1C1A}"/>
-    <hyperlink ref="K116" r:id="rId57" xr:uid="{49CD5F97-3750-8845-8659-922B9AA8C15F}"/>
+    <hyperlink ref="N3" r:id="rId1" xr:uid="{4EEF9A02-49FB-F34A-9D8A-A2E804A34701}"/>
+    <hyperlink ref="N9" r:id="rId2" xr:uid="{81B12C89-FD20-A941-9146-8BA196827F7E}"/>
+    <hyperlink ref="N5" r:id="rId3" xr:uid="{FA6192B7-2232-934C-9EB6-14ADF68260DA}"/>
+    <hyperlink ref="N4" r:id="rId4" xr:uid="{B02C30B3-C56D-5940-8E8D-E40970EED443}"/>
+    <hyperlink ref="N31" r:id="rId5" xr:uid="{764DF23B-EC1A-8D47-BEF4-8D7813CCABA9}"/>
+    <hyperlink ref="N32" r:id="rId6" xr:uid="{73862B72-9E11-FE46-81E2-364D8D04FF88}"/>
+    <hyperlink ref="N110" r:id="rId7" xr:uid="{F73F767C-4BB6-5D46-ADE9-1F1B773D2B5C}"/>
+    <hyperlink ref="N109" r:id="rId8" xr:uid="{2D7AD1BB-A6AB-A14C-9DCB-1E1A9698E0D3}"/>
+    <hyperlink ref="N115" r:id="rId9" xr:uid="{82E1373F-8D14-7D4D-93E0-F9A1568F1974}"/>
+    <hyperlink ref="N105" r:id="rId10" xr:uid="{D380FC82-5860-1145-80F5-29FD021D68B9}"/>
+    <hyperlink ref="N106" r:id="rId11" xr:uid="{9DE5631B-6681-BB4D-BDB0-42AC20A059F8}"/>
+    <hyperlink ref="N107" r:id="rId12" xr:uid="{3CD3CF1E-F5A9-A840-962F-7BC7702B915A}"/>
+    <hyperlink ref="N111" r:id="rId13" xr:uid="{329BE997-1440-5B47-BD86-5E12839125D4}"/>
+    <hyperlink ref="N114" r:id="rId14" xr:uid="{6FC69CA6-A485-AE48-95B1-010ABEC181B4}"/>
+    <hyperlink ref="N20" r:id="rId15" xr:uid="{581B34D2-9C04-B844-BCBE-06048846762D}"/>
+    <hyperlink ref="N26" r:id="rId16" xr:uid="{57BF47FE-7D21-CC48-AC1A-C80C30D7D801}"/>
+    <hyperlink ref="N27" r:id="rId17" xr:uid="{881A94E9-CAB1-DB47-859D-3BAF471FDECF}"/>
+    <hyperlink ref="N25" r:id="rId18" xr:uid="{358D5919-1AFD-2E46-A345-23BE36B3689F}"/>
+    <hyperlink ref="N21" r:id="rId19" xr:uid="{6B186369-D66F-1741-B62F-B180C73FE20A}"/>
+    <hyperlink ref="N22" r:id="rId20" xr:uid="{67EED017-1443-B447-AEB9-42259BA685D9}"/>
+    <hyperlink ref="N23" r:id="rId21" xr:uid="{4CC7D458-2907-4D4A-9294-52DD7162C330}"/>
+    <hyperlink ref="N16" r:id="rId22" xr:uid="{84DD28FE-CA48-B74C-9B13-29C184604681}"/>
+    <hyperlink ref="N95" r:id="rId23" xr:uid="{DDB10315-9687-CA4C-BC73-CA878221E6CF}"/>
+    <hyperlink ref="N98" r:id="rId24" xr:uid="{71236614-95F7-BE40-976A-9F20E7597150}"/>
+    <hyperlink ref="N97" r:id="rId25" xr:uid="{D27993BE-0E83-5447-BCDD-A80BC6C79F70}"/>
+    <hyperlink ref="N96" r:id="rId26" xr:uid="{DB9EF619-9467-234C-B197-1DCB58977944}"/>
+    <hyperlink ref="N94" r:id="rId27" xr:uid="{9DC15784-33DB-9440-AD0B-B84692009027}"/>
+    <hyperlink ref="N93" r:id="rId28" xr:uid="{7FA1FFA3-7DB7-1648-B1F9-A92658A317ED}"/>
+    <hyperlink ref="N92" r:id="rId29" xr:uid="{B81EE69F-71C0-0A49-8004-A8175E272373}"/>
+    <hyperlink ref="N91" r:id="rId30" xr:uid="{E21BE2B7-1C4F-3840-9AB0-26B21F728117}"/>
+    <hyperlink ref="N103" r:id="rId31" xr:uid="{8714C450-7AB3-2B44-8A8E-61473C0501A0}"/>
+    <hyperlink ref="N101" r:id="rId32" xr:uid="{AE55268D-32E6-9241-B49F-4F7B51DB8A59}"/>
+    <hyperlink ref="N87" r:id="rId33" xr:uid="{DD859F19-6B1B-AE4C-90BE-C8F912B3BAB7}"/>
+    <hyperlink ref="N79" r:id="rId34" xr:uid="{706955E3-FDB4-9C46-86EE-128C74E03547}"/>
+    <hyperlink ref="N30" r:id="rId35" xr:uid="{136A547E-DA64-C246-AF7C-26F50E283843}"/>
+    <hyperlink ref="N57" r:id="rId36" xr:uid="{AA42EBAB-23E4-964C-AC13-9E863CD92D29}"/>
+    <hyperlink ref="N59" r:id="rId37" xr:uid="{A9A6E541-F7BC-FD4A-84D7-803DA8A975AB}"/>
+    <hyperlink ref="N58" r:id="rId38" xr:uid="{01378C43-9B3A-3741-9129-61E30C3C5604}"/>
+    <hyperlink ref="N67" r:id="rId39" xr:uid="{3820232E-4065-5A43-913C-98257FC286C7}"/>
+    <hyperlink ref="N66" r:id="rId40" xr:uid="{DFE6DA52-FD9F-8E4E-82AA-1DB74B611A6E}"/>
+    <hyperlink ref="N69" r:id="rId41" xr:uid="{867A9723-FFB4-3B4B-9286-36102C080507}"/>
+    <hyperlink ref="N71" r:id="rId42" xr:uid="{74BF87E6-EBF2-CB4D-994A-8498747635A0}"/>
+    <hyperlink ref="N83" r:id="rId43" xr:uid="{BD54E36D-9846-6242-B6B2-305D557D6C05}"/>
+    <hyperlink ref="N78" r:id="rId44" xr:uid="{D52F70DA-772F-7C49-AC05-8394CEA45E21}"/>
+    <hyperlink ref="N43" r:id="rId45" xr:uid="{111B6513-1D33-6743-BBE0-71C0E2D8A504}"/>
+    <hyperlink ref="N45" r:id="rId46" xr:uid="{D49D721C-A333-5149-A205-34AD6E26917F}"/>
+    <hyperlink ref="N35" r:id="rId47" xr:uid="{173C9C36-A68D-4647-B381-16AD53E70612}"/>
+    <hyperlink ref="N68" r:id="rId48" xr:uid="{4B4FC91B-E79F-2541-80DB-A4D7114FD167}"/>
+    <hyperlink ref="N85" r:id="rId49" xr:uid="{6710643B-3CE5-6348-9A5C-FBFB721D5C1D}"/>
+    <hyperlink ref="N42" r:id="rId50" xr:uid="{CE6E1B8E-650B-7645-A875-01D324D9C7BE}"/>
+    <hyperlink ref="N77" r:id="rId51" xr:uid="{E56760F1-A773-E74A-BE41-29356D7ADD5F}"/>
+    <hyperlink ref="N46" r:id="rId52" xr:uid="{DBEF5FAC-F90D-B745-9DD9-AFAFC119E59A}"/>
+    <hyperlink ref="N120" r:id="rId53" xr:uid="{FA27A36B-F1D4-D841-AEC1-F7C0C1593191}"/>
+    <hyperlink ref="N119" r:id="rId54" xr:uid="{137FBE7E-E8C2-D848-B8AF-B96E4C84C8AC}"/>
+    <hyperlink ref="N118" r:id="rId55" xr:uid="{E4C00358-BDCE-834C-AD1A-69AB3FE28B85}"/>
+    <hyperlink ref="N117" r:id="rId56" xr:uid="{BF91FA62-9517-F04B-9121-AD145D2A1C1A}"/>
+    <hyperlink ref="N116" r:id="rId57" xr:uid="{49CD5F97-3750-8845-8659-922B9AA8C15F}"/>
+    <hyperlink ref="N34" r:id="rId58" xr:uid="{DF3C5AE6-459A-0445-A014-BA1F9BC605AA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
